--- a/气象/北方强冷站：统计信息.xlsx
+++ b/气象/北方强冷站：统计信息.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B103A2-24C9-4982-B523-4BED5EEAC6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EA3625-3796-4D83-8A4A-98DF6AA189F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{8D56AB80-2E26-4029-929F-AED17FA8BDE0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="182">
   <si>
     <t>漠河</t>
   </si>
@@ -568,10 +568,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>乌兰乌拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西图伦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马勒钦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌兰固木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨吉勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达布斯特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1687m</t>
+  </si>
+  <si>
+    <t>1393m</t>
+  </si>
+  <si>
+    <t>1142m</t>
+  </si>
+  <si>
+    <t>1233m</t>
+  </si>
+  <si>
+    <t>852m</t>
+  </si>
+  <si>
+    <t>50.68°N</t>
+  </si>
+  <si>
+    <t>48.65°N</t>
+  </si>
+  <si>
+    <t>48.55°N</t>
+  </si>
+  <si>
+    <t>49.73°N</t>
+  </si>
+  <si>
+    <t>50.34°N</t>
+  </si>
+  <si>
+    <t>49.66°N</t>
+  </si>
+  <si>
+    <t>50.61°N</t>
+  </si>
+  <si>
+    <t>49.70°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.80°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.90°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一
+月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二
+月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三
+月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四
+月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五
+月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六
+月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七
+月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八
+月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九
+月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十
+月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十
+一
+月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十
+二
+月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海
+拔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬
+度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="40"/>
+        <sz val="80"/>
         <color theme="0"/>
         <rFont val="等线"/>
         <family val="3"/>
@@ -583,7 +727,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="40"/>
+        <sz val="80"/>
         <color rgb="FFFFFF00"/>
         <rFont val="等线"/>
         <family val="3"/>
@@ -595,19 +739,43 @@
     <r>
       <rPr>
         <b/>
-        <sz val="40"/>
+        <sz val="80"/>
         <color theme="0"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">温(℃)
+      <t>温</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="72"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(℃)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="70"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="20"/>
+        <sz val="36"/>
         <color theme="0"/>
         <rFont val="等线"/>
         <family val="3"/>
@@ -626,7 +794,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -907,16 +1075,102 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="40"/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
       <color rgb="FFFFFF00"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="70"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="80"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="80"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FFF72585"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FFFFEE32"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1001,8 +1255,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB539"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA307"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF48C06"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE85D04"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDC2F02"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9D0208"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6A040F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF370617"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF03071E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1258,13 +1572,232 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1556,6 +2089,27 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1591,6 +2145,174 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="20" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="18" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="21" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="43" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="22" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="22" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="19" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="21" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="43" fillId="24" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="24" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="20" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="21" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="19" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="20" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="22" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="20" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="17" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="19" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="21" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="20" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="43" fillId="24" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="19" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="17" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="15" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="21" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="22" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="21" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="42" fillId="15" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="42" fillId="15" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="42" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1600,16 +2322,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF480CA8"/>
       <color rgb="FFF72585"/>
-      <color rgb="FF4895EF"/>
+      <color rgb="FFFFEE32"/>
+      <color rgb="FF80ED99"/>
+      <color rgb="FF003F88"/>
       <color rgb="FF4361EE"/>
-      <color rgb="FF3F37C9"/>
-      <color rgb="FF3A0CA3"/>
-      <color rgb="FF560BAD"/>
-      <color rgb="FF7209B7"/>
-      <color rgb="FFB5179E"/>
-      <color rgb="FF4CC9F0"/>
+      <color rgb="FF03071E"/>
+      <color rgb="FF370617"/>
+      <color rgb="FF6A040F"/>
+      <color rgb="FF9D0208"/>
+      <color rgb="FFD00000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1939,28 +2661,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="100.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="97" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="98"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="105"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="50" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="59" t="s">
@@ -1969,11 +2691,11 @@
       <c r="B2" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="58" t="s">
         <v>27</v>
       </c>
@@ -3509,26 +4231,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="82.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
@@ -3537,14 +4259,14 @@
       <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="103"/>
+      <c r="D2" s="110"/>
       <c r="E2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="106"/>
+      <c r="F2" s="113"/>
       <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
@@ -3601,7 +4323,7 @@
       <c r="E3" s="11">
         <v>-52.6</v>
       </c>
-      <c r="F3" s="107"/>
+      <c r="F3" s="114"/>
       <c r="G3" s="12">
         <v>-52.6</v>
       </c>
@@ -3658,7 +4380,7 @@
       <c r="E4" s="19">
         <v>-51.3</v>
       </c>
-      <c r="F4" s="107"/>
+      <c r="F4" s="114"/>
       <c r="G4" s="16">
         <v>-51.3</v>
       </c>
@@ -3715,7 +4437,7 @@
       <c r="E5" s="22">
         <v>-53.3</v>
       </c>
-      <c r="F5" s="107"/>
+      <c r="F5" s="114"/>
       <c r="G5" s="23">
         <v>-53.3</v>
       </c>
@@ -3772,7 +4494,7 @@
       <c r="E6" s="24">
         <v>-50.4</v>
       </c>
-      <c r="F6" s="107"/>
+      <c r="F6" s="114"/>
       <c r="G6" s="13">
         <v>-50.4</v>
       </c>
@@ -3829,7 +4551,7 @@
       <c r="E7" s="19">
         <v>-51.3</v>
       </c>
-      <c r="F7" s="107"/>
+      <c r="F7" s="114"/>
       <c r="G7" s="13">
         <v>-50.3</v>
       </c>
@@ -3886,7 +4608,7 @@
       <c r="E8" s="25">
         <v>-50.7</v>
       </c>
-      <c r="F8" s="107"/>
+      <c r="F8" s="114"/>
       <c r="G8" s="15">
         <v>-50.7</v>
       </c>
@@ -3943,7 +4665,7 @@
       <c r="E9" s="24">
         <v>-50.4</v>
       </c>
-      <c r="F9" s="107"/>
+      <c r="F9" s="114"/>
       <c r="G9" s="13">
         <v>-50.4</v>
       </c>
@@ -4000,7 +4722,7 @@
       <c r="E10" s="26">
         <v>-51.9</v>
       </c>
-      <c r="F10" s="107"/>
+      <c r="F10" s="114"/>
       <c r="G10" s="20">
         <v>-51.9</v>
       </c>
@@ -4057,7 +4779,7 @@
       <c r="E11" s="25">
         <v>-50.6</v>
       </c>
-      <c r="F11" s="107"/>
+      <c r="F11" s="114"/>
       <c r="G11" s="15">
         <v>-50.6</v>
       </c>
@@ -4114,7 +4836,7 @@
       <c r="E12" s="28">
         <v>-52.9</v>
       </c>
-      <c r="F12" s="107"/>
+      <c r="F12" s="114"/>
       <c r="G12" s="21">
         <v>-52.9</v>
       </c>
@@ -4171,7 +4893,7 @@
       <c r="E13" s="29">
         <v>-54.7</v>
       </c>
-      <c r="F13" s="107"/>
+      <c r="F13" s="114"/>
       <c r="G13" s="23">
         <v>-53.2</v>
       </c>
@@ -4228,7 +4950,7 @@
       <c r="E14" s="19">
         <v>-51.2</v>
       </c>
-      <c r="F14" s="107"/>
+      <c r="F14" s="114"/>
       <c r="G14" s="16">
         <v>-51.2</v>
       </c>
@@ -4285,7 +5007,7 @@
       <c r="E15" s="30">
         <v>-55.3</v>
       </c>
-      <c r="F15" s="108"/>
+      <c r="F15" s="115"/>
       <c r="G15" s="14">
         <v>-55.3</v>
       </c>
@@ -4350,412 +5072,969 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8304F37C-45A0-410A-800E-3311AD044CC9}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
-    <col min="2" max="2" width="9.06640625" style="1"/>
-    <col min="3" max="3" width="12.59765625" customWidth="1"/>
-    <col min="4" max="5" width="16.59765625" customWidth="1"/>
-    <col min="6" max="6" width="1.59765625" customWidth="1"/>
-    <col min="7" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" customWidth="1"/>
+    <col min="5" max="16" width="12.59765625" customWidth="1"/>
+    <col min="17" max="17" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="82.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:18" ht="180" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="111" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="117"/>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="100.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="103" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="103" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="116"/>
+      <c r="E2" s="122" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="122" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="122" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" s="122" t="s">
+        <v>171</v>
+      </c>
+      <c r="J2" s="122" t="s">
+        <v>172</v>
+      </c>
+      <c r="K2" s="122" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" s="122" t="s">
+        <v>174</v>
+      </c>
+      <c r="M2" s="122" t="s">
+        <v>175</v>
+      </c>
+      <c r="N2" s="122" t="s">
+        <v>176</v>
+      </c>
+      <c r="O2" s="123" t="s">
+        <v>177</v>
+      </c>
+      <c r="P2" s="123" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q2" s="124" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="72" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="118" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="158">
+        <v>-4.5</v>
+      </c>
+      <c r="F3" s="151">
+        <v>1.9</v>
+      </c>
+      <c r="G3" s="152">
+        <v>13.5</v>
+      </c>
+      <c r="H3" s="153">
+        <v>23.7</v>
+      </c>
+      <c r="I3" s="153">
+        <v>28.3</v>
+      </c>
+      <c r="J3" s="153">
+        <v>30.4</v>
+      </c>
+      <c r="K3" s="152">
+        <v>34.9</v>
+      </c>
+      <c r="L3" s="154">
+        <v>31.5</v>
+      </c>
+      <c r="M3" s="155">
+        <v>29.2</v>
+      </c>
+      <c r="N3" s="152">
+        <v>21.6</v>
+      </c>
+      <c r="O3" s="153">
+        <v>5.3</v>
+      </c>
+      <c r="P3" s="156">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q3" s="157">
+        <v>34.9</v>
+      </c>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" ht="72" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="118" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="159">
+        <v>-7.8</v>
+      </c>
+      <c r="F4" s="126">
+        <v>-2.6</v>
+      </c>
+      <c r="G4" s="127">
+        <v>11.5</v>
+      </c>
+      <c r="H4" s="128">
+        <v>24.2</v>
+      </c>
+      <c r="I4" s="131">
+        <v>40.6</v>
+      </c>
+      <c r="J4" s="126">
+        <v>33</v>
+      </c>
+      <c r="K4" s="127">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="L4" s="130">
+        <v>36.5</v>
+      </c>
+      <c r="M4" s="127">
+        <v>26.9</v>
+      </c>
+      <c r="N4" s="127">
+        <v>20.6</v>
+      </c>
+      <c r="O4" s="169">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P4" s="126">
+        <v>-3.5</v>
+      </c>
+      <c r="Q4" s="135">
+        <v>40.6</v>
+      </c>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" ht="72" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="98" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="119" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
+      <c r="E5" s="160">
+        <v>1</v>
+      </c>
+      <c r="F5" s="130">
+        <v>2.6</v>
+      </c>
+      <c r="G5" s="126">
+        <v>13.2</v>
+      </c>
+      <c r="H5" s="128">
+        <v>24.2</v>
+      </c>
+      <c r="I5" s="127">
+        <v>28.9</v>
+      </c>
+      <c r="J5" s="127">
+        <v>30.5</v>
+      </c>
+      <c r="K5" s="128">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="L5" s="127">
+        <v>30.9</v>
+      </c>
+      <c r="M5" s="128">
+        <v>28.1</v>
+      </c>
+      <c r="N5" s="130">
+        <v>23.1</v>
+      </c>
+      <c r="O5" s="128">
+        <v>8.4</v>
+      </c>
+      <c r="P5" s="133">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="136">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="R5" s="4"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="103" t="s">
+    <row r="6" spans="1:18" ht="72" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="98" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="119" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="161">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F6" s="132">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G6" s="132">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H6" s="133">
+        <v>28.4</v>
+      </c>
+      <c r="I6" s="126">
+        <v>31.5</v>
+      </c>
+      <c r="J6" s="130">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="K6" s="133">
+        <v>38.6</v>
+      </c>
+      <c r="L6" s="125">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="M6" s="132">
+        <v>33.5</v>
+      </c>
+      <c r="N6" s="133">
+        <v>23.9</v>
+      </c>
+      <c r="O6" s="132">
+        <v>13.5</v>
+      </c>
+      <c r="P6" s="131">
+        <v>6.5</v>
+      </c>
+      <c r="Q6" s="137">
+        <v>38.6</v>
+      </c>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" ht="72" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="98" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="162">
+        <v>-5.9</v>
+      </c>
+      <c r="F7" s="133">
+        <v>3.5</v>
+      </c>
+      <c r="G7" s="131">
+        <v>18.8</v>
+      </c>
+      <c r="H7" s="129">
+        <v>25.7</v>
+      </c>
+      <c r="I7" s="127">
+        <v>28.7</v>
+      </c>
+      <c r="J7" s="129">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="K7" s="125">
+        <v>36.5</v>
+      </c>
+      <c r="L7" s="129">
+        <v>34.5</v>
+      </c>
+      <c r="M7" s="129">
+        <v>29.2</v>
+      </c>
+      <c r="N7" s="132">
+        <v>24.5</v>
+      </c>
+      <c r="O7" s="129">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="P7" s="133">
+        <v>3.5</v>
+      </c>
+      <c r="Q7" s="138">
+        <v>36.5</v>
+      </c>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" ht="72" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="98" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="119" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="163">
+        <v>-12</v>
+      </c>
+      <c r="F8" s="128">
+        <v>-5.2</v>
+      </c>
+      <c r="G8" s="126">
+        <v>13.4</v>
+      </c>
+      <c r="H8" s="130">
+        <v>28</v>
+      </c>
+      <c r="I8" s="133">
+        <v>35.9</v>
+      </c>
+      <c r="J8" s="134">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="K8" s="130">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="L8" s="132">
+        <v>38.4</v>
+      </c>
+      <c r="M8" s="130">
+        <v>30.8</v>
+      </c>
+      <c r="N8" s="132">
+        <v>24.6</v>
+      </c>
+      <c r="O8" s="131">
+        <v>15.9</v>
+      </c>
+      <c r="P8" s="132">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q8" s="137">
+        <v>38.4</v>
+      </c>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" ht="72" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="119" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="164">
+        <v>-15.2</v>
+      </c>
+      <c r="F9" s="128">
+        <v>-5</v>
+      </c>
+      <c r="G9" s="129">
+        <v>13.8</v>
+      </c>
+      <c r="H9" s="132">
+        <v>28.9</v>
+      </c>
+      <c r="I9" s="129">
+        <v>32.4</v>
+      </c>
+      <c r="J9" s="125">
+        <v>35.1</v>
+      </c>
+      <c r="K9" s="130">
+        <v>38</v>
+      </c>
+      <c r="L9" s="133">
+        <v>37.5</v>
+      </c>
+      <c r="M9" s="125">
+        <v>30.5</v>
+      </c>
+      <c r="N9" s="130">
+        <v>23</v>
+      </c>
+      <c r="O9" s="126">
+        <v>9</v>
+      </c>
+      <c r="P9" s="126">
+        <v>-3.6</v>
+      </c>
+      <c r="Q9" s="139">
+        <v>38</v>
+      </c>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" ht="72" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="98" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="119" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="163">
+        <v>-11.6</v>
+      </c>
+      <c r="F10" s="128">
+        <v>-5</v>
+      </c>
+      <c r="G10" s="169">
+        <v>10.5</v>
+      </c>
+      <c r="H10" s="126">
+        <v>24.5</v>
+      </c>
+      <c r="I10" s="132">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="J10" s="125">
+        <v>35.1</v>
+      </c>
+      <c r="K10" s="131">
+        <v>42.4</v>
+      </c>
+      <c r="L10" s="133">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="M10" s="129">
+        <v>29.4</v>
+      </c>
+      <c r="N10" s="127">
+        <v>20.8</v>
+      </c>
+      <c r="O10" s="132">
+        <v>13.9</v>
+      </c>
+      <c r="P10" s="127">
+        <v>-4.8</v>
+      </c>
+      <c r="Q10" s="140">
+        <v>42.4</v>
+      </c>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" ht="72" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="119" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="170">
+        <v>-15.3</v>
+      </c>
+      <c r="F11" s="127">
+        <v>-6.8</v>
+      </c>
+      <c r="G11" s="125">
+        <v>14.5</v>
+      </c>
+      <c r="H11" s="131">
+        <v>31.5</v>
+      </c>
+      <c r="I11" s="125">
+        <v>33.4</v>
+      </c>
+      <c r="J11" s="131">
+        <v>38.5</v>
+      </c>
+      <c r="K11" s="134">
+        <v>42</v>
+      </c>
+      <c r="L11" s="134">
+        <v>39.5</v>
+      </c>
+      <c r="M11" s="131">
+        <v>34.5</v>
+      </c>
+      <c r="N11" s="129">
+        <v>22.1</v>
+      </c>
+      <c r="O11" s="133">
+        <v>12.5</v>
+      </c>
+      <c r="P11" s="128">
+        <v>-4</v>
+      </c>
+      <c r="Q11" s="141">
+        <v>42</v>
+      </c>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" ht="72" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="165">
+        <v>-14.4</v>
+      </c>
+      <c r="F12" s="169">
+        <v>-7.8</v>
+      </c>
+      <c r="G12" s="129">
+        <v>14</v>
+      </c>
+      <c r="H12" s="125">
+        <v>26.5</v>
+      </c>
+      <c r="I12" s="125">
+        <v>33.9</v>
+      </c>
+      <c r="J12" s="132">
+        <v>37.5</v>
+      </c>
+      <c r="K12" s="132">
+        <v>40.6</v>
+      </c>
+      <c r="L12" s="131">
+        <v>39.9</v>
+      </c>
+      <c r="M12" s="130">
+        <v>32</v>
+      </c>
+      <c r="N12" s="125">
+        <v>22.6</v>
+      </c>
+      <c r="O12" s="129">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="P12" s="169">
+        <v>-5.3</v>
+      </c>
+      <c r="Q12" s="135">
+        <v>40.6</v>
+      </c>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" ht="72" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="159">
+        <v>-7.5</v>
+      </c>
+      <c r="F13" s="129">
+        <v>1</v>
+      </c>
+      <c r="G13" s="129">
+        <v>13.8</v>
+      </c>
+      <c r="H13" s="130">
+        <v>28</v>
+      </c>
+      <c r="I13" s="126">
+        <v>31.7</v>
+      </c>
+      <c r="J13" s="134">
+        <v>38.1</v>
+      </c>
+      <c r="K13" s="133">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="L13" s="133">
+        <v>37.5</v>
+      </c>
+      <c r="M13" s="133">
+        <v>32.9</v>
+      </c>
+      <c r="N13" s="129">
+        <v>22</v>
+      </c>
+      <c r="O13" s="125">
+        <v>10</v>
+      </c>
+      <c r="P13" s="129">
+        <v>-0.2</v>
+      </c>
+      <c r="Q13" s="137">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" ht="72" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="119" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="166">
+        <v>-2.9</v>
+      </c>
+      <c r="F14" s="131">
+        <v>5.4</v>
+      </c>
+      <c r="G14" s="128">
+        <v>12.5</v>
+      </c>
+      <c r="H14" s="169">
+        <v>22.8</v>
+      </c>
+      <c r="I14" s="169">
+        <v>26.4</v>
+      </c>
+      <c r="J14" s="169">
+        <v>29.3</v>
+      </c>
+      <c r="K14" s="169">
+        <v>32.6</v>
+      </c>
+      <c r="L14" s="169">
+        <v>29.7</v>
+      </c>
+      <c r="M14" s="169">
+        <v>24.7</v>
+      </c>
+      <c r="N14" s="169">
+        <v>16.5</v>
+      </c>
+      <c r="O14" s="129">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="P14" s="125">
+        <v>1.8</v>
+      </c>
+      <c r="Q14" s="171">
+        <v>32.6</v>
+      </c>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" ht="72" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="120" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="160">
+        <v>0.6</v>
+      </c>
+      <c r="F15" s="134">
+        <v>5.2</v>
+      </c>
+      <c r="G15" s="129">
+        <v>13.8</v>
+      </c>
+      <c r="H15" s="129">
+        <v>25.6</v>
+      </c>
+      <c r="I15" s="128">
+        <v>30.4</v>
+      </c>
+      <c r="J15" s="126">
+        <v>33</v>
+      </c>
+      <c r="K15" s="129">
+        <v>36</v>
+      </c>
+      <c r="L15" s="126">
+        <v>33</v>
+      </c>
+      <c r="M15" s="126">
+        <v>28.7</v>
+      </c>
+      <c r="N15" s="128">
+        <v>21.2</v>
+      </c>
+      <c r="O15" s="130">
+        <v>10.9</v>
+      </c>
+      <c r="P15" s="132">
+        <v>4.7</v>
+      </c>
+      <c r="Q15" s="142">
+        <v>36</v>
+      </c>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" ht="72" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="167">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="F16" s="133">
+        <v>4</v>
+      </c>
+      <c r="G16" s="130">
+        <v>15.5</v>
+      </c>
+      <c r="H16" s="129">
+        <v>25.8</v>
+      </c>
+      <c r="I16" s="126">
+        <v>31.5</v>
+      </c>
+      <c r="J16" s="133">
+        <v>37</v>
+      </c>
+      <c r="K16" s="125">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="L16" s="129">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="M16" s="129">
+        <v>29.4</v>
+      </c>
+      <c r="N16" s="125">
+        <v>22.4</v>
+      </c>
+      <c r="O16" s="125">
+        <v>10.1</v>
+      </c>
+      <c r="P16" s="125">
+        <v>1.5</v>
+      </c>
+      <c r="Q16" s="143">
+        <v>37</v>
+      </c>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" ht="72" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="98" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="160">
+        <v>-0.8</v>
+      </c>
+      <c r="F17" s="130">
+        <v>2.6</v>
+      </c>
+      <c r="G17" s="133">
+        <v>16.8</v>
+      </c>
+      <c r="H17" s="125">
         <v>26</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="I17" s="126">
+        <v>31</v>
+      </c>
+      <c r="J17" s="128">
+        <v>32.5</v>
+      </c>
+      <c r="K17" s="125">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="L17" s="126">
+        <v>33.5</v>
+      </c>
+      <c r="M17" s="128">
         <v>28</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="N17" s="131">
+        <v>28.2</v>
+      </c>
+      <c r="O17" s="130">
+        <v>10.5</v>
+      </c>
+      <c r="P17" s="130">
+        <v>2.1</v>
+      </c>
+      <c r="Q17" s="138">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" ht="72" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="121" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="168">
+        <v>-3</v>
+      </c>
+      <c r="F18" s="145">
+        <v>1.2</v>
+      </c>
+      <c r="G18" s="144">
+        <v>15.9</v>
+      </c>
+      <c r="H18" s="146">
+        <v>26.3</v>
+      </c>
+      <c r="I18" s="144">
+        <v>34.9</v>
+      </c>
+      <c r="J18" s="144">
+        <v>35.6</v>
+      </c>
+      <c r="K18" s="144">
         <v>38</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="L18" s="146">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="M18" s="145">
+        <v>29.2</v>
+      </c>
+      <c r="N18" s="147">
+        <v>21.3</v>
+      </c>
+      <c r="O18" s="148">
+        <v>12.3</v>
+      </c>
+      <c r="P18" s="149">
+        <v>4.3</v>
+      </c>
+      <c r="Q18" s="150">
+        <v>38</v>
+      </c>
+      <c r="R18" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="8"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="8"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="8"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="8"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="8"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="8"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="8"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="8"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="8"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="8"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="8"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="17" ht="32" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" ht="32" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" ht="32" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" ht="32" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" ht="32" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" ht="32" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:R1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Q18">
+    <sortCondition ref="C3:C18"/>
+  </sortState>
+  <mergeCells count="2">
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:F15"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/气象/北方强冷站：统计信息.xlsx
+++ b/气象/北方强冷站：统计信息.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EA3625-3796-4D83-8A4A-98DF6AA189F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4531D81B-DD8B-4E18-9055-D0EFBE0D6653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{8D56AB80-2E26-4029-929F-AED17FA8BDE0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{8D56AB80-2E26-4029-929F-AED17FA8BDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="平均气温" sheetId="1" r:id="rId1"/>
     <sheet name="蒙古极端低温" sheetId="2" r:id="rId2"/>
     <sheet name="蒙古极端高温" sheetId="4" r:id="rId3"/>
+    <sheet name="单站记录汇总" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="234">
   <si>
     <t>漠河</t>
   </si>
@@ -786,15 +787,191 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1983/1984</t>
+  </si>
+  <si>
+    <t>1984/1985</t>
+  </si>
+  <si>
+    <t>1985/1986</t>
+  </si>
+  <si>
+    <t>1986/1987</t>
+  </si>
+  <si>
+    <t>1987/1988</t>
+  </si>
+  <si>
+    <t>1988/1989</t>
+  </si>
+  <si>
+    <t>1989/1990</t>
+  </si>
+  <si>
+    <t>1990/1991</t>
+  </si>
+  <si>
+    <t>1991/1992</t>
+  </si>
+  <si>
+    <t>1992/1993</t>
+  </si>
+  <si>
+    <t>1993/1994</t>
+  </si>
+  <si>
+    <t>1994/1995</t>
+  </si>
+  <si>
+    <t>1995/1996</t>
+  </si>
+  <si>
+    <t>1996/1997</t>
+  </si>
+  <si>
+    <t>1997/1998</t>
+  </si>
+  <si>
+    <t>1998/1999</t>
+  </si>
+  <si>
+    <t>1999/2000</t>
+  </si>
+  <si>
+    <t>2000/2001</t>
+  </si>
+  <si>
+    <t>2001/2002</t>
+  </si>
+  <si>
+    <t>2002/2003</t>
+  </si>
+  <si>
+    <t>2003/2004</t>
+  </si>
+  <si>
+    <t>2004/2005</t>
+  </si>
+  <si>
+    <t>2005/2006</t>
+  </si>
+  <si>
+    <t>2006/2007</t>
+  </si>
+  <si>
+    <t>2007/2008</t>
+  </si>
+  <si>
+    <t>2008/2009</t>
+  </si>
+  <si>
+    <t>2009/2010</t>
+  </si>
+  <si>
+    <t>2010/2011</t>
+  </si>
+  <si>
+    <t>2011/2012</t>
+  </si>
+  <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
+    <t>2013/2014</t>
+  </si>
+  <si>
+    <t>2014/2015</t>
+  </si>
+  <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
+    <t>2016/2017</t>
+  </si>
+  <si>
+    <t>2017/2018</t>
+  </si>
+  <si>
+    <t>2018/2019</t>
+  </si>
+  <si>
+    <t>2019/2020</t>
+  </si>
+  <si>
+    <t>2020/2021</t>
+  </si>
+  <si>
+    <t>2021/2022</t>
+  </si>
+  <si>
+    <t>2022/2023</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>最低气温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低昼温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低
+日均温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬季</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬三月
+平均
+低温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬三月
+平均
+气温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬三月
+平均
+昼温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低温低于
+-40天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昼温低于
+-30天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁钦隆勃冬季统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1169,6 +1346,59 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF6A040F"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="25">
     <fill>
@@ -1316,7 +1546,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1791,13 +2021,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2110,6 +2476,198 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="20" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="18" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="21" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="43" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="22" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="22" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="19" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="21" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="43" fillId="24" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="24" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="20" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="21" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="19" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="20" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="22" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="20" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="17" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="19" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="21" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="20" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="43" fillId="24" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="19" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="17" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="15" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="21" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="22" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="21" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="42" fillId="15" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="42" fillId="15" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="42" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2152,184 +2710,152 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="47" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="47" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="47" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="20" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="18" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="35" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="35" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="21" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="43" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="22" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="35" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="22" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="19" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="21" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="43" fillId="24" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="24" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="20" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="21" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="19" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="20" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="35" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="22" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="20" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="35" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="35" fillId="17" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="19" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="21" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="35" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="20" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="43" fillId="24" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="19" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="35" fillId="17" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="35" fillId="15" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="35" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="21" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="22" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="21" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="42" fillId="15" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="42" fillId="15" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="42" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF6A040F"/>
+      <color rgb="FF003F88"/>
       <color rgb="FFF72585"/>
       <color rgb="FFFFEE32"/>
       <color rgb="FF80ED99"/>
-      <color rgb="FF003F88"/>
       <color rgb="FF4361EE"/>
       <color rgb="FF03071E"/>
       <color rgb="FF370617"/>
-      <color rgb="FF6A040F"/>
       <color rgb="FF9D0208"/>
       <color rgb="FFD00000"/>
     </mruColors>
@@ -2661,28 +3187,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="100.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="170" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="104" t="s">
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="168" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="105"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="169"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="50" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="59" t="s">
@@ -2691,11 +3217,11 @@
       <c r="B2" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="171" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="173"/>
       <c r="F2" s="58" t="s">
         <v>27</v>
       </c>
@@ -4231,26 +4757,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="82.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="175" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
@@ -4259,14 +4785,14 @@
       <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="110"/>
+      <c r="D2" s="174"/>
       <c r="E2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="113"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
@@ -4323,7 +4849,7 @@
       <c r="E3" s="11">
         <v>-52.6</v>
       </c>
-      <c r="F3" s="114"/>
+      <c r="F3" s="178"/>
       <c r="G3" s="12">
         <v>-52.6</v>
       </c>
@@ -4380,7 +4906,7 @@
       <c r="E4" s="19">
         <v>-51.3</v>
       </c>
-      <c r="F4" s="114"/>
+      <c r="F4" s="178"/>
       <c r="G4" s="16">
         <v>-51.3</v>
       </c>
@@ -4437,7 +4963,7 @@
       <c r="E5" s="22">
         <v>-53.3</v>
       </c>
-      <c r="F5" s="114"/>
+      <c r="F5" s="178"/>
       <c r="G5" s="23">
         <v>-53.3</v>
       </c>
@@ -4494,7 +5020,7 @@
       <c r="E6" s="24">
         <v>-50.4</v>
       </c>
-      <c r="F6" s="114"/>
+      <c r="F6" s="178"/>
       <c r="G6" s="13">
         <v>-50.4</v>
       </c>
@@ -4551,7 +5077,7 @@
       <c r="E7" s="19">
         <v>-51.3</v>
       </c>
-      <c r="F7" s="114"/>
+      <c r="F7" s="178"/>
       <c r="G7" s="13">
         <v>-50.3</v>
       </c>
@@ -4608,7 +5134,7 @@
       <c r="E8" s="25">
         <v>-50.7</v>
       </c>
-      <c r="F8" s="114"/>
+      <c r="F8" s="178"/>
       <c r="G8" s="15">
         <v>-50.7</v>
       </c>
@@ -4665,7 +5191,7 @@
       <c r="E9" s="24">
         <v>-50.4</v>
       </c>
-      <c r="F9" s="114"/>
+      <c r="F9" s="178"/>
       <c r="G9" s="13">
         <v>-50.4</v>
       </c>
@@ -4722,7 +5248,7 @@
       <c r="E10" s="26">
         <v>-51.9</v>
       </c>
-      <c r="F10" s="114"/>
+      <c r="F10" s="178"/>
       <c r="G10" s="20">
         <v>-51.9</v>
       </c>
@@ -4779,7 +5305,7 @@
       <c r="E11" s="25">
         <v>-50.6</v>
       </c>
-      <c r="F11" s="114"/>
+      <c r="F11" s="178"/>
       <c r="G11" s="15">
         <v>-50.6</v>
       </c>
@@ -4836,7 +5362,7 @@
       <c r="E12" s="28">
         <v>-52.9</v>
       </c>
-      <c r="F12" s="114"/>
+      <c r="F12" s="178"/>
       <c r="G12" s="21">
         <v>-52.9</v>
       </c>
@@ -4893,7 +5419,7 @@
       <c r="E13" s="29">
         <v>-54.7</v>
       </c>
-      <c r="F13" s="114"/>
+      <c r="F13" s="178"/>
       <c r="G13" s="23">
         <v>-53.2</v>
       </c>
@@ -4950,7 +5476,7 @@
       <c r="E14" s="19">
         <v>-51.2</v>
       </c>
-      <c r="F14" s="114"/>
+      <c r="F14" s="178"/>
       <c r="G14" s="16">
         <v>-51.2</v>
       </c>
@@ -5007,7 +5533,7 @@
       <c r="E15" s="30">
         <v>-55.3</v>
       </c>
-      <c r="F15" s="115"/>
+      <c r="F15" s="179"/>
       <c r="G15" s="14">
         <v>-55.3</v>
       </c>
@@ -5074,7 +5600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8304F37C-45A0-410A-800E-3311AD044CC9}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
@@ -5089,25 +5615,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="180" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="175" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="117"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="181"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="100.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="103" t="s">
@@ -5116,47 +5642,47 @@
       <c r="B2" s="103" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="122" t="s">
+      <c r="D2" s="180"/>
+      <c r="E2" s="108" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="122" t="s">
+      <c r="F2" s="108" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="122" t="s">
+      <c r="G2" s="108" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="I2" s="122" t="s">
+      <c r="I2" s="108" t="s">
         <v>171</v>
       </c>
-      <c r="J2" s="122" t="s">
+      <c r="J2" s="108" t="s">
         <v>172</v>
       </c>
-      <c r="K2" s="122" t="s">
+      <c r="K2" s="108" t="s">
         <v>173</v>
       </c>
-      <c r="L2" s="122" t="s">
+      <c r="L2" s="108" t="s">
         <v>174</v>
       </c>
-      <c r="M2" s="122" t="s">
+      <c r="M2" s="108" t="s">
         <v>175</v>
       </c>
-      <c r="N2" s="122" t="s">
+      <c r="N2" s="108" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="123" t="s">
+      <c r="O2" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="P2" s="123" t="s">
+      <c r="P2" s="109" t="s">
         <v>178</v>
       </c>
-      <c r="Q2" s="124" t="s">
+      <c r="Q2" s="110" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5170,46 +5696,46 @@
       <c r="C3" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="158">
+      <c r="E3" s="144">
         <v>-4.5</v>
       </c>
-      <c r="F3" s="151">
+      <c r="F3" s="137">
         <v>1.9</v>
       </c>
-      <c r="G3" s="152">
+      <c r="G3" s="138">
         <v>13.5</v>
       </c>
-      <c r="H3" s="153">
+      <c r="H3" s="139">
         <v>23.7</v>
       </c>
-      <c r="I3" s="153">
+      <c r="I3" s="139">
         <v>28.3</v>
       </c>
-      <c r="J3" s="153">
+      <c r="J3" s="139">
         <v>30.4</v>
       </c>
-      <c r="K3" s="152">
+      <c r="K3" s="138">
         <v>34.9</v>
       </c>
-      <c r="L3" s="154">
+      <c r="L3" s="140">
         <v>31.5</v>
       </c>
-      <c r="M3" s="155">
+      <c r="M3" s="141">
         <v>29.2</v>
       </c>
-      <c r="N3" s="152">
+      <c r="N3" s="138">
         <v>21.6</v>
       </c>
-      <c r="O3" s="153">
+      <c r="O3" s="139">
         <v>5.3</v>
       </c>
-      <c r="P3" s="156">
+      <c r="P3" s="142">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q3" s="157">
+      <c r="Q3" s="143">
         <v>34.9</v>
       </c>
       <c r="R3" s="4"/>
@@ -5224,46 +5750,46 @@
       <c r="C4" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="159">
+      <c r="E4" s="145">
         <v>-7.8</v>
       </c>
-      <c r="F4" s="126">
+      <c r="F4" s="112">
         <v>-2.6</v>
       </c>
-      <c r="G4" s="127">
+      <c r="G4" s="113">
         <v>11.5</v>
       </c>
-      <c r="H4" s="128">
+      <c r="H4" s="114">
         <v>24.2</v>
       </c>
-      <c r="I4" s="131">
+      <c r="I4" s="117">
         <v>40.6</v>
       </c>
-      <c r="J4" s="126">
+      <c r="J4" s="112">
         <v>33</v>
       </c>
-      <c r="K4" s="127">
+      <c r="K4" s="113">
         <v>33.200000000000003</v>
       </c>
-      <c r="L4" s="130">
+      <c r="L4" s="116">
         <v>36.5</v>
       </c>
-      <c r="M4" s="127">
+      <c r="M4" s="113">
         <v>26.9</v>
       </c>
-      <c r="N4" s="127">
+      <c r="N4" s="113">
         <v>20.6</v>
       </c>
-      <c r="O4" s="169">
+      <c r="O4" s="155">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P4" s="126">
+      <c r="P4" s="112">
         <v>-3.5</v>
       </c>
-      <c r="Q4" s="135">
+      <c r="Q4" s="121">
         <v>40.6</v>
       </c>
       <c r="R4" s="4"/>
@@ -5278,46 +5804,46 @@
       <c r="C5" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="160">
+      <c r="E5" s="146">
         <v>1</v>
       </c>
-      <c r="F5" s="130">
+      <c r="F5" s="116">
         <v>2.6</v>
       </c>
-      <c r="G5" s="126">
+      <c r="G5" s="112">
         <v>13.2</v>
       </c>
-      <c r="H5" s="128">
+      <c r="H5" s="114">
         <v>24.2</v>
       </c>
-      <c r="I5" s="127">
+      <c r="I5" s="113">
         <v>28.9</v>
       </c>
-      <c r="J5" s="127">
+      <c r="J5" s="113">
         <v>30.5</v>
       </c>
-      <c r="K5" s="128">
+      <c r="K5" s="114">
         <v>33.700000000000003</v>
       </c>
-      <c r="L5" s="127">
+      <c r="L5" s="113">
         <v>30.9</v>
       </c>
-      <c r="M5" s="128">
+      <c r="M5" s="114">
         <v>28.1</v>
       </c>
-      <c r="N5" s="130">
+      <c r="N5" s="116">
         <v>23.1</v>
       </c>
-      <c r="O5" s="128">
+      <c r="O5" s="114">
         <v>8.4</v>
       </c>
-      <c r="P5" s="133">
+      <c r="P5" s="119">
         <v>4</v>
       </c>
-      <c r="Q5" s="136">
+      <c r="Q5" s="122">
         <v>33.700000000000003</v>
       </c>
       <c r="R5" s="4"/>
@@ -5332,46 +5858,46 @@
       <c r="C6" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="105" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="161">
+      <c r="E6" s="147">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F6" s="132">
+      <c r="F6" s="118">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G6" s="132">
+      <c r="G6" s="118">
         <v>17.600000000000001</v>
       </c>
-      <c r="H6" s="133">
+      <c r="H6" s="119">
         <v>28.4</v>
       </c>
-      <c r="I6" s="126">
+      <c r="I6" s="112">
         <v>31.5</v>
       </c>
-      <c r="J6" s="130">
+      <c r="J6" s="116">
         <v>35.700000000000003</v>
       </c>
-      <c r="K6" s="133">
+      <c r="K6" s="119">
         <v>38.6</v>
       </c>
-      <c r="L6" s="125">
+      <c r="L6" s="111">
         <v>35.799999999999997</v>
       </c>
-      <c r="M6" s="132">
+      <c r="M6" s="118">
         <v>33.5</v>
       </c>
-      <c r="N6" s="133">
+      <c r="N6" s="119">
         <v>23.9</v>
       </c>
-      <c r="O6" s="132">
+      <c r="O6" s="118">
         <v>13.5</v>
       </c>
-      <c r="P6" s="131">
+      <c r="P6" s="117">
         <v>6.5</v>
       </c>
-      <c r="Q6" s="137">
+      <c r="Q6" s="123">
         <v>38.6</v>
       </c>
       <c r="R6" s="4"/>
@@ -5386,46 +5912,46 @@
       <c r="C7" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="162">
+      <c r="E7" s="148">
         <v>-5.9</v>
       </c>
-      <c r="F7" s="133">
+      <c r="F7" s="119">
         <v>3.5</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="117">
         <v>18.8</v>
       </c>
-      <c r="H7" s="129">
+      <c r="H7" s="115">
         <v>25.7</v>
       </c>
-      <c r="I7" s="127">
+      <c r="I7" s="113">
         <v>28.7</v>
       </c>
-      <c r="J7" s="129">
+      <c r="J7" s="115">
         <v>34.200000000000003</v>
       </c>
-      <c r="K7" s="125">
+      <c r="K7" s="111">
         <v>36.5</v>
       </c>
-      <c r="L7" s="129">
+      <c r="L7" s="115">
         <v>34.5</v>
       </c>
-      <c r="M7" s="129">
+      <c r="M7" s="115">
         <v>29.2</v>
       </c>
-      <c r="N7" s="132">
+      <c r="N7" s="118">
         <v>24.5</v>
       </c>
-      <c r="O7" s="129">
+      <c r="O7" s="115">
         <v>9.6999999999999993</v>
       </c>
-      <c r="P7" s="133">
+      <c r="P7" s="119">
         <v>3.5</v>
       </c>
-      <c r="Q7" s="138">
+      <c r="Q7" s="124">
         <v>36.5</v>
       </c>
       <c r="R7" s="4"/>
@@ -5440,46 +5966,46 @@
       <c r="C8" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="163">
+      <c r="E8" s="149">
         <v>-12</v>
       </c>
-      <c r="F8" s="128">
+      <c r="F8" s="114">
         <v>-5.2</v>
       </c>
-      <c r="G8" s="126">
+      <c r="G8" s="112">
         <v>13.4</v>
       </c>
-      <c r="H8" s="130">
+      <c r="H8" s="116">
         <v>28</v>
       </c>
-      <c r="I8" s="133">
+      <c r="I8" s="119">
         <v>35.9</v>
       </c>
-      <c r="J8" s="134">
+      <c r="J8" s="120">
         <v>38.299999999999997</v>
       </c>
-      <c r="K8" s="130">
+      <c r="K8" s="116">
         <v>38.200000000000003</v>
       </c>
-      <c r="L8" s="132">
+      <c r="L8" s="118">
         <v>38.4</v>
       </c>
-      <c r="M8" s="130">
+      <c r="M8" s="116">
         <v>30.8</v>
       </c>
-      <c r="N8" s="132">
+      <c r="N8" s="118">
         <v>24.6</v>
       </c>
-      <c r="O8" s="131">
+      <c r="O8" s="117">
         <v>15.9</v>
       </c>
-      <c r="P8" s="132">
+      <c r="P8" s="118">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Q8" s="137">
+      <c r="Q8" s="123">
         <v>38.4</v>
       </c>
       <c r="R8" s="4"/>
@@ -5494,46 +6020,46 @@
       <c r="C9" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="164">
+      <c r="E9" s="150">
         <v>-15.2</v>
       </c>
-      <c r="F9" s="128">
+      <c r="F9" s="114">
         <v>-5</v>
       </c>
-      <c r="G9" s="129">
+      <c r="G9" s="115">
         <v>13.8</v>
       </c>
-      <c r="H9" s="132">
+      <c r="H9" s="118">
         <v>28.9</v>
       </c>
-      <c r="I9" s="129">
+      <c r="I9" s="115">
         <v>32.4</v>
       </c>
-      <c r="J9" s="125">
+      <c r="J9" s="111">
         <v>35.1</v>
       </c>
-      <c r="K9" s="130">
+      <c r="K9" s="116">
         <v>38</v>
       </c>
-      <c r="L9" s="133">
+      <c r="L9" s="119">
         <v>37.5</v>
       </c>
-      <c r="M9" s="125">
+      <c r="M9" s="111">
         <v>30.5</v>
       </c>
-      <c r="N9" s="130">
+      <c r="N9" s="116">
         <v>23</v>
       </c>
-      <c r="O9" s="126">
+      <c r="O9" s="112">
         <v>9</v>
       </c>
-      <c r="P9" s="126">
+      <c r="P9" s="112">
         <v>-3.6</v>
       </c>
-      <c r="Q9" s="139">
+      <c r="Q9" s="125">
         <v>38</v>
       </c>
       <c r="R9" s="4"/>
@@ -5548,46 +6074,46 @@
       <c r="C10" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="119" t="s">
+      <c r="D10" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="163">
+      <c r="E10" s="149">
         <v>-11.6</v>
       </c>
-      <c r="F10" s="128">
+      <c r="F10" s="114">
         <v>-5</v>
       </c>
-      <c r="G10" s="169">
+      <c r="G10" s="155">
         <v>10.5</v>
       </c>
-      <c r="H10" s="126">
+      <c r="H10" s="112">
         <v>24.5</v>
       </c>
-      <c r="I10" s="132">
+      <c r="I10" s="118">
         <v>38.200000000000003</v>
       </c>
-      <c r="J10" s="125">
+      <c r="J10" s="111">
         <v>35.1</v>
       </c>
-      <c r="K10" s="131">
+      <c r="K10" s="117">
         <v>42.4</v>
       </c>
-      <c r="L10" s="133">
+      <c r="L10" s="119">
         <v>37.200000000000003</v>
       </c>
-      <c r="M10" s="129">
+      <c r="M10" s="115">
         <v>29.4</v>
       </c>
-      <c r="N10" s="127">
+      <c r="N10" s="113">
         <v>20.8</v>
       </c>
-      <c r="O10" s="132">
+      <c r="O10" s="118">
         <v>13.9</v>
       </c>
-      <c r="P10" s="127">
+      <c r="P10" s="113">
         <v>-4.8</v>
       </c>
-      <c r="Q10" s="140">
+      <c r="Q10" s="126">
         <v>42.4</v>
       </c>
       <c r="R10" s="4"/>
@@ -5602,46 +6128,46 @@
       <c r="C11" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="119" t="s">
+      <c r="D11" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="170">
+      <c r="E11" s="156">
         <v>-15.3</v>
       </c>
-      <c r="F11" s="127">
+      <c r="F11" s="113">
         <v>-6.8</v>
       </c>
-      <c r="G11" s="125">
+      <c r="G11" s="111">
         <v>14.5</v>
       </c>
-      <c r="H11" s="131">
+      <c r="H11" s="117">
         <v>31.5</v>
       </c>
-      <c r="I11" s="125">
+      <c r="I11" s="111">
         <v>33.4</v>
       </c>
-      <c r="J11" s="131">
+      <c r="J11" s="117">
         <v>38.5</v>
       </c>
-      <c r="K11" s="134">
+      <c r="K11" s="120">
         <v>42</v>
       </c>
-      <c r="L11" s="134">
+      <c r="L11" s="120">
         <v>39.5</v>
       </c>
-      <c r="M11" s="131">
+      <c r="M11" s="117">
         <v>34.5</v>
       </c>
-      <c r="N11" s="129">
+      <c r="N11" s="115">
         <v>22.1</v>
       </c>
-      <c r="O11" s="133">
+      <c r="O11" s="119">
         <v>12.5</v>
       </c>
-      <c r="P11" s="128">
+      <c r="P11" s="114">
         <v>-4</v>
       </c>
-      <c r="Q11" s="141">
+      <c r="Q11" s="127">
         <v>42</v>
       </c>
       <c r="R11" s="4"/>
@@ -5656,46 +6182,46 @@
       <c r="C12" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="119" t="s">
+      <c r="D12" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="165">
+      <c r="E12" s="151">
         <v>-14.4</v>
       </c>
-      <c r="F12" s="169">
+      <c r="F12" s="155">
         <v>-7.8</v>
       </c>
-      <c r="G12" s="129">
+      <c r="G12" s="115">
         <v>14</v>
       </c>
-      <c r="H12" s="125">
+      <c r="H12" s="111">
         <v>26.5</v>
       </c>
-      <c r="I12" s="125">
+      <c r="I12" s="111">
         <v>33.9</v>
       </c>
-      <c r="J12" s="132">
+      <c r="J12" s="118">
         <v>37.5</v>
       </c>
-      <c r="K12" s="132">
+      <c r="K12" s="118">
         <v>40.6</v>
       </c>
-      <c r="L12" s="131">
+      <c r="L12" s="117">
         <v>39.9</v>
       </c>
-      <c r="M12" s="130">
+      <c r="M12" s="116">
         <v>32</v>
       </c>
-      <c r="N12" s="125">
+      <c r="N12" s="111">
         <v>22.6</v>
       </c>
-      <c r="O12" s="129">
+      <c r="O12" s="115">
         <v>9.6999999999999993</v>
       </c>
-      <c r="P12" s="169">
+      <c r="P12" s="155">
         <v>-5.3</v>
       </c>
-      <c r="Q12" s="135">
+      <c r="Q12" s="121">
         <v>40.6</v>
       </c>
       <c r="R12" s="4"/>
@@ -5710,46 +6236,46 @@
       <c r="C13" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="159">
+      <c r="E13" s="145">
         <v>-7.5</v>
       </c>
-      <c r="F13" s="129">
+      <c r="F13" s="115">
         <v>1</v>
       </c>
-      <c r="G13" s="129">
+      <c r="G13" s="115">
         <v>13.8</v>
       </c>
-      <c r="H13" s="130">
+      <c r="H13" s="116">
         <v>28</v>
       </c>
-      <c r="I13" s="126">
+      <c r="I13" s="112">
         <v>31.7</v>
       </c>
-      <c r="J13" s="134">
+      <c r="J13" s="120">
         <v>38.1</v>
       </c>
-      <c r="K13" s="133">
+      <c r="K13" s="119">
         <v>38.799999999999997</v>
       </c>
-      <c r="L13" s="133">
+      <c r="L13" s="119">
         <v>37.5</v>
       </c>
-      <c r="M13" s="133">
+      <c r="M13" s="119">
         <v>32.9</v>
       </c>
-      <c r="N13" s="129">
+      <c r="N13" s="115">
         <v>22</v>
       </c>
-      <c r="O13" s="125">
+      <c r="O13" s="111">
         <v>10</v>
       </c>
-      <c r="P13" s="129">
+      <c r="P13" s="115">
         <v>-0.2</v>
       </c>
-      <c r="Q13" s="137">
+      <c r="Q13" s="123">
         <v>38.799999999999997</v>
       </c>
       <c r="R13" s="4"/>
@@ -5764,46 +6290,46 @@
       <c r="C14" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="105" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="166">
+      <c r="E14" s="152">
         <v>-2.9</v>
       </c>
-      <c r="F14" s="131">
+      <c r="F14" s="117">
         <v>5.4</v>
       </c>
-      <c r="G14" s="128">
+      <c r="G14" s="114">
         <v>12.5</v>
       </c>
-      <c r="H14" s="169">
+      <c r="H14" s="155">
         <v>22.8</v>
       </c>
-      <c r="I14" s="169">
+      <c r="I14" s="155">
         <v>26.4</v>
       </c>
-      <c r="J14" s="169">
+      <c r="J14" s="155">
         <v>29.3</v>
       </c>
-      <c r="K14" s="169">
+      <c r="K14" s="155">
         <v>32.6</v>
       </c>
-      <c r="L14" s="169">
+      <c r="L14" s="155">
         <v>29.7</v>
       </c>
-      <c r="M14" s="169">
+      <c r="M14" s="155">
         <v>24.7</v>
       </c>
-      <c r="N14" s="169">
+      <c r="N14" s="155">
         <v>16.5</v>
       </c>
-      <c r="O14" s="129">
+      <c r="O14" s="115">
         <v>9.8000000000000007</v>
       </c>
-      <c r="P14" s="125">
+      <c r="P14" s="111">
         <v>1.8</v>
       </c>
-      <c r="Q14" s="171">
+      <c r="Q14" s="157">
         <v>32.6</v>
       </c>
       <c r="R14" s="4"/>
@@ -5818,46 +6344,46 @@
       <c r="C15" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="120" t="s">
+      <c r="D15" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="160">
+      <c r="E15" s="146">
         <v>0.6</v>
       </c>
-      <c r="F15" s="134">
+      <c r="F15" s="120">
         <v>5.2</v>
       </c>
-      <c r="G15" s="129">
+      <c r="G15" s="115">
         <v>13.8</v>
       </c>
-      <c r="H15" s="129">
+      <c r="H15" s="115">
         <v>25.6</v>
       </c>
-      <c r="I15" s="128">
+      <c r="I15" s="114">
         <v>30.4</v>
       </c>
-      <c r="J15" s="126">
+      <c r="J15" s="112">
         <v>33</v>
       </c>
-      <c r="K15" s="129">
+      <c r="K15" s="115">
         <v>36</v>
       </c>
-      <c r="L15" s="126">
+      <c r="L15" s="112">
         <v>33</v>
       </c>
-      <c r="M15" s="126">
+      <c r="M15" s="112">
         <v>28.7</v>
       </c>
-      <c r="N15" s="128">
+      <c r="N15" s="114">
         <v>21.2</v>
       </c>
-      <c r="O15" s="130">
+      <c r="O15" s="116">
         <v>10.9</v>
       </c>
-      <c r="P15" s="132">
+      <c r="P15" s="118">
         <v>4.7</v>
       </c>
-      <c r="Q15" s="142">
+      <c r="Q15" s="128">
         <v>36</v>
       </c>
       <c r="R15" s="4"/>
@@ -5872,46 +6398,46 @@
       <c r="C16" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="167">
+      <c r="E16" s="153">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="F16" s="133">
+      <c r="F16" s="119">
         <v>4</v>
       </c>
-      <c r="G16" s="130">
+      <c r="G16" s="116">
         <v>15.5</v>
       </c>
-      <c r="H16" s="129">
+      <c r="H16" s="115">
         <v>25.8</v>
       </c>
-      <c r="I16" s="126">
+      <c r="I16" s="112">
         <v>31.5</v>
       </c>
-      <c r="J16" s="133">
+      <c r="J16" s="119">
         <v>37</v>
       </c>
-      <c r="K16" s="125">
+      <c r="K16" s="111">
         <v>36.700000000000003</v>
       </c>
-      <c r="L16" s="129">
+      <c r="L16" s="115">
         <v>34.200000000000003</v>
       </c>
-      <c r="M16" s="129">
+      <c r="M16" s="115">
         <v>29.4</v>
       </c>
-      <c r="N16" s="125">
+      <c r="N16" s="111">
         <v>22.4</v>
       </c>
-      <c r="O16" s="125">
+      <c r="O16" s="111">
         <v>10.1</v>
       </c>
-      <c r="P16" s="125">
+      <c r="P16" s="111">
         <v>1.5</v>
       </c>
-      <c r="Q16" s="143">
+      <c r="Q16" s="129">
         <v>37</v>
       </c>
       <c r="R16" s="4"/>
@@ -5926,46 +6452,46 @@
       <c r="C17" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="160">
+      <c r="E17" s="146">
         <v>-0.8</v>
       </c>
-      <c r="F17" s="130">
+      <c r="F17" s="116">
         <v>2.6</v>
       </c>
-      <c r="G17" s="133">
+      <c r="G17" s="119">
         <v>16.8</v>
       </c>
-      <c r="H17" s="125">
+      <c r="H17" s="111">
         <v>26</v>
       </c>
-      <c r="I17" s="126">
+      <c r="I17" s="112">
         <v>31</v>
       </c>
-      <c r="J17" s="128">
+      <c r="J17" s="114">
         <v>32.5</v>
       </c>
-      <c r="K17" s="125">
+      <c r="K17" s="111">
         <v>36.299999999999997</v>
       </c>
-      <c r="L17" s="126">
+      <c r="L17" s="112">
         <v>33.5</v>
       </c>
-      <c r="M17" s="128">
+      <c r="M17" s="114">
         <v>28</v>
       </c>
-      <c r="N17" s="131">
+      <c r="N17" s="117">
         <v>28.2</v>
       </c>
-      <c r="O17" s="130">
+      <c r="O17" s="116">
         <v>10.5</v>
       </c>
-      <c r="P17" s="130">
+      <c r="P17" s="116">
         <v>2.1</v>
       </c>
-      <c r="Q17" s="138">
+      <c r="Q17" s="124">
         <v>36.299999999999997</v>
       </c>
       <c r="R17" s="4"/>
@@ -5980,46 +6506,46 @@
       <c r="C18" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="121" t="s">
+      <c r="D18" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="168">
+      <c r="E18" s="154">
         <v>-3</v>
       </c>
-      <c r="F18" s="145">
+      <c r="F18" s="131">
         <v>1.2</v>
       </c>
-      <c r="G18" s="144">
+      <c r="G18" s="130">
         <v>15.9</v>
       </c>
-      <c r="H18" s="146">
+      <c r="H18" s="132">
         <v>26.3</v>
       </c>
-      <c r="I18" s="144">
+      <c r="I18" s="130">
         <v>34.9</v>
       </c>
-      <c r="J18" s="144">
+      <c r="J18" s="130">
         <v>35.6</v>
       </c>
-      <c r="K18" s="144">
+      <c r="K18" s="130">
         <v>38</v>
       </c>
-      <c r="L18" s="146">
+      <c r="L18" s="132">
         <v>35.200000000000003</v>
       </c>
-      <c r="M18" s="145">
+      <c r="M18" s="131">
         <v>29.2</v>
       </c>
-      <c r="N18" s="147">
+      <c r="N18" s="133">
         <v>21.3</v>
       </c>
-      <c r="O18" s="148">
+      <c r="O18" s="134">
         <v>12.3</v>
       </c>
-      <c r="P18" s="149">
+      <c r="P18" s="135">
         <v>4.3</v>
       </c>
-      <c r="Q18" s="150">
+      <c r="Q18" s="136">
         <v>38</v>
       </c>
       <c r="R18" s="4"/>
@@ -6040,4 +6566,1327 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1316EC71-6346-4265-A9F0-F5CFD7F026FD}">
+  <dimension ref="A1:I44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.59765625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="12.59765625" style="191" customWidth="1"/>
+    <col min="4" max="7" width="9.06640625" style="158"/>
+    <col min="8" max="8" width="9.59765625" style="158" customWidth="1"/>
+    <col min="9" max="9" width="9.06640625" style="158"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="194" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="195" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+    </row>
+    <row r="2" spans="1:9" ht="64.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="165" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="182" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="183" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="186" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="187" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="188" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="184" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="185" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" s="185" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="166" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="189">
+        <v>25</v>
+      </c>
+      <c r="C3" s="192">
+        <v>27</v>
+      </c>
+      <c r="D3" s="159">
+        <v>-36.9</v>
+      </c>
+      <c r="E3" s="160">
+        <v>-31.6</v>
+      </c>
+      <c r="F3" s="163">
+        <v>-26.5</v>
+      </c>
+      <c r="G3" s="159">
+        <v>-33.6</v>
+      </c>
+      <c r="H3" s="160">
+        <v>-39.1</v>
+      </c>
+      <c r="I3" s="160">
+        <v>-44.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="167" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="190">
+        <v>15</v>
+      </c>
+      <c r="C4" s="193">
+        <v>20</v>
+      </c>
+      <c r="D4" s="161">
+        <v>-35</v>
+      </c>
+      <c r="E4" s="162">
+        <v>-30.1</v>
+      </c>
+      <c r="F4" s="164">
+        <v>-25.4</v>
+      </c>
+      <c r="G4" s="161">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="H4" s="162">
+        <v>-42</v>
+      </c>
+      <c r="I4" s="162">
+        <v>-44.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="167" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="190">
+        <v>7</v>
+      </c>
+      <c r="C5" s="193">
+        <v>4</v>
+      </c>
+      <c r="D5" s="161">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="E5" s="162">
+        <v>-30</v>
+      </c>
+      <c r="F5" s="164">
+        <v>-24.3</v>
+      </c>
+      <c r="G5" s="161">
+        <v>-30.9</v>
+      </c>
+      <c r="H5" s="162">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="I5" s="162">
+        <v>-41.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="167" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="190">
+        <v>3</v>
+      </c>
+      <c r="C6" s="193">
+        <v>11</v>
+      </c>
+      <c r="D6" s="161">
+        <v>-33.4</v>
+      </c>
+      <c r="E6" s="162">
+        <v>-27.4</v>
+      </c>
+      <c r="F6" s="164">
+        <v>-22</v>
+      </c>
+      <c r="G6" s="161">
+        <v>-36.4</v>
+      </c>
+      <c r="H6" s="162">
+        <v>-38.9</v>
+      </c>
+      <c r="I6" s="162">
+        <v>-45.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="167" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="190">
+        <v>21</v>
+      </c>
+      <c r="C7" s="193">
+        <v>25</v>
+      </c>
+      <c r="D7" s="161">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="E7" s="162">
+        <v>-30.3</v>
+      </c>
+      <c r="F7" s="164">
+        <v>-25.5</v>
+      </c>
+      <c r="G7" s="161">
+        <v>-37.1</v>
+      </c>
+      <c r="H7" s="162">
+        <v>-41.7</v>
+      </c>
+      <c r="I7" s="162">
+        <v>-46.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="167" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="190">
+        <v>1</v>
+      </c>
+      <c r="C8" s="193">
+        <v>2</v>
+      </c>
+      <c r="D8" s="161">
+        <v>-33.6</v>
+      </c>
+      <c r="E8" s="162">
+        <v>-27.9</v>
+      </c>
+      <c r="F8" s="164">
+        <v>-22.4</v>
+      </c>
+      <c r="G8" s="161">
+        <v>-32</v>
+      </c>
+      <c r="H8" s="162">
+        <v>-34.9</v>
+      </c>
+      <c r="I8" s="162">
+        <v>-40.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="167" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="190">
+        <v>13</v>
+      </c>
+      <c r="C9" s="193">
+        <v>17</v>
+      </c>
+      <c r="D9" s="161">
+        <v>-34.1</v>
+      </c>
+      <c r="E9" s="162">
+        <v>-28.8</v>
+      </c>
+      <c r="F9" s="164">
+        <v>-24.1</v>
+      </c>
+      <c r="G9" s="161">
+        <v>-40</v>
+      </c>
+      <c r="H9" s="162">
+        <v>-43.3</v>
+      </c>
+      <c r="I9" s="162">
+        <v>-46.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="167" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="190">
+        <v>8</v>
+      </c>
+      <c r="C10" s="193">
+        <v>11</v>
+      </c>
+      <c r="D10" s="161">
+        <v>-33</v>
+      </c>
+      <c r="E10" s="162">
+        <v>-27.4</v>
+      </c>
+      <c r="F10" s="164">
+        <v>-22.4</v>
+      </c>
+      <c r="G10" s="161">
+        <v>-34.9</v>
+      </c>
+      <c r="H10" s="162">
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="I10" s="162">
+        <v>-48.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="167" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="190">
+        <v>9</v>
+      </c>
+      <c r="C11" s="193">
+        <v>23</v>
+      </c>
+      <c r="D11" s="161">
+        <v>-35</v>
+      </c>
+      <c r="E11" s="162">
+        <v>-30</v>
+      </c>
+      <c r="F11" s="164">
+        <v>-25.1</v>
+      </c>
+      <c r="G11" s="161">
+        <v>-41.4</v>
+      </c>
+      <c r="H11" s="162">
+        <v>-43.7</v>
+      </c>
+      <c r="I11" s="162">
+        <v>-47.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="167" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="190">
+        <v>16</v>
+      </c>
+      <c r="C12" s="193">
+        <v>31</v>
+      </c>
+      <c r="D12" s="161">
+        <v>-34.9</v>
+      </c>
+      <c r="E12" s="162">
+        <v>-30.2</v>
+      </c>
+      <c r="F12" s="164">
+        <v>-26.2</v>
+      </c>
+      <c r="G12" s="161">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="H12" s="162">
+        <v>-42.2</v>
+      </c>
+      <c r="I12" s="162">
+        <v>-44.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="167" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="190">
+        <v>6</v>
+      </c>
+      <c r="C13" s="193">
+        <v>15</v>
+      </c>
+      <c r="D13" s="161">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="E13" s="162">
+        <v>-28.1</v>
+      </c>
+      <c r="F13" s="164">
+        <v>-24</v>
+      </c>
+      <c r="G13" s="161">
+        <v>-34.4</v>
+      </c>
+      <c r="H13" s="162">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="I13" s="162">
+        <v>-43.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="167" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="190">
+        <v>14</v>
+      </c>
+      <c r="C14" s="193">
+        <v>25</v>
+      </c>
+      <c r="D14" s="161">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="E14" s="162">
+        <v>-29.3</v>
+      </c>
+      <c r="F14" s="164">
+        <v>-24.9</v>
+      </c>
+      <c r="G14" s="161">
+        <v>-40</v>
+      </c>
+      <c r="H14" s="162">
+        <v>-41.6</v>
+      </c>
+      <c r="I14" s="162">
+        <v>-46.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="190">
+        <v>26</v>
+      </c>
+      <c r="C15" s="193">
+        <v>20</v>
+      </c>
+      <c r="D15" s="161">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="E15" s="162">
+        <v>-30.6</v>
+      </c>
+      <c r="F15" s="164">
+        <v>-25.2</v>
+      </c>
+      <c r="G15" s="161">
+        <v>-37.6</v>
+      </c>
+      <c r="H15" s="162">
+        <v>-41.7</v>
+      </c>
+      <c r="I15" s="162">
+        <v>-49.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="167" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="190">
+        <v>7</v>
+      </c>
+      <c r="C16" s="193">
+        <v>10</v>
+      </c>
+      <c r="D16" s="161">
+        <v>-31.8</v>
+      </c>
+      <c r="E16" s="162">
+        <v>-26.4</v>
+      </c>
+      <c r="F16" s="164">
+        <v>-21.3</v>
+      </c>
+      <c r="G16" s="161">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="H16" s="162">
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="I16" s="162">
+        <v>-44.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="167" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="190">
+        <v>7</v>
+      </c>
+      <c r="C17" s="193">
+        <v>14</v>
+      </c>
+      <c r="D17" s="161">
+        <v>-33.5</v>
+      </c>
+      <c r="E17" s="162">
+        <v>-28.4</v>
+      </c>
+      <c r="F17" s="164">
+        <v>-23.5</v>
+      </c>
+      <c r="G17" s="161">
+        <v>-37.6</v>
+      </c>
+      <c r="H17" s="162">
+        <v>-41.2</v>
+      </c>
+      <c r="I17" s="162">
+        <v>-44.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="167" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="190">
+        <v>9</v>
+      </c>
+      <c r="C18" s="193">
+        <v>16</v>
+      </c>
+      <c r="D18" s="161">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="E18" s="162">
+        <v>-27</v>
+      </c>
+      <c r="F18" s="164">
+        <v>-22.4</v>
+      </c>
+      <c r="G18" s="161">
+        <v>-34.6</v>
+      </c>
+      <c r="H18" s="162">
+        <v>-38.4</v>
+      </c>
+      <c r="I18" s="162">
+        <v>-41.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="167" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="190">
+        <v>25</v>
+      </c>
+      <c r="C19" s="193">
+        <v>35</v>
+      </c>
+      <c r="D19" s="161">
+        <v>-36.4</v>
+      </c>
+      <c r="E19" s="162">
+        <v>-31.2</v>
+      </c>
+      <c r="F19" s="164">
+        <v>-26.8</v>
+      </c>
+      <c r="G19" s="161">
+        <v>-40.6</v>
+      </c>
+      <c r="H19" s="162">
+        <v>-42.9</v>
+      </c>
+      <c r="I19" s="162">
+        <v>-48.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="167" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="190">
+        <v>18</v>
+      </c>
+      <c r="C20" s="193">
+        <v>25</v>
+      </c>
+      <c r="D20" s="161">
+        <v>-34.9</v>
+      </c>
+      <c r="E20" s="162">
+        <v>-29.9</v>
+      </c>
+      <c r="F20" s="164">
+        <v>-25.6</v>
+      </c>
+      <c r="G20" s="161">
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="H20" s="162">
+        <v>-42.7</v>
+      </c>
+      <c r="I20" s="162">
+        <v>-46.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="167" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="190">
+        <v>4</v>
+      </c>
+      <c r="C21" s="193">
+        <v>12</v>
+      </c>
+      <c r="D21" s="161">
+        <v>-32.6</v>
+      </c>
+      <c r="E21" s="162">
+        <v>-27.5</v>
+      </c>
+      <c r="F21" s="164">
+        <v>-23.2</v>
+      </c>
+      <c r="G21" s="161">
+        <v>-38.6</v>
+      </c>
+      <c r="H21" s="162">
+        <v>-40.700000000000003</v>
+      </c>
+      <c r="I21" s="162">
+        <v>-44.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="167" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="190">
+        <v>17</v>
+      </c>
+      <c r="C22" s="193">
+        <v>22</v>
+      </c>
+      <c r="D22" s="161">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="E22" s="162">
+        <v>-29.5</v>
+      </c>
+      <c r="F22" s="164">
+        <v>-24.9</v>
+      </c>
+      <c r="G22" s="161">
+        <v>-39.4</v>
+      </c>
+      <c r="H22" s="162">
+        <v>-41.7</v>
+      </c>
+      <c r="I22" s="162">
+        <v>-45.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="167" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="190">
+        <v>2</v>
+      </c>
+      <c r="C23" s="193">
+        <v>9</v>
+      </c>
+      <c r="D23" s="161">
+        <v>-32.4</v>
+      </c>
+      <c r="E23" s="162">
+        <v>-27</v>
+      </c>
+      <c r="F23" s="164">
+        <v>-22</v>
+      </c>
+      <c r="G23" s="161">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="H23" s="162">
+        <v>-37.6</v>
+      </c>
+      <c r="I23" s="162">
+        <v>-46.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="167" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="190">
+        <v>35</v>
+      </c>
+      <c r="C24" s="193">
+        <v>37</v>
+      </c>
+      <c r="D24" s="161">
+        <v>-37.1</v>
+      </c>
+      <c r="E24" s="162">
+        <v>-32.4</v>
+      </c>
+      <c r="F24" s="164">
+        <v>-27.8</v>
+      </c>
+      <c r="G24" s="161">
+        <v>-39.5</v>
+      </c>
+      <c r="H24" s="162">
+        <v>-42.9</v>
+      </c>
+      <c r="I24" s="162">
+        <v>-47.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="167" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" s="190">
+        <v>4</v>
+      </c>
+      <c r="C25" s="193">
+        <v>16</v>
+      </c>
+      <c r="D25" s="161">
+        <v>-34</v>
+      </c>
+      <c r="E25" s="162">
+        <v>-29</v>
+      </c>
+      <c r="F25" s="164">
+        <v>-24.2</v>
+      </c>
+      <c r="G25" s="161">
+        <v>-35</v>
+      </c>
+      <c r="H25" s="162">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="I25" s="162">
+        <v>-42.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="167" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="190">
+        <v>0</v>
+      </c>
+      <c r="C26" s="193">
+        <v>0</v>
+      </c>
+      <c r="D26" s="161">
+        <v>-30.1</v>
+      </c>
+      <c r="E26" s="162">
+        <v>-24.6</v>
+      </c>
+      <c r="F26" s="164">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="G26" s="161">
+        <v>-28.1</v>
+      </c>
+      <c r="H26" s="162">
+        <v>-32.5</v>
+      </c>
+      <c r="I26" s="162">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="167" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" s="190">
+        <v>12</v>
+      </c>
+      <c r="C27" s="193">
+        <v>22</v>
+      </c>
+      <c r="D27" s="161">
+        <v>-34.9</v>
+      </c>
+      <c r="E27" s="162">
+        <v>-29.9</v>
+      </c>
+      <c r="F27" s="164">
+        <v>-24.8</v>
+      </c>
+      <c r="G27" s="161">
+        <v>-37</v>
+      </c>
+      <c r="H27" s="162">
+        <v>-40.700000000000003</v>
+      </c>
+      <c r="I27" s="162">
+        <v>-44.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="167" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" s="190">
+        <v>10</v>
+      </c>
+      <c r="C28" s="193">
+        <v>25</v>
+      </c>
+      <c r="D28" s="161">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="E28" s="162">
+        <v>-29.3</v>
+      </c>
+      <c r="F28" s="164">
+        <v>-24.7</v>
+      </c>
+      <c r="G28" s="161">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="H28" s="162">
+        <v>-38.6</v>
+      </c>
+      <c r="I28" s="162">
+        <v>-44.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="167" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" s="190">
+        <v>38</v>
+      </c>
+      <c r="C29" s="193">
+        <v>47</v>
+      </c>
+      <c r="D29" s="161">
+        <v>-37.700000000000003</v>
+      </c>
+      <c r="E29" s="162">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="F29" s="164">
+        <v>-28.4</v>
+      </c>
+      <c r="G29" s="161">
+        <v>-39.5</v>
+      </c>
+      <c r="H29" s="162">
+        <v>-42.5</v>
+      </c>
+      <c r="I29" s="162">
+        <v>-46.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="167" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="190">
+        <v>20</v>
+      </c>
+      <c r="C30" s="193">
+        <v>34</v>
+      </c>
+      <c r="D30" s="161">
+        <v>-35</v>
+      </c>
+      <c r="E30" s="162">
+        <v>-30.1</v>
+      </c>
+      <c r="F30" s="164">
+        <v>-25.8</v>
+      </c>
+      <c r="G30" s="161">
+        <v>-39.6</v>
+      </c>
+      <c r="H30" s="162">
+        <v>-41.3</v>
+      </c>
+      <c r="I30" s="162">
+        <v>-43.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="167" t="s">
+        <v>210</v>
+      </c>
+      <c r="B31" s="190">
+        <v>22</v>
+      </c>
+      <c r="C31" s="193">
+        <v>34</v>
+      </c>
+      <c r="D31" s="161">
+        <v>-37.1</v>
+      </c>
+      <c r="E31" s="162">
+        <v>-32.1</v>
+      </c>
+      <c r="F31" s="164">
+        <v>-27.4</v>
+      </c>
+      <c r="G31" s="161">
+        <v>-37.6</v>
+      </c>
+      <c r="H31" s="162">
+        <v>-42.9</v>
+      </c>
+      <c r="I31" s="162">
+        <v>-47.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="167" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32" s="190">
+        <v>25</v>
+      </c>
+      <c r="C32" s="193">
+        <v>19</v>
+      </c>
+      <c r="D32" s="161">
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="E32" s="162">
+        <v>-32</v>
+      </c>
+      <c r="F32" s="164">
+        <v>-25.9</v>
+      </c>
+      <c r="G32" s="161">
+        <v>-39.1</v>
+      </c>
+      <c r="H32" s="162">
+        <v>-43.2</v>
+      </c>
+      <c r="I32" s="162">
+        <v>-48.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="167" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" s="190">
+        <v>16</v>
+      </c>
+      <c r="C33" s="193">
+        <v>9</v>
+      </c>
+      <c r="D33" s="161">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="E33" s="162">
+        <v>-28.8</v>
+      </c>
+      <c r="F33" s="164">
+        <v>-22.9</v>
+      </c>
+      <c r="G33" s="161">
+        <v>-34.9</v>
+      </c>
+      <c r="H33" s="162">
+        <v>-39.700000000000003</v>
+      </c>
+      <c r="I33" s="162">
+        <v>-43.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="167" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34" s="190">
+        <v>9</v>
+      </c>
+      <c r="C34" s="193">
+        <v>6</v>
+      </c>
+      <c r="D34" s="161">
+        <v>-35.6</v>
+      </c>
+      <c r="E34" s="162">
+        <v>-30.1</v>
+      </c>
+      <c r="F34" s="164">
+        <v>-23.4</v>
+      </c>
+      <c r="G34" s="161">
+        <v>-35.5</v>
+      </c>
+      <c r="H34" s="162">
+        <v>-42.8</v>
+      </c>
+      <c r="I34" s="162">
+        <v>-46.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="167" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" s="190">
+        <v>25</v>
+      </c>
+      <c r="C35" s="193">
+        <v>22</v>
+      </c>
+      <c r="D35" s="161">
+        <v>-34.6</v>
+      </c>
+      <c r="E35" s="162">
+        <v>-29.5</v>
+      </c>
+      <c r="F35" s="164">
+        <v>-23.8</v>
+      </c>
+      <c r="G35" s="161">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="H35" s="162">
+        <v>-41.1</v>
+      </c>
+      <c r="I35" s="162">
+        <v>-45.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="167" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36" s="190">
+        <v>14</v>
+      </c>
+      <c r="C36" s="193">
+        <v>13</v>
+      </c>
+      <c r="D36" s="161">
+        <v>-35</v>
+      </c>
+      <c r="E36" s="162">
+        <v>-29.9</v>
+      </c>
+      <c r="F36" s="164">
+        <v>-24.1</v>
+      </c>
+      <c r="G36" s="161">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="H36" s="162">
+        <v>-41</v>
+      </c>
+      <c r="I36" s="162">
+        <v>-44.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="167" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" s="190">
+        <v>10</v>
+      </c>
+      <c r="C37" s="193">
+        <v>13</v>
+      </c>
+      <c r="D37" s="161">
+        <v>-33</v>
+      </c>
+      <c r="E37" s="162">
+        <v>-27.5</v>
+      </c>
+      <c r="F37" s="164">
+        <v>-22.2</v>
+      </c>
+      <c r="G37" s="161">
+        <v>-35.5</v>
+      </c>
+      <c r="H37" s="162">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="I37" s="162">
+        <v>-45.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="167" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="190">
+        <v>26</v>
+      </c>
+      <c r="C38" s="193">
+        <v>22</v>
+      </c>
+      <c r="D38" s="161">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="E38" s="162">
+        <v>-31.3</v>
+      </c>
+      <c r="F38" s="164">
+        <v>-25.6</v>
+      </c>
+      <c r="G38" s="161">
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="H38" s="162">
+        <v>-41.4</v>
+      </c>
+      <c r="I38" s="162">
+        <v>-44.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="167" t="s">
+        <v>218</v>
+      </c>
+      <c r="B39" s="190">
+        <v>3</v>
+      </c>
+      <c r="C39" s="193">
+        <v>7</v>
+      </c>
+      <c r="D39" s="161">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="E39" s="162">
+        <v>-27.4</v>
+      </c>
+      <c r="F39" s="164">
+        <v>-21.6</v>
+      </c>
+      <c r="G39" s="161">
+        <v>-34.1</v>
+      </c>
+      <c r="H39" s="162">
+        <v>-39.200000000000003</v>
+      </c>
+      <c r="I39" s="162">
+        <v>-43.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="167" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" s="190">
+        <v>13</v>
+      </c>
+      <c r="C40" s="193">
+        <v>13</v>
+      </c>
+      <c r="D40" s="161">
+        <v>-34.1</v>
+      </c>
+      <c r="E40" s="162">
+        <v>-28.3</v>
+      </c>
+      <c r="F40" s="164">
+        <v>-22.8</v>
+      </c>
+      <c r="G40" s="161">
+        <v>-38.5</v>
+      </c>
+      <c r="H40" s="162">
+        <v>-42.2</v>
+      </c>
+      <c r="I40" s="162">
+        <v>-46.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="167" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41" s="190">
+        <v>6</v>
+      </c>
+      <c r="C41" s="193">
+        <v>7</v>
+      </c>
+      <c r="D41" s="161">
+        <v>-33.6</v>
+      </c>
+      <c r="E41" s="162">
+        <v>-28.5</v>
+      </c>
+      <c r="F41" s="164">
+        <v>-22.3</v>
+      </c>
+      <c r="G41" s="161">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="H41" s="162">
+        <v>-37</v>
+      </c>
+      <c r="I41" s="162">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="167" t="s">
+        <v>221</v>
+      </c>
+      <c r="B42" s="190">
+        <v>21</v>
+      </c>
+      <c r="C42" s="193">
+        <v>23</v>
+      </c>
+      <c r="D42" s="161">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="E42" s="162">
+        <v>-30</v>
+      </c>
+      <c r="F42" s="164">
+        <v>-24.1</v>
+      </c>
+      <c r="G42" s="161">
+        <v>-36.4</v>
+      </c>
+      <c r="H42" s="162">
+        <v>-40.299999999999997</v>
+      </c>
+      <c r="I42" s="162">
+        <v>-44.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="167" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="190">
+        <v>24</v>
+      </c>
+      <c r="C43" s="193">
+        <v>25</v>
+      </c>
+      <c r="D43" s="161">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="E43" s="162">
+        <v>-30.9</v>
+      </c>
+      <c r="F43" s="164">
+        <v>-24.6</v>
+      </c>
+      <c r="G43" s="161">
+        <v>-38.6</v>
+      </c>
+      <c r="H43" s="162">
+        <v>-43.4</v>
+      </c>
+      <c r="I43" s="162">
+        <v>-46.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="167" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44" s="190">
+        <v>1</v>
+      </c>
+      <c r="C44" s="193">
+        <v>4</v>
+      </c>
+      <c r="D44" s="161">
+        <v>-31.8</v>
+      </c>
+      <c r="E44" s="162">
+        <v>-26.5</v>
+      </c>
+      <c r="F44" s="164">
+        <v>-20.6</v>
+      </c>
+      <c r="G44" s="161">
+        <v>-31.3</v>
+      </c>
+      <c r="H44" s="162">
+        <v>-35.4</v>
+      </c>
+      <c r="I44" s="162">
+        <v>-40.700000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A3:I44">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>IF(MOD(ROW(),2)=0,0,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B44">
+    <cfRule type="top10" dxfId="15" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C44">
+    <cfRule type="top10" dxfId="13" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D44">
+    <cfRule type="top10" dxfId="11" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="6" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E44">
+    <cfRule type="top10" dxfId="9" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="8" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F44">
+    <cfRule type="top10" dxfId="7" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G44">
+    <cfRule type="top10" dxfId="5" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="12" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H44">
+    <cfRule type="top10" dxfId="3" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="14" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I44">
+    <cfRule type="top10" dxfId="1" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="16" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/气象/北方强冷站：统计信息.xlsx
+++ b/气象/北方强冷站：统计信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4531D81B-DD8B-4E18-9055-D0EFBE0D6653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2A46DD-5072-4ED7-BB93-A5D8FAA31652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{8D56AB80-2E26-4029-929F-AED17FA8BDE0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="247">
   <si>
     <t>漠河</t>
   </si>
@@ -830,16 +830,10 @@
     <t>1996/1997</t>
   </si>
   <si>
-    <t>1997/1998</t>
-  </si>
-  <si>
     <t>1998/1999</t>
   </si>
   <si>
     <t>1999/2000</t>
-  </si>
-  <si>
-    <t>2000/2001</t>
   </si>
   <si>
     <t>2001/2002</t>
@@ -959,8 +953,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仁钦隆勃冬季统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>克孜勒冬季统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1959/1960</t>
+  </si>
+  <si>
+    <t>1968/1969</t>
+  </si>
+  <si>
+    <t>1969/1970</t>
+  </si>
+  <si>
+    <t>1970/1971</t>
+  </si>
+  <si>
+    <t>1972/1973</t>
+  </si>
+  <si>
+    <t>1973/1974</t>
+  </si>
+  <si>
+    <t>1974/1975</t>
+  </si>
+  <si>
+    <t>1975/1976</t>
+  </si>
+  <si>
+    <t>1976/1977</t>
+  </si>
+  <si>
+    <t>1977/1978</t>
+  </si>
+  <si>
+    <t>1978/1979</t>
+  </si>
+  <si>
+    <t>1979/1980</t>
+  </si>
+  <si>
+    <t>1980/1981</t>
+  </si>
+  <si>
+    <t>1981/1982</t>
+  </si>
+  <si>
+    <t>1982/1983</t>
   </si>
 </sst>
 </file>
@@ -971,7 +1010,7 @@
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1366,15 +1405,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color rgb="FF6A040F"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1394,6 +1424,24 @@
       <b/>
       <sz val="40"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF03071E"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1546,7 +1594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -2078,43 +2126,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="64"/>
       </left>
@@ -2163,7 +2174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2641,32 +2652,50 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="45" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="45" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="45" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="45" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="45" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="45" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="45" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="46" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="46" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="46" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2710,46 +2739,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="45" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="45" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="47" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="47" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="47" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2848,13 +2844,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF03071E"/>
       <color rgb="FF6A040F"/>
       <color rgb="FF003F88"/>
       <color rgb="FFF72585"/>
       <color rgb="FFFFEE32"/>
       <color rgb="FF80ED99"/>
       <color rgb="FF4361EE"/>
-      <color rgb="FF03071E"/>
       <color rgb="FF370617"/>
       <color rgb="FF9D0208"/>
       <color rgb="FFD00000"/>
@@ -3187,28 +3183,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="100.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="176" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="168" t="s">
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="174" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="169"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="175"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="50" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="59" t="s">
@@ -3217,11 +3213,11 @@
       <c r="B2" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="171" t="s">
+      <c r="C2" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="172"/>
-      <c r="E2" s="173"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="179"/>
       <c r="F2" s="58" t="s">
         <v>27</v>
       </c>
@@ -4757,26 +4753,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="82.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="181" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="182"/>
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="182"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
@@ -4785,14 +4781,14 @@
       <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="174"/>
+      <c r="D2" s="180"/>
       <c r="E2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="177"/>
+      <c r="F2" s="183"/>
       <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
@@ -4849,7 +4845,7 @@
       <c r="E3" s="11">
         <v>-52.6</v>
       </c>
-      <c r="F3" s="178"/>
+      <c r="F3" s="184"/>
       <c r="G3" s="12">
         <v>-52.6</v>
       </c>
@@ -4906,7 +4902,7 @@
       <c r="E4" s="19">
         <v>-51.3</v>
       </c>
-      <c r="F4" s="178"/>
+      <c r="F4" s="184"/>
       <c r="G4" s="16">
         <v>-51.3</v>
       </c>
@@ -4963,7 +4959,7 @@
       <c r="E5" s="22">
         <v>-53.3</v>
       </c>
-      <c r="F5" s="178"/>
+      <c r="F5" s="184"/>
       <c r="G5" s="23">
         <v>-53.3</v>
       </c>
@@ -5020,7 +5016,7 @@
       <c r="E6" s="24">
         <v>-50.4</v>
       </c>
-      <c r="F6" s="178"/>
+      <c r="F6" s="184"/>
       <c r="G6" s="13">
         <v>-50.4</v>
       </c>
@@ -5077,7 +5073,7 @@
       <c r="E7" s="19">
         <v>-51.3</v>
       </c>
-      <c r="F7" s="178"/>
+      <c r="F7" s="184"/>
       <c r="G7" s="13">
         <v>-50.3</v>
       </c>
@@ -5134,7 +5130,7 @@
       <c r="E8" s="25">
         <v>-50.7</v>
       </c>
-      <c r="F8" s="178"/>
+      <c r="F8" s="184"/>
       <c r="G8" s="15">
         <v>-50.7</v>
       </c>
@@ -5191,7 +5187,7 @@
       <c r="E9" s="24">
         <v>-50.4</v>
       </c>
-      <c r="F9" s="178"/>
+      <c r="F9" s="184"/>
       <c r="G9" s="13">
         <v>-50.4</v>
       </c>
@@ -5248,7 +5244,7 @@
       <c r="E10" s="26">
         <v>-51.9</v>
       </c>
-      <c r="F10" s="178"/>
+      <c r="F10" s="184"/>
       <c r="G10" s="20">
         <v>-51.9</v>
       </c>
@@ -5305,7 +5301,7 @@
       <c r="E11" s="25">
         <v>-50.6</v>
       </c>
-      <c r="F11" s="178"/>
+      <c r="F11" s="184"/>
       <c r="G11" s="15">
         <v>-50.6</v>
       </c>
@@ -5362,7 +5358,7 @@
       <c r="E12" s="28">
         <v>-52.9</v>
       </c>
-      <c r="F12" s="178"/>
+      <c r="F12" s="184"/>
       <c r="G12" s="21">
         <v>-52.9</v>
       </c>
@@ -5419,7 +5415,7 @@
       <c r="E13" s="29">
         <v>-54.7</v>
       </c>
-      <c r="F13" s="178"/>
+      <c r="F13" s="184"/>
       <c r="G13" s="23">
         <v>-53.2</v>
       </c>
@@ -5476,7 +5472,7 @@
       <c r="E14" s="19">
         <v>-51.2</v>
       </c>
-      <c r="F14" s="178"/>
+      <c r="F14" s="184"/>
       <c r="G14" s="16">
         <v>-51.2</v>
       </c>
@@ -5533,7 +5529,7 @@
       <c r="E15" s="30">
         <v>-55.3</v>
       </c>
-      <c r="F15" s="179"/>
+      <c r="F15" s="185"/>
       <c r="G15" s="14">
         <v>-55.3</v>
       </c>
@@ -5615,25 +5611,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="180" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="181" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="181"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="187"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="100.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="103" t="s">
@@ -5642,10 +5638,10 @@
       <c r="B2" s="103" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="C2" s="186" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="180"/>
+      <c r="D2" s="186"/>
       <c r="E2" s="108" t="s">
         <v>167</v>
       </c>
@@ -6570,1279 +6566,1524 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1316EC71-6346-4265-A9F0-F5CFD7F026FD}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.59765625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.59765625" style="191" customWidth="1"/>
+    <col min="2" max="3" width="12.59765625" style="171" customWidth="1"/>
     <col min="4" max="7" width="9.06640625" style="158"/>
     <col min="8" max="8" width="9.59765625" style="158" customWidth="1"/>
     <col min="9" max="9" width="9.06640625" style="158"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="194" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="195" t="s">
+    <row r="1" spans="1:9" s="173" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="188" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
+    </row>
+    <row r="2" spans="1:9" ht="64.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="162" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="163" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="164" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="167" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="168" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="169" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="165" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" s="166" t="s">
+        <v>224</v>
+      </c>
+      <c r="I2" s="166" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="190" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="170"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="159">
+        <v>-41.1</v>
+      </c>
+      <c r="H3" s="160">
+        <v>-44.6</v>
+      </c>
+      <c r="I3" s="160">
+        <v>-47.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="190" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-    </row>
-    <row r="2" spans="1:9" ht="64.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="165" t="s">
-        <v>227</v>
-      </c>
-      <c r="B2" s="182" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="183" t="s">
-        <v>232</v>
-      </c>
-      <c r="D2" s="186" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" s="187" t="s">
-        <v>229</v>
-      </c>
-      <c r="F2" s="188" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="184" t="s">
-        <v>225</v>
-      </c>
-      <c r="H2" s="185" t="s">
-        <v>226</v>
-      </c>
-      <c r="I2" s="185" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="166" t="s">
+      <c r="B4" s="170">
+        <v>44</v>
+      </c>
+      <c r="C4" s="172">
+        <v>40</v>
+      </c>
+      <c r="D4" s="159"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="159">
+        <v>-42.2</v>
+      </c>
+      <c r="H4" s="160">
+        <v>-47.6</v>
+      </c>
+      <c r="I4" s="160">
+        <v>-52.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="189" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="170">
+        <v>12</v>
+      </c>
+      <c r="C5" s="172">
+        <v>11</v>
+      </c>
+      <c r="D5" s="159">
+        <v>-33.1</v>
+      </c>
+      <c r="E5" s="160">
+        <v>-27.8</v>
+      </c>
+      <c r="F5" s="161">
+        <v>-22.2</v>
+      </c>
+      <c r="G5" s="159">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="H5" s="160">
+        <v>-42.5</v>
+      </c>
+      <c r="I5" s="160">
+        <v>-47.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="189" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="170">
+        <v>7</v>
+      </c>
+      <c r="C6" s="172">
+        <v>7</v>
+      </c>
+      <c r="D6" s="159">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="E6" s="160">
+        <v>-27.9</v>
+      </c>
+      <c r="F6" s="161">
+        <v>-22.4</v>
+      </c>
+      <c r="G6" s="159">
+        <v>-36.1</v>
+      </c>
+      <c r="H6" s="160">
+        <v>-40.700000000000003</v>
+      </c>
+      <c r="I6" s="160">
+        <v>-43.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="190" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="170"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="159">
+        <v>-34</v>
+      </c>
+      <c r="H7" s="160">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="I7" s="160">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="189" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="170">
+        <v>8</v>
+      </c>
+      <c r="C8" s="172">
+        <v>5</v>
+      </c>
+      <c r="D8" s="159">
+        <v>-33.5</v>
+      </c>
+      <c r="E8" s="160">
+        <v>-28.3</v>
+      </c>
+      <c r="F8" s="161">
+        <v>-23</v>
+      </c>
+      <c r="G8" s="159">
+        <v>-32</v>
+      </c>
+      <c r="H8" s="160">
+        <v>-36.4</v>
+      </c>
+      <c r="I8" s="160">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="189" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="170">
+        <v>3</v>
+      </c>
+      <c r="C9" s="172">
+        <v>6</v>
+      </c>
+      <c r="D9" s="159">
+        <v>-33.4</v>
+      </c>
+      <c r="E9" s="160">
+        <v>-28.5</v>
+      </c>
+      <c r="F9" s="161">
+        <v>-23</v>
+      </c>
+      <c r="G9" s="159">
+        <v>-30</v>
+      </c>
+      <c r="H9" s="160">
+        <v>-36.6</v>
+      </c>
+      <c r="I9" s="160">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="189" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="170">
+        <v>11</v>
+      </c>
+      <c r="C10" s="172">
+        <v>17</v>
+      </c>
+      <c r="D10" s="159">
+        <v>-32.6</v>
+      </c>
+      <c r="E10" s="160">
+        <v>-27.7</v>
+      </c>
+      <c r="F10" s="161">
+        <v>-22.3</v>
+      </c>
+      <c r="G10" s="159">
+        <v>-35</v>
+      </c>
+      <c r="H10" s="160">
+        <v>-41.6</v>
+      </c>
+      <c r="I10" s="160">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="189" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="170">
+        <v>22</v>
+      </c>
+      <c r="C11" s="172">
+        <v>22</v>
+      </c>
+      <c r="D11" s="159">
+        <v>-34</v>
+      </c>
+      <c r="E11" s="160">
+        <v>-28.9</v>
+      </c>
+      <c r="F11" s="161">
+        <v>-24</v>
+      </c>
+      <c r="G11" s="159">
+        <v>-40</v>
+      </c>
+      <c r="H11" s="160">
+        <v>-44.4</v>
+      </c>
+      <c r="I11" s="160">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="189" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" s="170">
+        <v>9</v>
+      </c>
+      <c r="C12" s="172">
+        <v>8</v>
+      </c>
+      <c r="D12" s="159">
+        <v>-31.2</v>
+      </c>
+      <c r="E12" s="160">
+        <v>-26.1</v>
+      </c>
+      <c r="F12" s="161">
+        <v>-20.8</v>
+      </c>
+      <c r="G12" s="159">
+        <v>-33</v>
+      </c>
+      <c r="H12" s="160">
+        <v>-40.9</v>
+      </c>
+      <c r="I12" s="160">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="189" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="170">
+        <v>11</v>
+      </c>
+      <c r="C13" s="172">
+        <v>10</v>
+      </c>
+      <c r="D13" s="159">
+        <v>-30.8</v>
+      </c>
+      <c r="E13" s="160">
+        <v>-25</v>
+      </c>
+      <c r="F13" s="161">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="G13" s="159">
+        <v>-38</v>
+      </c>
+      <c r="H13" s="160">
+        <v>-43</v>
+      </c>
+      <c r="I13" s="160">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="189" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="170">
+        <v>19</v>
+      </c>
+      <c r="C14" s="172">
+        <v>12</v>
+      </c>
+      <c r="D14" s="159">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="E14" s="160">
+        <v>-27.3</v>
+      </c>
+      <c r="F14" s="161">
+        <v>-22</v>
+      </c>
+      <c r="G14" s="159">
+        <v>-34</v>
+      </c>
+      <c r="H14" s="160">
+        <v>-40.5</v>
+      </c>
+      <c r="I14" s="160">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="189" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" s="170">
+        <v>11</v>
+      </c>
+      <c r="C15" s="172">
+        <v>14</v>
+      </c>
+      <c r="D15" s="159">
+        <v>-32.9</v>
+      </c>
+      <c r="E15" s="160">
+        <v>-27.6</v>
+      </c>
+      <c r="F15" s="161">
+        <v>-22.4</v>
+      </c>
+      <c r="G15" s="159">
+        <v>-34</v>
+      </c>
+      <c r="H15" s="160">
+        <v>-40.6</v>
+      </c>
+      <c r="I15" s="160">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="189" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" s="170">
+        <v>8</v>
+      </c>
+      <c r="C16" s="172">
+        <v>8</v>
+      </c>
+      <c r="D16" s="159">
+        <v>-32.5</v>
+      </c>
+      <c r="E16" s="160">
+        <v>-27.3</v>
+      </c>
+      <c r="F16" s="161">
+        <v>-22.1</v>
+      </c>
+      <c r="G16" s="159">
+        <v>-31.6</v>
+      </c>
+      <c r="H16" s="160">
+        <v>-37.6</v>
+      </c>
+      <c r="I16" s="160">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="189" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" s="170"/>
+      <c r="C17" s="172">
+        <v>2</v>
+      </c>
+      <c r="D17" s="159">
+        <v>-29.3</v>
+      </c>
+      <c r="E17" s="160">
+        <v>-24.6</v>
+      </c>
+      <c r="F17" s="161">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="G17" s="159">
+        <v>-32</v>
+      </c>
+      <c r="H17" s="160">
+        <v>-35.5</v>
+      </c>
+      <c r="I17" s="160">
+        <v>-38.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="189" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="189">
-        <v>25</v>
-      </c>
-      <c r="C3" s="192">
-        <v>27</v>
-      </c>
-      <c r="D3" s="159">
-        <v>-36.9</v>
-      </c>
-      <c r="E3" s="160">
+      <c r="B18" s="170">
+        <v>14</v>
+      </c>
+      <c r="C18" s="172">
+        <v>13</v>
+      </c>
+      <c r="D18" s="159">
+        <v>-33.9</v>
+      </c>
+      <c r="E18" s="160">
+        <v>-29</v>
+      </c>
+      <c r="F18" s="161">
+        <v>-23.8</v>
+      </c>
+      <c r="G18" s="159">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="H18" s="160">
+        <v>-39.700000000000003</v>
+      </c>
+      <c r="I18" s="160">
+        <v>-43.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="189" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="170">
+        <v>4</v>
+      </c>
+      <c r="C19" s="172">
+        <v>10</v>
+      </c>
+      <c r="D19" s="159">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="E19" s="160">
+        <v>-27.9</v>
+      </c>
+      <c r="F19" s="161">
+        <v>-23</v>
+      </c>
+      <c r="G19" s="159">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="H19" s="160">
+        <v>-40.4</v>
+      </c>
+      <c r="I19" s="160">
+        <v>-42.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="189" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="170">
+        <v>2</v>
+      </c>
+      <c r="C20" s="172"/>
+      <c r="D20" s="159">
+        <v>-31.4</v>
+      </c>
+      <c r="E20" s="160">
+        <v>-26.4</v>
+      </c>
+      <c r="F20" s="161">
+        <v>-20.8</v>
+      </c>
+      <c r="G20" s="159">
+        <v>-28.5</v>
+      </c>
+      <c r="H20" s="160">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="I20" s="160">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="189" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="170">
+        <v>2</v>
+      </c>
+      <c r="C21" s="172">
+        <v>6</v>
+      </c>
+      <c r="D21" s="159">
+        <v>-29.7</v>
+      </c>
+      <c r="E21" s="160">
+        <v>-24.1</v>
+      </c>
+      <c r="F21" s="161">
+        <v>-18.8</v>
+      </c>
+      <c r="G21" s="159">
+        <v>-32.9</v>
+      </c>
+      <c r="H21" s="160">
+        <v>-37.700000000000003</v>
+      </c>
+      <c r="I21" s="160">
+        <v>-40.700000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="189" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="170">
+        <v>5</v>
+      </c>
+      <c r="C22" s="172">
+        <v>4</v>
+      </c>
+      <c r="D22" s="159">
+        <v>-31.4</v>
+      </c>
+      <c r="E22" s="160">
+        <v>-26.2</v>
+      </c>
+      <c r="F22" s="161">
+        <v>-21.2</v>
+      </c>
+      <c r="G22" s="159">
+        <v>-31.1</v>
+      </c>
+      <c r="H22" s="160">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="I22" s="160">
+        <v>-41.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="189" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="170"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="159">
+        <v>-30.5</v>
+      </c>
+      <c r="E23" s="160">
+        <v>-25</v>
+      </c>
+      <c r="F23" s="161">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="G23" s="159">
+        <v>-28.5</v>
+      </c>
+      <c r="H23" s="160">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="I23" s="160">
+        <v>-37.799999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="170">
+        <v>4</v>
+      </c>
+      <c r="C24" s="172">
+        <v>5</v>
+      </c>
+      <c r="D24" s="159">
+        <v>-29.1</v>
+      </c>
+      <c r="E24" s="160">
+        <v>-23.9</v>
+      </c>
+      <c r="F24" s="161">
+        <v>-18.7</v>
+      </c>
+      <c r="G24" s="159">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="H24" s="160">
+        <v>-38.799999999999997</v>
+      </c>
+      <c r="I24" s="160">
+        <v>-42.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="189" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="170"/>
+      <c r="C25" s="172">
+        <v>1</v>
+      </c>
+      <c r="D25" s="159">
+        <v>-30.4</v>
+      </c>
+      <c r="E25" s="160">
+        <v>-24.9</v>
+      </c>
+      <c r="F25" s="161">
+        <v>-19.8</v>
+      </c>
+      <c r="G25" s="159">
+        <v>-30.3</v>
+      </c>
+      <c r="H25" s="160">
+        <v>-34.4</v>
+      </c>
+      <c r="I25" s="160">
+        <v>-39.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="190" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="170"/>
+      <c r="C26" s="172">
+        <v>8</v>
+      </c>
+      <c r="D26" s="159"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="159">
+        <v>-34.4</v>
+      </c>
+      <c r="H26" s="160">
+        <v>-36.4</v>
+      </c>
+      <c r="I26" s="160">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="190" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="170"/>
+      <c r="C27" s="172">
+        <v>6</v>
+      </c>
+      <c r="D27" s="159"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="159">
+        <v>-31.4</v>
+      </c>
+      <c r="H27" s="160">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="I27" s="160">
+        <v>-39.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="190" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" s="170"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="159">
+        <v>-28.4</v>
+      </c>
+      <c r="H28" s="160">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="I28" s="160">
+        <v>-37.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="190" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="170">
+        <v>1</v>
+      </c>
+      <c r="C29" s="172">
+        <v>4</v>
+      </c>
+      <c r="D29" s="159"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="159">
+        <v>-33.1</v>
+      </c>
+      <c r="H29" s="160">
+        <v>-37.6</v>
+      </c>
+      <c r="I29" s="160">
+        <v>-40.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="190" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="170">
+        <v>4</v>
+      </c>
+      <c r="C30" s="172">
+        <v>5</v>
+      </c>
+      <c r="D30" s="159"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="159">
+        <v>-31.2</v>
+      </c>
+      <c r="H30" s="160">
+        <v>-37.5</v>
+      </c>
+      <c r="I30" s="160">
+        <v>-41.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="190" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="170"/>
+      <c r="C31" s="172">
+        <v>1</v>
+      </c>
+      <c r="D31" s="159"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="159">
+        <v>-30.9</v>
+      </c>
+      <c r="H31" s="160">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="I31" s="160">
+        <v>-37.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="190" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="170"/>
+      <c r="C32" s="172">
+        <v>2</v>
+      </c>
+      <c r="D32" s="159"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="159">
+        <v>-31.7</v>
+      </c>
+      <c r="H32" s="160">
+        <v>-35.6</v>
+      </c>
+      <c r="I32" s="160">
+        <v>-38.799999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="190" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" s="170">
+        <v>2</v>
+      </c>
+      <c r="C33" s="172">
+        <v>2</v>
+      </c>
+      <c r="D33" s="159"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="159">
+        <v>-34.4</v>
+      </c>
+      <c r="H33" s="160">
+        <v>-37.5</v>
+      </c>
+      <c r="I33" s="160">
+        <v>-44.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="189" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="170">
+        <v>2</v>
+      </c>
+      <c r="C34" s="172">
+        <v>4</v>
+      </c>
+      <c r="D34" s="159">
+        <v>-29.6</v>
+      </c>
+      <c r="E34" s="160">
+        <v>-24.1</v>
+      </c>
+      <c r="F34" s="161">
+        <v>-18.7</v>
+      </c>
+      <c r="G34" s="159">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="H34" s="160">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="I34" s="160">
+        <v>-40.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="189" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="170">
+        <v>6</v>
+      </c>
+      <c r="C35" s="172">
+        <v>8</v>
+      </c>
+      <c r="D35" s="159">
+        <v>-30.2</v>
+      </c>
+      <c r="E35" s="160">
+        <v>-25.2</v>
+      </c>
+      <c r="F35" s="161">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="G35" s="159">
+        <v>-35.6</v>
+      </c>
+      <c r="H35" s="160">
+        <v>-40.1</v>
+      </c>
+      <c r="I35" s="160">
+        <v>-42.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="189" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="170"/>
+      <c r="C36" s="172"/>
+      <c r="D36" s="159">
+        <v>-29.7</v>
+      </c>
+      <c r="E36" s="160">
+        <v>-24.7</v>
+      </c>
+      <c r="F36" s="161">
+        <v>-19</v>
+      </c>
+      <c r="G36" s="159">
+        <v>-29.5</v>
+      </c>
+      <c r="H36" s="160">
+        <v>-35.6</v>
+      </c>
+      <c r="I36" s="160">
+        <v>-38.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="189" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="170">
+        <v>21</v>
+      </c>
+      <c r="C37" s="172">
+        <v>21</v>
+      </c>
+      <c r="D37" s="159">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="E37" s="160">
+        <v>-29</v>
+      </c>
+      <c r="F37" s="161">
+        <v>-23.4</v>
+      </c>
+      <c r="G37" s="159">
+        <v>-39.200000000000003</v>
+      </c>
+      <c r="H37" s="160">
+        <v>-41.7</v>
+      </c>
+      <c r="I37" s="160">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="189" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" s="170">
+        <v>4</v>
+      </c>
+      <c r="C38" s="172">
+        <v>14</v>
+      </c>
+      <c r="D38" s="159">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="E38" s="160">
+        <v>-27.9</v>
+      </c>
+      <c r="F38" s="161">
+        <v>-22.7</v>
+      </c>
+      <c r="G38" s="159">
+        <v>-34.6</v>
+      </c>
+      <c r="H38" s="160">
+        <v>-38.4</v>
+      </c>
+      <c r="I38" s="160">
+        <v>-41.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="189" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" s="170"/>
+      <c r="C39" s="172"/>
+      <c r="D39" s="159">
+        <v>-27.8</v>
+      </c>
+      <c r="E39" s="160">
+        <v>-22.2</v>
+      </c>
+      <c r="F39" s="161">
+        <v>-17</v>
+      </c>
+      <c r="G39" s="159">
+        <v>-27</v>
+      </c>
+      <c r="H39" s="160">
+        <v>-32.6</v>
+      </c>
+      <c r="I39" s="160">
+        <v>-36.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="189" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" s="170">
+        <v>9</v>
+      </c>
+      <c r="C40" s="172">
+        <v>15</v>
+      </c>
+      <c r="D40" s="159">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="E40" s="160">
+        <v>-28.3</v>
+      </c>
+      <c r="F40" s="161">
+        <v>-23</v>
+      </c>
+      <c r="G40" s="159">
+        <v>-33.5</v>
+      </c>
+      <c r="H40" s="160">
+        <v>-38.6</v>
+      </c>
+      <c r="I40" s="160">
+        <v>-41.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="189" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41" s="170"/>
+      <c r="C41" s="172">
+        <v>6</v>
+      </c>
+      <c r="D41" s="159">
+        <v>-30.9</v>
+      </c>
+      <c r="E41" s="160">
+        <v>-25.8</v>
+      </c>
+      <c r="F41" s="161">
+        <v>-20.8</v>
+      </c>
+      <c r="G41" s="159">
+        <v>-31.5</v>
+      </c>
+      <c r="H41" s="160">
+        <v>-35.4</v>
+      </c>
+      <c r="I41" s="160">
+        <v>-38.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="189" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" s="170">
+        <v>12</v>
+      </c>
+      <c r="C42" s="172">
+        <v>12</v>
+      </c>
+      <c r="D42" s="159">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="E42" s="160">
+        <v>-28.6</v>
+      </c>
+      <c r="F42" s="161">
+        <v>-23.3</v>
+      </c>
+      <c r="G42" s="159">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="H42" s="160">
+        <v>-40.299999999999997</v>
+      </c>
+      <c r="I42" s="160">
+        <v>-42.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="189" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" s="170">
+        <v>15</v>
+      </c>
+      <c r="C43" s="172">
+        <v>21</v>
+      </c>
+      <c r="D43" s="159">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="E43" s="160">
+        <v>-27.8</v>
+      </c>
+      <c r="F43" s="161">
+        <v>-22.5</v>
+      </c>
+      <c r="G43" s="159">
+        <v>-33.6</v>
+      </c>
+      <c r="H43" s="160">
+        <v>-39.700000000000003</v>
+      </c>
+      <c r="I43" s="160">
+        <v>-43.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="189" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="170">
+        <v>8</v>
+      </c>
+      <c r="C44" s="172">
+        <v>9</v>
+      </c>
+      <c r="D44" s="159">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="E44" s="160">
+        <v>-28.4</v>
+      </c>
+      <c r="F44" s="161">
+        <v>-23.3</v>
+      </c>
+      <c r="G44" s="159">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="H44" s="160">
+        <v>-38.9</v>
+      </c>
+      <c r="I44" s="160">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="189" t="s">
+        <v>209</v>
+      </c>
+      <c r="B45" s="170">
+        <v>14</v>
+      </c>
+      <c r="C45" s="172">
+        <v>16</v>
+      </c>
+      <c r="D45" s="159">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="E45" s="160">
+        <v>-27.6</v>
+      </c>
+      <c r="F45" s="161">
+        <v>-22.7</v>
+      </c>
+      <c r="G45" s="159">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="H45" s="160">
+        <v>-40.9</v>
+      </c>
+      <c r="I45" s="160">
+        <v>-43.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="189" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" s="170"/>
+      <c r="C46" s="172"/>
+      <c r="D46" s="159">
+        <v>-28.2</v>
+      </c>
+      <c r="E46" s="160">
+        <v>-23.1</v>
+      </c>
+      <c r="F46" s="161">
+        <v>-18.5</v>
+      </c>
+      <c r="G46" s="159">
+        <v>-28.5</v>
+      </c>
+      <c r="H46" s="160">
+        <v>-34.4</v>
+      </c>
+      <c r="I46" s="160">
+        <v>-38.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="189" t="s">
+        <v>211</v>
+      </c>
+      <c r="B47" s="170"/>
+      <c r="C47" s="172"/>
+      <c r="D47" s="159">
+        <v>-30.1</v>
+      </c>
+      <c r="E47" s="160">
+        <v>-24.8</v>
+      </c>
+      <c r="F47" s="161">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="G47" s="159">
+        <v>-29.7</v>
+      </c>
+      <c r="H47" s="160">
+        <v>-35.1</v>
+      </c>
+      <c r="I47" s="160">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="189" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" s="170">
+        <v>6</v>
+      </c>
+      <c r="C48" s="172">
+        <v>5</v>
+      </c>
+      <c r="D48" s="159">
+        <v>-29.8</v>
+      </c>
+      <c r="E48" s="160">
+        <v>-24.9</v>
+      </c>
+      <c r="F48" s="161">
+        <v>-20</v>
+      </c>
+      <c r="G48" s="159">
+        <v>-32.4</v>
+      </c>
+      <c r="H48" s="160">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="I48" s="160">
+        <v>-42.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="189" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" s="170"/>
+      <c r="C49" s="172"/>
+      <c r="D49" s="159">
+        <v>-29.2</v>
+      </c>
+      <c r="E49" s="160">
+        <v>-24</v>
+      </c>
+      <c r="F49" s="161">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="G49" s="159">
+        <v>-28.3</v>
+      </c>
+      <c r="H49" s="160">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="I49" s="160">
+        <v>-36.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="189" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="170">
+        <v>9</v>
+      </c>
+      <c r="C50" s="172">
+        <v>11</v>
+      </c>
+      <c r="D50" s="159">
+        <v>-30.7</v>
+      </c>
+      <c r="E50" s="160">
+        <v>-25.7</v>
+      </c>
+      <c r="F50" s="161">
+        <v>-20.7</v>
+      </c>
+      <c r="G50" s="159">
+        <v>-34.9</v>
+      </c>
+      <c r="H50" s="160">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="I50" s="160">
+        <v>-44.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="189" t="s">
+        <v>215</v>
+      </c>
+      <c r="B51" s="170">
+        <v>3</v>
+      </c>
+      <c r="C51" s="172">
+        <v>10</v>
+      </c>
+      <c r="D51" s="159">
         <v>-31.6</v>
       </c>
-      <c r="F3" s="163">
-        <v>-26.5</v>
-      </c>
-      <c r="G3" s="159">
-        <v>-33.6</v>
-      </c>
-      <c r="H3" s="160">
-        <v>-39.1</v>
-      </c>
-      <c r="I3" s="160">
-        <v>-44.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="167" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="190">
-        <v>15</v>
-      </c>
-      <c r="C4" s="193">
-        <v>20</v>
-      </c>
-      <c r="D4" s="161">
-        <v>-35</v>
-      </c>
-      <c r="E4" s="162">
-        <v>-30.1</v>
-      </c>
-      <c r="F4" s="164">
-        <v>-25.4</v>
-      </c>
-      <c r="G4" s="161">
-        <v>-38.200000000000003</v>
-      </c>
-      <c r="H4" s="162">
-        <v>-42</v>
-      </c>
-      <c r="I4" s="162">
-        <v>-44.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="167" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" s="190">
+      <c r="E51" s="160">
+        <v>-26.7</v>
+      </c>
+      <c r="F51" s="161">
+        <v>-20.6</v>
+      </c>
+      <c r="G51" s="159">
+        <v>-34.4</v>
+      </c>
+      <c r="H51" s="160">
+        <v>-38.4</v>
+      </c>
+      <c r="I51" s="160">
+        <v>-41.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="189" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52" s="170"/>
+      <c r="C52" s="172">
+        <v>2</v>
+      </c>
+      <c r="D52" s="159">
+        <v>-27.4</v>
+      </c>
+      <c r="E52" s="160">
+        <v>-22.5</v>
+      </c>
+      <c r="F52" s="161">
+        <v>-18</v>
+      </c>
+      <c r="G52" s="159">
+        <v>-31.3</v>
+      </c>
+      <c r="H52" s="160">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="I52" s="160">
+        <v>-37.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="189" t="s">
+        <v>217</v>
+      </c>
+      <c r="B53" s="170">
+        <v>2</v>
+      </c>
+      <c r="C53" s="172">
+        <v>10</v>
+      </c>
+      <c r="D53" s="159">
+        <v>-27.8</v>
+      </c>
+      <c r="E53" s="160">
+        <v>-22.7</v>
+      </c>
+      <c r="F53" s="161">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="G53" s="159">
+        <v>-33.9</v>
+      </c>
+      <c r="H53" s="160">
+        <v>-38.5</v>
+      </c>
+      <c r="I53" s="160">
+        <v>-41.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="189" t="s">
+        <v>218</v>
+      </c>
+      <c r="B54" s="170"/>
+      <c r="C54" s="172"/>
+      <c r="D54" s="159">
+        <v>-29</v>
+      </c>
+      <c r="E54" s="160">
+        <v>-24.1</v>
+      </c>
+      <c r="F54" s="161">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="G54" s="159">
+        <v>-28.2</v>
+      </c>
+      <c r="H54" s="160">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="I54" s="160">
+        <v>-38.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="189" t="s">
+        <v>219</v>
+      </c>
+      <c r="B55" s="170"/>
+      <c r="C55" s="172"/>
+      <c r="D55" s="159">
+        <v>-29.8</v>
+      </c>
+      <c r="E55" s="160">
+        <v>-24.8</v>
+      </c>
+      <c r="F55" s="161">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="G55" s="159">
+        <v>-28.2</v>
+      </c>
+      <c r="H55" s="160">
+        <v>-33.1</v>
+      </c>
+      <c r="I55" s="160">
+        <v>-37.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="189" t="s">
+        <v>220</v>
+      </c>
+      <c r="B56" s="170">
+        <v>5</v>
+      </c>
+      <c r="C56" s="172">
         <v>7</v>
       </c>
-      <c r="C5" s="193">
-        <v>4</v>
-      </c>
-      <c r="D5" s="161">
+      <c r="D56" s="159">
+        <v>-30.8</v>
+      </c>
+      <c r="E56" s="160">
+        <v>-25.7</v>
+      </c>
+      <c r="F56" s="161">
+        <v>-21.1</v>
+      </c>
+      <c r="G56" s="159">
         <v>-35.700000000000003</v>
       </c>
-      <c r="E5" s="162">
-        <v>-30</v>
-      </c>
-      <c r="F5" s="164">
-        <v>-24.3</v>
-      </c>
-      <c r="G5" s="161">
-        <v>-30.9</v>
-      </c>
-      <c r="H5" s="162">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="I5" s="162">
-        <v>-41.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="167" t="s">
-        <v>185</v>
-      </c>
-      <c r="B6" s="190">
-        <v>3</v>
-      </c>
-      <c r="C6" s="193">
-        <v>11</v>
-      </c>
-      <c r="D6" s="161">
-        <v>-33.4</v>
-      </c>
-      <c r="E6" s="162">
-        <v>-27.4</v>
-      </c>
-      <c r="F6" s="164">
-        <v>-22</v>
-      </c>
-      <c r="G6" s="161">
-        <v>-36.4</v>
-      </c>
-      <c r="H6" s="162">
-        <v>-38.9</v>
-      </c>
-      <c r="I6" s="162">
-        <v>-45.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="167" t="s">
-        <v>186</v>
-      </c>
-      <c r="B7" s="190">
-        <v>21</v>
-      </c>
-      <c r="C7" s="193">
-        <v>25</v>
-      </c>
-      <c r="D7" s="161">
-        <v>-36.200000000000003</v>
-      </c>
-      <c r="E7" s="162">
-        <v>-30.3</v>
-      </c>
-      <c r="F7" s="164">
-        <v>-25.5</v>
-      </c>
-      <c r="G7" s="161">
-        <v>-37.1</v>
-      </c>
-      <c r="H7" s="162">
-        <v>-41.7</v>
-      </c>
-      <c r="I7" s="162">
-        <v>-46.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="167" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="190">
-        <v>1</v>
-      </c>
-      <c r="C8" s="193">
-        <v>2</v>
-      </c>
-      <c r="D8" s="161">
-        <v>-33.6</v>
-      </c>
-      <c r="E8" s="162">
-        <v>-27.9</v>
-      </c>
-      <c r="F8" s="164">
-        <v>-22.4</v>
-      </c>
-      <c r="G8" s="161">
-        <v>-32</v>
-      </c>
-      <c r="H8" s="162">
-        <v>-34.9</v>
-      </c>
-      <c r="I8" s="162">
-        <v>-40.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="167" t="s">
-        <v>188</v>
-      </c>
-      <c r="B9" s="190">
-        <v>13</v>
-      </c>
-      <c r="C9" s="193">
-        <v>17</v>
-      </c>
-      <c r="D9" s="161">
-        <v>-34.1</v>
-      </c>
-      <c r="E9" s="162">
-        <v>-28.8</v>
-      </c>
-      <c r="F9" s="164">
-        <v>-24.1</v>
-      </c>
-      <c r="G9" s="161">
-        <v>-40</v>
-      </c>
-      <c r="H9" s="162">
-        <v>-43.3</v>
-      </c>
-      <c r="I9" s="162">
-        <v>-46.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="167" t="s">
-        <v>189</v>
-      </c>
-      <c r="B10" s="190">
-        <v>8</v>
-      </c>
-      <c r="C10" s="193">
-        <v>11</v>
-      </c>
-      <c r="D10" s="161">
-        <v>-33</v>
-      </c>
-      <c r="E10" s="162">
-        <v>-27.4</v>
-      </c>
-      <c r="F10" s="164">
-        <v>-22.4</v>
-      </c>
-      <c r="G10" s="161">
-        <v>-34.9</v>
-      </c>
-      <c r="H10" s="162">
-        <v>-40.200000000000003</v>
-      </c>
-      <c r="I10" s="162">
-        <v>-48.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="167" t="s">
-        <v>190</v>
-      </c>
-      <c r="B11" s="190">
-        <v>9</v>
-      </c>
-      <c r="C11" s="193">
-        <v>23</v>
-      </c>
-      <c r="D11" s="161">
-        <v>-35</v>
-      </c>
-      <c r="E11" s="162">
-        <v>-30</v>
-      </c>
-      <c r="F11" s="164">
-        <v>-25.1</v>
-      </c>
-      <c r="G11" s="161">
-        <v>-41.4</v>
-      </c>
-      <c r="H11" s="162">
-        <v>-43.7</v>
-      </c>
-      <c r="I11" s="162">
-        <v>-47.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="167" t="s">
-        <v>191</v>
-      </c>
-      <c r="B12" s="190">
-        <v>16</v>
-      </c>
-      <c r="C12" s="193">
-        <v>31</v>
-      </c>
-      <c r="D12" s="161">
-        <v>-34.9</v>
-      </c>
-      <c r="E12" s="162">
-        <v>-30.2</v>
-      </c>
-      <c r="F12" s="164">
-        <v>-26.2</v>
-      </c>
-      <c r="G12" s="161">
-        <v>-38.200000000000003</v>
-      </c>
-      <c r="H12" s="162">
-        <v>-42.2</v>
-      </c>
-      <c r="I12" s="162">
-        <v>-44.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="167" t="s">
-        <v>192</v>
-      </c>
-      <c r="B13" s="190">
-        <v>6</v>
-      </c>
-      <c r="C13" s="193">
-        <v>15</v>
-      </c>
-      <c r="D13" s="161">
-        <v>-33.299999999999997</v>
-      </c>
-      <c r="E13" s="162">
-        <v>-28.1</v>
-      </c>
-      <c r="F13" s="164">
-        <v>-24</v>
-      </c>
-      <c r="G13" s="161">
-        <v>-34.4</v>
-      </c>
-      <c r="H13" s="162">
-        <v>-36.799999999999997</v>
-      </c>
-      <c r="I13" s="162">
-        <v>-43.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="167" t="s">
-        <v>193</v>
-      </c>
-      <c r="B14" s="190">
-        <v>14</v>
-      </c>
-      <c r="C14" s="193">
-        <v>25</v>
-      </c>
-      <c r="D14" s="161">
-        <v>-34.799999999999997</v>
-      </c>
-      <c r="E14" s="162">
+      <c r="H56" s="160">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="I56" s="160">
+        <v>-42.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="189" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57" s="170"/>
+      <c r="C57" s="172"/>
+      <c r="D57" s="159">
+        <v>-27.1</v>
+      </c>
+      <c r="E57" s="160">
+        <v>-22.3</v>
+      </c>
+      <c r="F57" s="161">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="G57" s="159">
         <v>-29.3</v>
       </c>
-      <c r="F14" s="164">
-        <v>-24.9</v>
-      </c>
-      <c r="G14" s="161">
-        <v>-40</v>
-      </c>
-      <c r="H14" s="162">
-        <v>-41.6</v>
-      </c>
-      <c r="I14" s="162">
-        <v>-46.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="167" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="190">
-        <v>26</v>
-      </c>
-      <c r="C15" s="193">
-        <v>20</v>
-      </c>
-      <c r="D15" s="161">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="E15" s="162">
-        <v>-30.6</v>
-      </c>
-      <c r="F15" s="164">
-        <v>-25.2</v>
-      </c>
-      <c r="G15" s="161">
-        <v>-37.6</v>
-      </c>
-      <c r="H15" s="162">
-        <v>-41.7</v>
-      </c>
-      <c r="I15" s="162">
-        <v>-49.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="167" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="190">
-        <v>7</v>
-      </c>
-      <c r="C16" s="193">
-        <v>10</v>
-      </c>
-      <c r="D16" s="161">
-        <v>-31.8</v>
-      </c>
-      <c r="E16" s="162">
-        <v>-26.4</v>
-      </c>
-      <c r="F16" s="164">
-        <v>-21.3</v>
-      </c>
-      <c r="G16" s="161">
-        <v>-38.200000000000003</v>
-      </c>
-      <c r="H16" s="162">
-        <v>-40.200000000000003</v>
-      </c>
-      <c r="I16" s="162">
-        <v>-44.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="167" t="s">
-        <v>196</v>
-      </c>
-      <c r="B17" s="190">
-        <v>7</v>
-      </c>
-      <c r="C17" s="193">
-        <v>14</v>
-      </c>
-      <c r="D17" s="161">
-        <v>-33.5</v>
-      </c>
-      <c r="E17" s="162">
-        <v>-28.4</v>
-      </c>
-      <c r="F17" s="164">
-        <v>-23.5</v>
-      </c>
-      <c r="G17" s="161">
-        <v>-37.6</v>
-      </c>
-      <c r="H17" s="162">
-        <v>-41.2</v>
-      </c>
-      <c r="I17" s="162">
-        <v>-44.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="167" t="s">
-        <v>197</v>
-      </c>
-      <c r="B18" s="190">
-        <v>9</v>
-      </c>
-      <c r="C18" s="193">
-        <v>16</v>
-      </c>
-      <c r="D18" s="161">
-        <v>-32.299999999999997</v>
-      </c>
-      <c r="E18" s="162">
-        <v>-27</v>
-      </c>
-      <c r="F18" s="164">
-        <v>-22.4</v>
-      </c>
-      <c r="G18" s="161">
-        <v>-34.6</v>
-      </c>
-      <c r="H18" s="162">
-        <v>-38.4</v>
-      </c>
-      <c r="I18" s="162">
-        <v>-41.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="167" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" s="190">
-        <v>25</v>
-      </c>
-      <c r="C19" s="193">
-        <v>35</v>
-      </c>
-      <c r="D19" s="161">
-        <v>-36.4</v>
-      </c>
-      <c r="E19" s="162">
-        <v>-31.2</v>
-      </c>
-      <c r="F19" s="164">
-        <v>-26.8</v>
-      </c>
-      <c r="G19" s="161">
-        <v>-40.6</v>
-      </c>
-      <c r="H19" s="162">
-        <v>-42.9</v>
-      </c>
-      <c r="I19" s="162">
-        <v>-48.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="167" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" s="190">
-        <v>18</v>
-      </c>
-      <c r="C20" s="193">
-        <v>25</v>
-      </c>
-      <c r="D20" s="161">
-        <v>-34.9</v>
-      </c>
-      <c r="E20" s="162">
-        <v>-29.9</v>
-      </c>
-      <c r="F20" s="164">
-        <v>-25.6</v>
-      </c>
-      <c r="G20" s="161">
-        <v>-40.200000000000003</v>
-      </c>
-      <c r="H20" s="162">
-        <v>-42.7</v>
-      </c>
-      <c r="I20" s="162">
-        <v>-46.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="167" t="s">
-        <v>200</v>
-      </c>
-      <c r="B21" s="190">
-        <v>4</v>
-      </c>
-      <c r="C21" s="193">
-        <v>12</v>
-      </c>
-      <c r="D21" s="161">
-        <v>-32.6</v>
-      </c>
-      <c r="E21" s="162">
-        <v>-27.5</v>
-      </c>
-      <c r="F21" s="164">
-        <v>-23.2</v>
-      </c>
-      <c r="G21" s="161">
-        <v>-38.6</v>
-      </c>
-      <c r="H21" s="162">
-        <v>-40.700000000000003</v>
-      </c>
-      <c r="I21" s="162">
-        <v>-44.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="167" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" s="190">
-        <v>17</v>
-      </c>
-      <c r="C22" s="193">
-        <v>22</v>
-      </c>
-      <c r="D22" s="161">
-        <v>-34.200000000000003</v>
-      </c>
-      <c r="E22" s="162">
-        <v>-29.5</v>
-      </c>
-      <c r="F22" s="164">
-        <v>-24.9</v>
-      </c>
-      <c r="G22" s="161">
-        <v>-39.4</v>
-      </c>
-      <c r="H22" s="162">
-        <v>-41.7</v>
-      </c>
-      <c r="I22" s="162">
-        <v>-45.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="167" t="s">
-        <v>202</v>
-      </c>
-      <c r="B23" s="190">
-        <v>2</v>
-      </c>
-      <c r="C23" s="193">
-        <v>9</v>
-      </c>
-      <c r="D23" s="161">
-        <v>-32.4</v>
-      </c>
-      <c r="E23" s="162">
-        <v>-27</v>
-      </c>
-      <c r="F23" s="164">
-        <v>-22</v>
-      </c>
-      <c r="G23" s="161">
-        <v>-33.700000000000003</v>
-      </c>
-      <c r="H23" s="162">
-        <v>-37.6</v>
-      </c>
-      <c r="I23" s="162">
-        <v>-46.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="167" t="s">
-        <v>203</v>
-      </c>
-      <c r="B24" s="190">
-        <v>35</v>
-      </c>
-      <c r="C24" s="193">
-        <v>37</v>
-      </c>
-      <c r="D24" s="161">
-        <v>-37.1</v>
-      </c>
-      <c r="E24" s="162">
-        <v>-32.4</v>
-      </c>
-      <c r="F24" s="164">
-        <v>-27.8</v>
-      </c>
-      <c r="G24" s="161">
-        <v>-39.5</v>
-      </c>
-      <c r="H24" s="162">
-        <v>-42.9</v>
-      </c>
-      <c r="I24" s="162">
-        <v>-47.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="167" t="s">
-        <v>204</v>
-      </c>
-      <c r="B25" s="190">
-        <v>4</v>
-      </c>
-      <c r="C25" s="193">
-        <v>16</v>
-      </c>
-      <c r="D25" s="161">
-        <v>-34</v>
-      </c>
-      <c r="E25" s="162">
-        <v>-29</v>
-      </c>
-      <c r="F25" s="164">
-        <v>-24.2</v>
-      </c>
-      <c r="G25" s="161">
-        <v>-35</v>
-      </c>
-      <c r="H25" s="162">
-        <v>-37.799999999999997</v>
-      </c>
-      <c r="I25" s="162">
-        <v>-42.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="167" t="s">
-        <v>205</v>
-      </c>
-      <c r="B26" s="190">
-        <v>0</v>
-      </c>
-      <c r="C26" s="193">
-        <v>0</v>
-      </c>
-      <c r="D26" s="161">
-        <v>-30.1</v>
-      </c>
-      <c r="E26" s="162">
-        <v>-24.6</v>
-      </c>
-      <c r="F26" s="164">
-        <v>-18.899999999999999</v>
-      </c>
-      <c r="G26" s="161">
-        <v>-28.1</v>
-      </c>
-      <c r="H26" s="162">
-        <v>-32.5</v>
-      </c>
-      <c r="I26" s="162">
-        <v>-38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="167" t="s">
-        <v>206</v>
-      </c>
-      <c r="B27" s="190">
-        <v>12</v>
-      </c>
-      <c r="C27" s="193">
-        <v>22</v>
-      </c>
-      <c r="D27" s="161">
-        <v>-34.9</v>
-      </c>
-      <c r="E27" s="162">
-        <v>-29.9</v>
-      </c>
-      <c r="F27" s="164">
-        <v>-24.8</v>
-      </c>
-      <c r="G27" s="161">
-        <v>-37</v>
-      </c>
-      <c r="H27" s="162">
-        <v>-40.700000000000003</v>
-      </c>
-      <c r="I27" s="162">
-        <v>-44.7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="167" t="s">
-        <v>207</v>
-      </c>
-      <c r="B28" s="190">
-        <v>10</v>
-      </c>
-      <c r="C28" s="193">
-        <v>25</v>
-      </c>
-      <c r="D28" s="161">
-        <v>-34.799999999999997</v>
-      </c>
-      <c r="E28" s="162">
-        <v>-29.3</v>
-      </c>
-      <c r="F28" s="164">
-        <v>-24.7</v>
-      </c>
-      <c r="G28" s="161">
+      <c r="H57" s="160">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="I57" s="160">
         <v>-35.799999999999997</v>
-      </c>
-      <c r="H28" s="162">
-        <v>-38.6</v>
-      </c>
-      <c r="I28" s="162">
-        <v>-44.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="167" t="s">
-        <v>208</v>
-      </c>
-      <c r="B29" s="190">
-        <v>38</v>
-      </c>
-      <c r="C29" s="193">
-        <v>47</v>
-      </c>
-      <c r="D29" s="161">
-        <v>-37.700000000000003</v>
-      </c>
-      <c r="E29" s="162">
-        <v>-32.799999999999997</v>
-      </c>
-      <c r="F29" s="164">
-        <v>-28.4</v>
-      </c>
-      <c r="G29" s="161">
-        <v>-39.5</v>
-      </c>
-      <c r="H29" s="162">
-        <v>-42.5</v>
-      </c>
-      <c r="I29" s="162">
-        <v>-46.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="167" t="s">
-        <v>209</v>
-      </c>
-      <c r="B30" s="190">
-        <v>20</v>
-      </c>
-      <c r="C30" s="193">
-        <v>34</v>
-      </c>
-      <c r="D30" s="161">
-        <v>-35</v>
-      </c>
-      <c r="E30" s="162">
-        <v>-30.1</v>
-      </c>
-      <c r="F30" s="164">
-        <v>-25.8</v>
-      </c>
-      <c r="G30" s="161">
-        <v>-39.6</v>
-      </c>
-      <c r="H30" s="162">
-        <v>-41.3</v>
-      </c>
-      <c r="I30" s="162">
-        <v>-43.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="167" t="s">
-        <v>210</v>
-      </c>
-      <c r="B31" s="190">
-        <v>22</v>
-      </c>
-      <c r="C31" s="193">
-        <v>34</v>
-      </c>
-      <c r="D31" s="161">
-        <v>-37.1</v>
-      </c>
-      <c r="E31" s="162">
-        <v>-32.1</v>
-      </c>
-      <c r="F31" s="164">
-        <v>-27.4</v>
-      </c>
-      <c r="G31" s="161">
-        <v>-37.6</v>
-      </c>
-      <c r="H31" s="162">
-        <v>-42.9</v>
-      </c>
-      <c r="I31" s="162">
-        <v>-47.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="167" t="s">
-        <v>211</v>
-      </c>
-      <c r="B32" s="190">
-        <v>25</v>
-      </c>
-      <c r="C32" s="193">
-        <v>19</v>
-      </c>
-      <c r="D32" s="161">
-        <v>-37.299999999999997</v>
-      </c>
-      <c r="E32" s="162">
-        <v>-32</v>
-      </c>
-      <c r="F32" s="164">
-        <v>-25.9</v>
-      </c>
-      <c r="G32" s="161">
-        <v>-39.1</v>
-      </c>
-      <c r="H32" s="162">
-        <v>-43.2</v>
-      </c>
-      <c r="I32" s="162">
-        <v>-48.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="167" t="s">
-        <v>212</v>
-      </c>
-      <c r="B33" s="190">
-        <v>16</v>
-      </c>
-      <c r="C33" s="193">
-        <v>9</v>
-      </c>
-      <c r="D33" s="161">
-        <v>-34.299999999999997</v>
-      </c>
-      <c r="E33" s="162">
-        <v>-28.8</v>
-      </c>
-      <c r="F33" s="164">
-        <v>-22.9</v>
-      </c>
-      <c r="G33" s="161">
-        <v>-34.9</v>
-      </c>
-      <c r="H33" s="162">
-        <v>-39.700000000000003</v>
-      </c>
-      <c r="I33" s="162">
-        <v>-43.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="167" t="s">
-        <v>213</v>
-      </c>
-      <c r="B34" s="190">
-        <v>9</v>
-      </c>
-      <c r="C34" s="193">
-        <v>6</v>
-      </c>
-      <c r="D34" s="161">
-        <v>-35.6</v>
-      </c>
-      <c r="E34" s="162">
-        <v>-30.1</v>
-      </c>
-      <c r="F34" s="164">
-        <v>-23.4</v>
-      </c>
-      <c r="G34" s="161">
-        <v>-35.5</v>
-      </c>
-      <c r="H34" s="162">
-        <v>-42.8</v>
-      </c>
-      <c r="I34" s="162">
-        <v>-46.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="167" t="s">
-        <v>214</v>
-      </c>
-      <c r="B35" s="190">
-        <v>25</v>
-      </c>
-      <c r="C35" s="193">
-        <v>22</v>
-      </c>
-      <c r="D35" s="161">
-        <v>-34.6</v>
-      </c>
-      <c r="E35" s="162">
-        <v>-29.5</v>
-      </c>
-      <c r="F35" s="164">
-        <v>-23.8</v>
-      </c>
-      <c r="G35" s="161">
-        <v>-35.299999999999997</v>
-      </c>
-      <c r="H35" s="162">
-        <v>-41.1</v>
-      </c>
-      <c r="I35" s="162">
-        <v>-45.3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="167" t="s">
-        <v>215</v>
-      </c>
-      <c r="B36" s="190">
-        <v>14</v>
-      </c>
-      <c r="C36" s="193">
-        <v>13</v>
-      </c>
-      <c r="D36" s="161">
-        <v>-35</v>
-      </c>
-      <c r="E36" s="162">
-        <v>-29.9</v>
-      </c>
-      <c r="F36" s="164">
-        <v>-24.1</v>
-      </c>
-      <c r="G36" s="161">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="H36" s="162">
-        <v>-41</v>
-      </c>
-      <c r="I36" s="162">
-        <v>-44.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="167" t="s">
-        <v>216</v>
-      </c>
-      <c r="B37" s="190">
-        <v>10</v>
-      </c>
-      <c r="C37" s="193">
-        <v>13</v>
-      </c>
-      <c r="D37" s="161">
-        <v>-33</v>
-      </c>
-      <c r="E37" s="162">
-        <v>-27.5</v>
-      </c>
-      <c r="F37" s="164">
-        <v>-22.2</v>
-      </c>
-      <c r="G37" s="161">
-        <v>-35.5</v>
-      </c>
-      <c r="H37" s="162">
-        <v>-40.799999999999997</v>
-      </c>
-      <c r="I37" s="162">
-        <v>-45.6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="167" t="s">
-        <v>217</v>
-      </c>
-      <c r="B38" s="190">
-        <v>26</v>
-      </c>
-      <c r="C38" s="193">
-        <v>22</v>
-      </c>
-      <c r="D38" s="161">
-        <v>-36.200000000000003</v>
-      </c>
-      <c r="E38" s="162">
-        <v>-31.3</v>
-      </c>
-      <c r="F38" s="164">
-        <v>-25.6</v>
-      </c>
-      <c r="G38" s="161">
-        <v>-37.299999999999997</v>
-      </c>
-      <c r="H38" s="162">
-        <v>-41.4</v>
-      </c>
-      <c r="I38" s="162">
-        <v>-44.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="167" t="s">
-        <v>218</v>
-      </c>
-      <c r="B39" s="190">
-        <v>3</v>
-      </c>
-      <c r="C39" s="193">
-        <v>7</v>
-      </c>
-      <c r="D39" s="161">
-        <v>-32.299999999999997</v>
-      </c>
-      <c r="E39" s="162">
-        <v>-27.4</v>
-      </c>
-      <c r="F39" s="164">
-        <v>-21.6</v>
-      </c>
-      <c r="G39" s="161">
-        <v>-34.1</v>
-      </c>
-      <c r="H39" s="162">
-        <v>-39.200000000000003</v>
-      </c>
-      <c r="I39" s="162">
-        <v>-43.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="167" t="s">
-        <v>219</v>
-      </c>
-      <c r="B40" s="190">
-        <v>13</v>
-      </c>
-      <c r="C40" s="193">
-        <v>13</v>
-      </c>
-      <c r="D40" s="161">
-        <v>-34.1</v>
-      </c>
-      <c r="E40" s="162">
-        <v>-28.3</v>
-      </c>
-      <c r="F40" s="164">
-        <v>-22.8</v>
-      </c>
-      <c r="G40" s="161">
-        <v>-38.5</v>
-      </c>
-      <c r="H40" s="162">
-        <v>-42.2</v>
-      </c>
-      <c r="I40" s="162">
-        <v>-46.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="167" t="s">
-        <v>220</v>
-      </c>
-      <c r="B41" s="190">
-        <v>6</v>
-      </c>
-      <c r="C41" s="193">
-        <v>7</v>
-      </c>
-      <c r="D41" s="161">
-        <v>-33.6</v>
-      </c>
-      <c r="E41" s="162">
-        <v>-28.5</v>
-      </c>
-      <c r="F41" s="164">
-        <v>-22.3</v>
-      </c>
-      <c r="G41" s="161">
-        <v>-32.200000000000003</v>
-      </c>
-      <c r="H41" s="162">
-        <v>-37</v>
-      </c>
-      <c r="I41" s="162">
-        <v>-41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="167" t="s">
-        <v>221</v>
-      </c>
-      <c r="B42" s="190">
-        <v>21</v>
-      </c>
-      <c r="C42" s="193">
-        <v>23</v>
-      </c>
-      <c r="D42" s="161">
-        <v>-35.299999999999997</v>
-      </c>
-      <c r="E42" s="162">
-        <v>-30</v>
-      </c>
-      <c r="F42" s="164">
-        <v>-24.1</v>
-      </c>
-      <c r="G42" s="161">
-        <v>-36.4</v>
-      </c>
-      <c r="H42" s="162">
-        <v>-40.299999999999997</v>
-      </c>
-      <c r="I42" s="162">
-        <v>-44.9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="167" t="s">
-        <v>222</v>
-      </c>
-      <c r="B43" s="190">
-        <v>24</v>
-      </c>
-      <c r="C43" s="193">
-        <v>25</v>
-      </c>
-      <c r="D43" s="161">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="E43" s="162">
-        <v>-30.9</v>
-      </c>
-      <c r="F43" s="164">
-        <v>-24.6</v>
-      </c>
-      <c r="G43" s="161">
-        <v>-38.6</v>
-      </c>
-      <c r="H43" s="162">
-        <v>-43.4</v>
-      </c>
-      <c r="I43" s="162">
-        <v>-46.3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="167" t="s">
-        <v>223</v>
-      </c>
-      <c r="B44" s="190">
-        <v>1</v>
-      </c>
-      <c r="C44" s="193">
-        <v>4</v>
-      </c>
-      <c r="D44" s="161">
-        <v>-31.8</v>
-      </c>
-      <c r="E44" s="162">
-        <v>-26.5</v>
-      </c>
-      <c r="F44" s="164">
-        <v>-20.6</v>
-      </c>
-      <c r="G44" s="161">
-        <v>-31.3</v>
-      </c>
-      <c r="H44" s="162">
-        <v>-35.4</v>
-      </c>
-      <c r="I44" s="162">
-        <v>-40.700000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -7850,42 +8091,42 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:I44">
+  <conditionalFormatting sqref="A3:I57">
     <cfRule type="expression" dxfId="16" priority="17">
       <formula>IF(MOD(ROW(),2)=0,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B44">
-    <cfRule type="top10" dxfId="15" priority="1" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="14" priority="2" rank="1"/>
+  <conditionalFormatting sqref="B3:B57">
+    <cfRule type="top10" dxfId="15" priority="118" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="119" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C44">
-    <cfRule type="top10" dxfId="13" priority="3" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="12" priority="4" rank="1"/>
+  <conditionalFormatting sqref="C3:C57">
+    <cfRule type="top10" dxfId="13" priority="122" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="123" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D44">
-    <cfRule type="top10" dxfId="11" priority="5" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="10" priority="6" rank="1"/>
+  <conditionalFormatting sqref="D3:D57">
+    <cfRule type="top10" dxfId="11" priority="126" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="127" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E44">
-    <cfRule type="top10" dxfId="9" priority="7" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="8" priority="8" rank="1"/>
+  <conditionalFormatting sqref="E3:E57">
+    <cfRule type="top10" dxfId="9" priority="130" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="131" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F44">
-    <cfRule type="top10" dxfId="7" priority="9" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="6" priority="10" rank="1"/>
+  <conditionalFormatting sqref="F3:F57">
+    <cfRule type="top10" dxfId="7" priority="134" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="135" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G44">
-    <cfRule type="top10" dxfId="5" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="4" priority="12" rank="1"/>
+  <conditionalFormatting sqref="G3:G57">
+    <cfRule type="top10" dxfId="5" priority="138" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="139" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H44">
-    <cfRule type="top10" dxfId="3" priority="13" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="2" priority="14" rank="1"/>
+  <conditionalFormatting sqref="H3:H57">
+    <cfRule type="top10" dxfId="3" priority="142" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="143" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I44">
-    <cfRule type="top10" dxfId="1" priority="15" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="0" priority="16" rank="1"/>
+  <conditionalFormatting sqref="I3:I57">
+    <cfRule type="top10" dxfId="1" priority="146" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="147" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/气象/北方强冷站：统计信息.xlsx
+++ b/气象/北方强冷站：统计信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2A46DD-5072-4ED7-BB93-A5D8FAA31652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD81F62-7100-459A-8F10-CDE897C57FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{8D56AB80-2E26-4029-929F-AED17FA8BDE0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="222">
   <si>
     <t>漠河</t>
   </si>
@@ -821,93 +821,6 @@
     <t>1993/1994</t>
   </si>
   <si>
-    <t>1994/1995</t>
-  </si>
-  <si>
-    <t>1995/1996</t>
-  </si>
-  <si>
-    <t>1996/1997</t>
-  </si>
-  <si>
-    <t>1998/1999</t>
-  </si>
-  <si>
-    <t>1999/2000</t>
-  </si>
-  <si>
-    <t>2001/2002</t>
-  </si>
-  <si>
-    <t>2002/2003</t>
-  </si>
-  <si>
-    <t>2003/2004</t>
-  </si>
-  <si>
-    <t>2004/2005</t>
-  </si>
-  <si>
-    <t>2005/2006</t>
-  </si>
-  <si>
-    <t>2006/2007</t>
-  </si>
-  <si>
-    <t>2007/2008</t>
-  </si>
-  <si>
-    <t>2008/2009</t>
-  </si>
-  <si>
-    <t>2009/2010</t>
-  </si>
-  <si>
-    <t>2010/2011</t>
-  </si>
-  <si>
-    <t>2011/2012</t>
-  </si>
-  <si>
-    <t>2012/2013</t>
-  </si>
-  <si>
-    <t>2013/2014</t>
-  </si>
-  <si>
-    <t>2014/2015</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>2016/2017</t>
-  </si>
-  <si>
-    <t>2017/2018</t>
-  </si>
-  <si>
-    <t>2018/2019</t>
-  </si>
-  <si>
-    <t>2019/2020</t>
-  </si>
-  <si>
-    <t>2020/2021</t>
-  </si>
-  <si>
-    <t>2021/2022</t>
-  </si>
-  <si>
-    <t>2022/2023</t>
-  </si>
-  <si>
-    <t>2023/2024</t>
-  </si>
-  <si>
-    <t>2024/2025</t>
-  </si>
-  <si>
     <t>最低气温</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -953,13 +866,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>克孜勒冬季统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1959/1960</t>
-  </si>
-  <si>
     <t>1968/1969</t>
   </si>
   <si>
@@ -996,10 +902,31 @@
     <t>1980/1981</t>
   </si>
   <si>
-    <t>1981/1982</t>
-  </si>
-  <si>
     <t>1982/1983</t>
+  </si>
+  <si>
+    <t>低温低于
+-50天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1951/1952</t>
+  </si>
+  <si>
+    <t>1952/1953</t>
+  </si>
+  <si>
+    <t>1955/1956</t>
+  </si>
+  <si>
+    <t>1956/1957</t>
+  </si>
+  <si>
+    <t>1957/1958</t>
+  </si>
+  <si>
+    <t>东亚低温王：谢列姆贾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1432,7 +1359,7 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color rgb="FF03071E"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1441,7 +1368,7 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="1" tint="0.499984740745262"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1594,7 +1521,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -2168,6 +2095,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2685,9 +2623,6 @@
     <xf numFmtId="177" fontId="46" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
@@ -2744,6 +2679,9 @@
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2752,7 +2690,27 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3183,28 +3141,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="100.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="175" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="174" t="s">
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="173" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="175"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="174"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="50" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="59" t="s">
@@ -3213,11 +3171,11 @@
       <c r="B2" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="179"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="178"/>
       <c r="F2" s="58" t="s">
         <v>27</v>
       </c>
@@ -4753,26 +4711,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="82.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="180" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="182"/>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="182"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="181"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
@@ -4781,14 +4739,14 @@
       <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="C2" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="180"/>
+      <c r="D2" s="179"/>
       <c r="E2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="183"/>
+      <c r="F2" s="182"/>
       <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
@@ -4845,7 +4803,7 @@
       <c r="E3" s="11">
         <v>-52.6</v>
       </c>
-      <c r="F3" s="184"/>
+      <c r="F3" s="183"/>
       <c r="G3" s="12">
         <v>-52.6</v>
       </c>
@@ -4902,7 +4860,7 @@
       <c r="E4" s="19">
         <v>-51.3</v>
       </c>
-      <c r="F4" s="184"/>
+      <c r="F4" s="183"/>
       <c r="G4" s="16">
         <v>-51.3</v>
       </c>
@@ -4959,7 +4917,7 @@
       <c r="E5" s="22">
         <v>-53.3</v>
       </c>
-      <c r="F5" s="184"/>
+      <c r="F5" s="183"/>
       <c r="G5" s="23">
         <v>-53.3</v>
       </c>
@@ -5016,7 +4974,7 @@
       <c r="E6" s="24">
         <v>-50.4</v>
       </c>
-      <c r="F6" s="184"/>
+      <c r="F6" s="183"/>
       <c r="G6" s="13">
         <v>-50.4</v>
       </c>
@@ -5073,7 +5031,7 @@
       <c r="E7" s="19">
         <v>-51.3</v>
       </c>
-      <c r="F7" s="184"/>
+      <c r="F7" s="183"/>
       <c r="G7" s="13">
         <v>-50.3</v>
       </c>
@@ -5130,7 +5088,7 @@
       <c r="E8" s="25">
         <v>-50.7</v>
       </c>
-      <c r="F8" s="184"/>
+      <c r="F8" s="183"/>
       <c r="G8" s="15">
         <v>-50.7</v>
       </c>
@@ -5187,7 +5145,7 @@
       <c r="E9" s="24">
         <v>-50.4</v>
       </c>
-      <c r="F9" s="184"/>
+      <c r="F9" s="183"/>
       <c r="G9" s="13">
         <v>-50.4</v>
       </c>
@@ -5244,7 +5202,7 @@
       <c r="E10" s="26">
         <v>-51.9</v>
       </c>
-      <c r="F10" s="184"/>
+      <c r="F10" s="183"/>
       <c r="G10" s="20">
         <v>-51.9</v>
       </c>
@@ -5301,7 +5259,7 @@
       <c r="E11" s="25">
         <v>-50.6</v>
       </c>
-      <c r="F11" s="184"/>
+      <c r="F11" s="183"/>
       <c r="G11" s="15">
         <v>-50.6</v>
       </c>
@@ -5358,7 +5316,7 @@
       <c r="E12" s="28">
         <v>-52.9</v>
       </c>
-      <c r="F12" s="184"/>
+      <c r="F12" s="183"/>
       <c r="G12" s="21">
         <v>-52.9</v>
       </c>
@@ -5415,7 +5373,7 @@
       <c r="E13" s="29">
         <v>-54.7</v>
       </c>
-      <c r="F13" s="184"/>
+      <c r="F13" s="183"/>
       <c r="G13" s="23">
         <v>-53.2</v>
       </c>
@@ -5472,7 +5430,7 @@
       <c r="E14" s="19">
         <v>-51.2</v>
       </c>
-      <c r="F14" s="184"/>
+      <c r="F14" s="183"/>
       <c r="G14" s="16">
         <v>-51.2</v>
       </c>
@@ -5529,7 +5487,7 @@
       <c r="E15" s="30">
         <v>-55.3</v>
       </c>
-      <c r="F15" s="185"/>
+      <c r="F15" s="184"/>
       <c r="G15" s="14">
         <v>-55.3</v>
       </c>
@@ -5611,25 +5569,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="180" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="180" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="187"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
+      <c r="P1" s="180"/>
+      <c r="Q1" s="186"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="100.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="103" t="s">
@@ -5638,10 +5596,10 @@
       <c r="B2" s="103" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="186"/>
+      <c r="D2" s="185"/>
       <c r="E2" s="108" t="s">
         <v>167</v>
       </c>
@@ -6566,1567 +6524,1214 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1316EC71-6346-4265-A9F0-F5CFD7F026FD}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.59765625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.59765625" style="171" customWidth="1"/>
-    <col min="4" max="7" width="9.06640625" style="158"/>
-    <col min="8" max="8" width="9.59765625" style="158" customWidth="1"/>
-    <col min="9" max="9" width="9.06640625" style="158"/>
+    <col min="2" max="4" width="12.59765625" style="170" customWidth="1"/>
+    <col min="5" max="8" width="9.06640625" style="158"/>
+    <col min="9" max="9" width="9.59765625" style="158" customWidth="1"/>
+    <col min="10" max="10" width="9.06640625" style="158"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="173" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="188" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-    </row>
-    <row r="2" spans="1:9" ht="64.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="172" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="187" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+    </row>
+    <row r="2" spans="1:10" ht="64.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="162" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="B2" s="163" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="164" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="167" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="168" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" s="169" t="s">
-        <v>228</v>
-      </c>
-      <c r="G2" s="165" t="s">
-        <v>223</v>
-      </c>
-      <c r="H2" s="166" t="s">
-        <v>224</v>
+        <v>215</v>
+      </c>
+      <c r="C2" s="189" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="164" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="167" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="168" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="169" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="165" t="s">
+        <v>194</v>
       </c>
       <c r="I2" s="166" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+      <c r="J2" s="166" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="190" t="s">
-        <v>232</v>
-      </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="159">
-        <v>-41.1</v>
-      </c>
-      <c r="H3" s="160">
+        <v>216</v>
+      </c>
+      <c r="B3" s="171">
+        <v>6</v>
+      </c>
+      <c r="C3" s="171">
+        <v>42</v>
+      </c>
+      <c r="D3" s="171">
+        <v>11</v>
+      </c>
+      <c r="E3" s="159">
+        <v>-40.9</v>
+      </c>
+      <c r="F3" s="160">
+        <v>-31.2</v>
+      </c>
+      <c r="G3" s="161">
+        <v>-22.8</v>
+      </c>
+      <c r="H3" s="159">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="I3" s="160">
+        <v>-43.8</v>
+      </c>
+      <c r="J3" s="160">
+        <v>-52.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="190" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="171">
+        <v>10</v>
+      </c>
+      <c r="C4" s="171">
+        <v>45</v>
+      </c>
+      <c r="D4" s="171">
+        <v>15</v>
+      </c>
+      <c r="E4" s="159">
+        <v>-42.2</v>
+      </c>
+      <c r="F4" s="160">
+        <v>-33.1</v>
+      </c>
+      <c r="G4" s="161">
+        <v>-23.9</v>
+      </c>
+      <c r="H4" s="159">
+        <v>-42.2</v>
+      </c>
+      <c r="I4" s="160">
+        <v>-46.7</v>
+      </c>
+      <c r="J4" s="160">
+        <v>-57.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="190" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="171">
+        <v>4</v>
+      </c>
+      <c r="C5" s="171">
+        <v>28</v>
+      </c>
+      <c r="D5" s="171">
+        <v>8</v>
+      </c>
+      <c r="E5" s="159"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="159">
+        <v>-33.9</v>
+      </c>
+      <c r="I5" s="160">
+        <v>-45.4</v>
+      </c>
+      <c r="J5" s="160">
+        <v>-52.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="190" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="171"/>
+      <c r="C6" s="171">
+        <v>34</v>
+      </c>
+      <c r="D6" s="171">
+        <v>10</v>
+      </c>
+      <c r="E6" s="159">
+        <v>-39.9</v>
+      </c>
+      <c r="F6" s="160">
+        <v>-30.9</v>
+      </c>
+      <c r="G6" s="161">
+        <v>-21</v>
+      </c>
+      <c r="H6" s="159">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="I6" s="160">
+        <v>-44</v>
+      </c>
+      <c r="J6" s="160">
+        <v>-48.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="190" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="171">
+        <v>6</v>
+      </c>
+      <c r="C7" s="171">
+        <v>37</v>
+      </c>
+      <c r="D7" s="171">
+        <v>7</v>
+      </c>
+      <c r="E7" s="159">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="F7" s="160">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="G7" s="161">
+        <v>-22</v>
+      </c>
+      <c r="H7" s="159">
+        <v>-35</v>
+      </c>
+      <c r="I7" s="160">
+        <v>-45</v>
+      </c>
+      <c r="J7" s="160">
+        <v>-52.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="190" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="171">
+        <v>36</v>
+      </c>
+      <c r="C8" s="171">
+        <v>58</v>
+      </c>
+      <c r="D8" s="171">
+        <v>23</v>
+      </c>
+      <c r="E8" s="159">
+        <v>-49.1</v>
+      </c>
+      <c r="F8" s="160">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="G8" s="161">
+        <v>-27.5</v>
+      </c>
+      <c r="H8" s="159">
+        <v>-36.1</v>
+      </c>
+      <c r="I8" s="160">
+        <v>-49.4</v>
+      </c>
+      <c r="J8" s="160">
+        <v>-56.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="188" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="171">
+        <v>21</v>
+      </c>
+      <c r="C9" s="171">
+        <v>91</v>
+      </c>
+      <c r="D9" s="171">
+        <v>32</v>
+      </c>
+      <c r="E9" s="159">
+        <v>-45.6</v>
+      </c>
+      <c r="F9" s="160">
+        <v>-36.5</v>
+      </c>
+      <c r="G9" s="161">
+        <v>-25.1</v>
+      </c>
+      <c r="H9" s="159">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="I9" s="160">
+        <v>-50.6</v>
+      </c>
+      <c r="J9" s="160">
+        <v>-56.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="188" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="171">
+        <v>13</v>
+      </c>
+      <c r="C10" s="171">
+        <v>73</v>
+      </c>
+      <c r="D10" s="171">
+        <v>16</v>
+      </c>
+      <c r="E10" s="159">
+        <v>-42.3</v>
+      </c>
+      <c r="F10" s="160">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="G10" s="161">
+        <v>-22.3</v>
+      </c>
+      <c r="H10" s="159">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="I10" s="160">
+        <v>-49.8</v>
+      </c>
+      <c r="J10" s="160">
+        <v>-53.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="190" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="171">
+        <v>3</v>
+      </c>
+      <c r="C11" s="171">
+        <v>51</v>
+      </c>
+      <c r="D11" s="171">
+        <v>6</v>
+      </c>
+      <c r="E11" s="159">
+        <v>-43.1</v>
+      </c>
+      <c r="F11" s="160">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="G11" s="161">
+        <v>-21.1</v>
+      </c>
+      <c r="H11" s="159">
+        <v>-40</v>
+      </c>
+      <c r="I11" s="160">
+        <v>-44.7</v>
+      </c>
+      <c r="J11" s="160">
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="188" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="171"/>
+      <c r="C12" s="171">
+        <v>78</v>
+      </c>
+      <c r="D12" s="171">
+        <v>2</v>
+      </c>
+      <c r="E12" s="159">
+        <v>-41.3</v>
+      </c>
+      <c r="F12" s="160">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="G12" s="161">
+        <v>-21.7</v>
+      </c>
+      <c r="H12" s="159">
+        <v>-30</v>
+      </c>
+      <c r="I12" s="160">
+        <v>-43.5</v>
+      </c>
+      <c r="J12" s="160">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="188" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="171"/>
+      <c r="C13" s="171">
+        <v>57</v>
+      </c>
+      <c r="D13" s="171">
+        <v>13</v>
+      </c>
+      <c r="E13" s="159">
+        <v>-41.5</v>
+      </c>
+      <c r="F13" s="160">
+        <v>-32</v>
+      </c>
+      <c r="G13" s="161">
+        <v>-21.3</v>
+      </c>
+      <c r="H13" s="159">
+        <v>-34</v>
+      </c>
+      <c r="I13" s="160">
+        <v>-41.6</v>
+      </c>
+      <c r="J13" s="160">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="190" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="171">
+        <v>2</v>
+      </c>
+      <c r="C14" s="171">
+        <v>52</v>
+      </c>
+      <c r="D14" s="171">
+        <v>4</v>
+      </c>
+      <c r="E14" s="159">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="F14" s="160">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="G14" s="161">
+        <v>-22.3</v>
+      </c>
+      <c r="H14" s="159">
+        <v>-32</v>
+      </c>
+      <c r="I14" s="160">
+        <v>-41.8</v>
+      </c>
+      <c r="J14" s="160">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="188" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="171">
+        <v>6</v>
+      </c>
+      <c r="C15" s="171">
+        <v>79</v>
+      </c>
+      <c r="D15" s="171">
+        <v>17</v>
+      </c>
+      <c r="E15" s="159">
+        <v>-43</v>
+      </c>
+      <c r="F15" s="160">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="G15" s="161">
+        <v>-23.9</v>
+      </c>
+      <c r="H15" s="159">
+        <v>-37</v>
+      </c>
+      <c r="I15" s="160">
+        <v>-45.3</v>
+      </c>
+      <c r="J15" s="160">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="188" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="171">
+        <v>14</v>
+      </c>
+      <c r="C16" s="171">
+        <v>85</v>
+      </c>
+      <c r="D16" s="171">
+        <v>23</v>
+      </c>
+      <c r="E16" s="159">
+        <v>-44.8</v>
+      </c>
+      <c r="F16" s="160">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="G16" s="161">
+        <v>-25.9</v>
+      </c>
+      <c r="H16" s="159">
+        <v>-38</v>
+      </c>
+      <c r="I16" s="160">
+        <v>-43.2</v>
+      </c>
+      <c r="J16" s="160">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="188" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="171">
+        <v>14</v>
+      </c>
+      <c r="C17" s="171">
+        <v>65</v>
+      </c>
+      <c r="D17" s="171">
+        <v>18</v>
+      </c>
+      <c r="E17" s="159">
+        <v>-42</v>
+      </c>
+      <c r="F17" s="160">
+        <v>-32.5</v>
+      </c>
+      <c r="G17" s="161">
+        <v>-22.8</v>
+      </c>
+      <c r="H17" s="159">
+        <v>-36</v>
+      </c>
+      <c r="I17" s="160">
+        <v>-45.3</v>
+      </c>
+      <c r="J17" s="160">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="190" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="171"/>
+      <c r="C18" s="171">
+        <v>36</v>
+      </c>
+      <c r="D18" s="171"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="159">
+        <v>-27</v>
+      </c>
+      <c r="I18" s="160">
+        <v>-39.200000000000003</v>
+      </c>
+      <c r="J18" s="160">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="190" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="171">
+        <v>1</v>
+      </c>
+      <c r="C19" s="171">
+        <v>75</v>
+      </c>
+      <c r="D19" s="171">
+        <v>2</v>
+      </c>
+      <c r="E19" s="159">
+        <v>-41.3</v>
+      </c>
+      <c r="F19" s="160">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="G19" s="161">
+        <v>-20.6</v>
+      </c>
+      <c r="H19" s="159">
+        <v>-30</v>
+      </c>
+      <c r="I19" s="160">
+        <v>-42.1</v>
+      </c>
+      <c r="J19" s="160">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="190" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" s="171">
+        <v>4</v>
+      </c>
+      <c r="C20" s="171">
+        <v>52</v>
+      </c>
+      <c r="D20" s="171">
+        <v>4</v>
+      </c>
+      <c r="E20" s="159">
+        <v>-42.8</v>
+      </c>
+      <c r="F20" s="160">
+        <v>-33.4</v>
+      </c>
+      <c r="G20" s="161">
+        <v>-22.6</v>
+      </c>
+      <c r="H20" s="159">
+        <v>-32.4</v>
+      </c>
+      <c r="I20" s="160">
+        <v>-44.5</v>
+      </c>
+      <c r="J20" s="160">
+        <v>-50.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="188" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="171">
+        <v>3</v>
+      </c>
+      <c r="C21" s="171">
+        <v>60</v>
+      </c>
+      <c r="D21" s="171">
+        <v>11</v>
+      </c>
+      <c r="E21" s="159">
+        <v>-41.5</v>
+      </c>
+      <c r="F21" s="160">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="G21" s="161">
+        <v>-22</v>
+      </c>
+      <c r="H21" s="159">
+        <v>-33.6</v>
+      </c>
+      <c r="I21" s="160">
+        <v>-43.7</v>
+      </c>
+      <c r="J21" s="160">
+        <v>-51.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="188" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="171">
+        <v>14</v>
+      </c>
+      <c r="C22" s="171">
+        <v>67</v>
+      </c>
+      <c r="D22" s="171">
+        <v>29</v>
+      </c>
+      <c r="E22" s="159">
+        <v>-42.9</v>
+      </c>
+      <c r="F22" s="160">
+        <v>-34.5</v>
+      </c>
+      <c r="G22" s="161">
+        <v>-24.4</v>
+      </c>
+      <c r="H22" s="159">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="I22" s="160">
+        <v>-47.8</v>
+      </c>
+      <c r="J22" s="160">
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="188" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="171">
+        <v>11</v>
+      </c>
+      <c r="C23" s="171">
+        <v>80</v>
+      </c>
+      <c r="D23" s="171">
+        <v>9</v>
+      </c>
+      <c r="E23" s="159">
+        <v>-43.7</v>
+      </c>
+      <c r="F23" s="160">
+        <v>-34.9</v>
+      </c>
+      <c r="G23" s="161">
+        <v>-23.5</v>
+      </c>
+      <c r="H23" s="159">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="I23" s="160">
+        <v>-46.7</v>
+      </c>
+      <c r="J23" s="160">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="188" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="171">
+        <v>7</v>
+      </c>
+      <c r="C24" s="171">
+        <v>63</v>
+      </c>
+      <c r="D24" s="171">
+        <v>20</v>
+      </c>
+      <c r="E24" s="159">
+        <v>-42.9</v>
+      </c>
+      <c r="F24" s="160">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="G24" s="161">
+        <v>-23.7</v>
+      </c>
+      <c r="H24" s="159">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="I24" s="160">
+        <v>-46.6</v>
+      </c>
+      <c r="J24" s="160">
+        <v>-53.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="188" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" s="171">
+        <v>7</v>
+      </c>
+      <c r="C25" s="171">
+        <v>69</v>
+      </c>
+      <c r="D25" s="171">
+        <v>21</v>
+      </c>
+      <c r="E25" s="159">
+        <v>-41.5</v>
+      </c>
+      <c r="F25" s="160">
+        <v>-33.5</v>
+      </c>
+      <c r="G25" s="161">
+        <v>-23.9</v>
+      </c>
+      <c r="H25" s="159">
+        <v>-37</v>
+      </c>
+      <c r="I25" s="160">
         <v>-44.6</v>
       </c>
-      <c r="I3" s="160">
-        <v>-47.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="190" t="s">
-        <v>233</v>
-      </c>
-      <c r="B4" s="170">
-        <v>44</v>
-      </c>
-      <c r="C4" s="172">
-        <v>40</v>
-      </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="159">
-        <v>-42.2</v>
-      </c>
-      <c r="H4" s="160">
-        <v>-47.6</v>
-      </c>
-      <c r="I4" s="160">
-        <v>-52.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="189" t="s">
-        <v>234</v>
-      </c>
-      <c r="B5" s="170">
-        <v>12</v>
-      </c>
-      <c r="C5" s="172">
+      <c r="J25" s="160">
+        <v>-52.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" s="171"/>
+      <c r="C26" s="171">
+        <v>47</v>
+      </c>
+      <c r="D26" s="171"/>
+      <c r="E26" s="159">
+        <v>-38.6</v>
+      </c>
+      <c r="F26" s="160">
+        <v>-30.4</v>
+      </c>
+      <c r="G26" s="161">
+        <v>-20.2</v>
+      </c>
+      <c r="H26" s="159">
+        <v>-29.2</v>
+      </c>
+      <c r="I26" s="160">
+        <v>-40.4</v>
+      </c>
+      <c r="J26" s="160">
+        <v>-47.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" s="171">
+        <v>6</v>
+      </c>
+      <c r="C27" s="171">
+        <v>56</v>
+      </c>
+      <c r="D27" s="171">
         <v>11</v>
       </c>
-      <c r="D5" s="159">
-        <v>-33.1</v>
-      </c>
-      <c r="E5" s="160">
-        <v>-27.8</v>
-      </c>
-      <c r="F5" s="161">
-        <v>-22.2</v>
-      </c>
-      <c r="G5" s="159">
-        <v>-37.799999999999997</v>
-      </c>
-      <c r="H5" s="160">
-        <v>-42.5</v>
-      </c>
-      <c r="I5" s="160">
-        <v>-47.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="189" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="170">
-        <v>7</v>
-      </c>
-      <c r="C6" s="172">
-        <v>7</v>
-      </c>
-      <c r="D6" s="159">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="E6" s="160">
-        <v>-27.9</v>
-      </c>
-      <c r="F6" s="161">
-        <v>-22.4</v>
-      </c>
-      <c r="G6" s="159">
-        <v>-36.1</v>
-      </c>
-      <c r="H6" s="160">
-        <v>-40.700000000000003</v>
-      </c>
-      <c r="I6" s="160">
-        <v>-43.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="190" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" s="170"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="159">
-        <v>-34</v>
-      </c>
-      <c r="H7" s="160">
-        <v>-38.200000000000003</v>
-      </c>
-      <c r="I7" s="160">
-        <v>-42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="189" t="s">
-        <v>237</v>
-      </c>
-      <c r="B8" s="170">
-        <v>8</v>
-      </c>
-      <c r="C8" s="172">
-        <v>5</v>
-      </c>
-      <c r="D8" s="159">
-        <v>-33.5</v>
-      </c>
-      <c r="E8" s="160">
-        <v>-28.3</v>
-      </c>
-      <c r="F8" s="161">
-        <v>-23</v>
-      </c>
-      <c r="G8" s="159">
+      <c r="E27" s="159">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="F27" s="160">
         <v>-32</v>
       </c>
-      <c r="H8" s="160">
-        <v>-36.4</v>
-      </c>
-      <c r="I8" s="160">
-        <v>-42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="189" t="s">
-        <v>238</v>
-      </c>
-      <c r="B9" s="170">
-        <v>3</v>
-      </c>
-      <c r="C9" s="172">
-        <v>6</v>
-      </c>
-      <c r="D9" s="159">
-        <v>-33.4</v>
-      </c>
-      <c r="E9" s="160">
-        <v>-28.5</v>
-      </c>
-      <c r="F9" s="161">
-        <v>-23</v>
-      </c>
-      <c r="G9" s="159">
-        <v>-30</v>
-      </c>
-      <c r="H9" s="160">
-        <v>-36.6</v>
-      </c>
-      <c r="I9" s="160">
-        <v>-42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="189" t="s">
-        <v>239</v>
-      </c>
-      <c r="B10" s="170">
-        <v>11</v>
-      </c>
-      <c r="C10" s="172">
+      <c r="G27" s="161">
+        <v>-21.4</v>
+      </c>
+      <c r="H27" s="159">
+        <v>-35.1</v>
+      </c>
+      <c r="I27" s="160">
+        <v>-46.9</v>
+      </c>
+      <c r="J27" s="160">
+        <v>-52.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="188" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="171"/>
+      <c r="C28" s="171">
+        <v>38</v>
+      </c>
+      <c r="D28" s="171">
+        <v>1</v>
+      </c>
+      <c r="E28" s="159">
+        <v>-35.9</v>
+      </c>
+      <c r="F28" s="160">
+        <v>-27.1</v>
+      </c>
+      <c r="G28" s="161">
+        <v>-17.2</v>
+      </c>
+      <c r="H28" s="159">
+        <v>-30.6</v>
+      </c>
+      <c r="I28" s="160">
+        <v>-41.5</v>
+      </c>
+      <c r="J28" s="160">
+        <v>-48.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="188" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="171"/>
+      <c r="C29" s="171">
+        <v>61</v>
+      </c>
+      <c r="D29" s="171">
+        <v>14</v>
+      </c>
+      <c r="E29" s="159">
+        <v>-41.5</v>
+      </c>
+      <c r="F29" s="160">
+        <v>-32.6</v>
+      </c>
+      <c r="G29" s="161">
+        <v>-23.1</v>
+      </c>
+      <c r="H29" s="159">
+        <v>-34.5</v>
+      </c>
+      <c r="I29" s="160">
+        <v>-43.8</v>
+      </c>
+      <c r="J29" s="160">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="188" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="171"/>
+      <c r="C30" s="171">
+        <v>54</v>
+      </c>
+      <c r="D30" s="171"/>
+      <c r="E30" s="159">
+        <v>-39.200000000000003</v>
+      </c>
+      <c r="F30" s="160">
+        <v>-30.3</v>
+      </c>
+      <c r="G30" s="161">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="H30" s="159">
+        <v>-29.2</v>
+      </c>
+      <c r="I30" s="160">
+        <v>-41.4</v>
+      </c>
+      <c r="J30" s="160">
+        <v>-46.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="188" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" s="171">
+        <v>10</v>
+      </c>
+      <c r="C31" s="171">
+        <v>54</v>
+      </c>
+      <c r="D31" s="171">
         <v>17</v>
       </c>
-      <c r="D10" s="159">
-        <v>-32.6</v>
-      </c>
-      <c r="E10" s="160">
-        <v>-27.7</v>
-      </c>
-      <c r="F10" s="161">
-        <v>-22.3</v>
-      </c>
-      <c r="G10" s="159">
-        <v>-35</v>
-      </c>
-      <c r="H10" s="160">
-        <v>-41.6</v>
-      </c>
-      <c r="I10" s="160">
-        <v>-45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="189" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" s="170">
-        <v>22</v>
-      </c>
-      <c r="C11" s="172">
-        <v>22</v>
-      </c>
-      <c r="D11" s="159">
-        <v>-34</v>
-      </c>
-      <c r="E11" s="160">
-        <v>-28.9</v>
-      </c>
-      <c r="F11" s="161">
-        <v>-24</v>
-      </c>
-      <c r="G11" s="159">
-        <v>-40</v>
-      </c>
-      <c r="H11" s="160">
-        <v>-44.4</v>
-      </c>
-      <c r="I11" s="160">
-        <v>-48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="189" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" s="170">
-        <v>9</v>
-      </c>
-      <c r="C12" s="172">
-        <v>8</v>
-      </c>
-      <c r="D12" s="159">
-        <v>-31.2</v>
-      </c>
-      <c r="E12" s="160">
-        <v>-26.1</v>
-      </c>
-      <c r="F12" s="161">
-        <v>-20.8</v>
-      </c>
-      <c r="G12" s="159">
-        <v>-33</v>
-      </c>
-      <c r="H12" s="160">
-        <v>-40.9</v>
-      </c>
-      <c r="I12" s="160">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="189" t="s">
-        <v>242</v>
-      </c>
-      <c r="B13" s="170">
-        <v>11</v>
-      </c>
-      <c r="C13" s="172">
-        <v>10</v>
-      </c>
-      <c r="D13" s="159">
-        <v>-30.8</v>
-      </c>
-      <c r="E13" s="160">
-        <v>-25</v>
-      </c>
-      <c r="F13" s="161">
-        <v>-19.399999999999999</v>
-      </c>
-      <c r="G13" s="159">
-        <v>-38</v>
-      </c>
-      <c r="H13" s="160">
-        <v>-43</v>
-      </c>
-      <c r="I13" s="160">
-        <v>-54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="189" t="s">
-        <v>243</v>
-      </c>
-      <c r="B14" s="170">
-        <v>19</v>
-      </c>
-      <c r="C14" s="172">
-        <v>12</v>
-      </c>
-      <c r="D14" s="159">
-        <v>-32.799999999999997</v>
-      </c>
-      <c r="E14" s="160">
-        <v>-27.3</v>
-      </c>
-      <c r="F14" s="161">
-        <v>-22</v>
-      </c>
-      <c r="G14" s="159">
-        <v>-34</v>
-      </c>
-      <c r="H14" s="160">
-        <v>-40.5</v>
-      </c>
-      <c r="I14" s="160">
-        <v>-45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="189" t="s">
-        <v>244</v>
-      </c>
-      <c r="B15" s="170">
-        <v>11</v>
-      </c>
-      <c r="C15" s="172">
-        <v>14</v>
-      </c>
-      <c r="D15" s="159">
-        <v>-32.9</v>
-      </c>
-      <c r="E15" s="160">
-        <v>-27.6</v>
-      </c>
-      <c r="F15" s="161">
-        <v>-22.4</v>
-      </c>
-      <c r="G15" s="159">
-        <v>-34</v>
-      </c>
-      <c r="H15" s="160">
-        <v>-40.6</v>
-      </c>
-      <c r="I15" s="160">
-        <v>-45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="189" t="s">
-        <v>245</v>
-      </c>
-      <c r="B16" s="170">
-        <v>8</v>
-      </c>
-      <c r="C16" s="172">
-        <v>8</v>
-      </c>
-      <c r="D16" s="159">
-        <v>-32.5</v>
-      </c>
-      <c r="E16" s="160">
-        <v>-27.3</v>
-      </c>
-      <c r="F16" s="161">
-        <v>-22.1</v>
-      </c>
-      <c r="G16" s="159">
-        <v>-31.6</v>
-      </c>
-      <c r="H16" s="160">
-        <v>-37.6</v>
-      </c>
-      <c r="I16" s="160">
-        <v>-45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="189" t="s">
-        <v>246</v>
-      </c>
-      <c r="B17" s="170"/>
-      <c r="C17" s="172">
-        <v>2</v>
-      </c>
-      <c r="D17" s="159">
-        <v>-29.3</v>
-      </c>
-      <c r="E17" s="160">
-        <v>-24.6</v>
-      </c>
-      <c r="F17" s="161">
-        <v>-20.100000000000001</v>
-      </c>
-      <c r="G17" s="159">
-        <v>-32</v>
-      </c>
-      <c r="H17" s="160">
-        <v>-35.5</v>
-      </c>
-      <c r="I17" s="160">
-        <v>-38.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="189" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" s="170">
-        <v>14</v>
-      </c>
-      <c r="C18" s="172">
-        <v>13</v>
-      </c>
-      <c r="D18" s="159">
-        <v>-33.9</v>
-      </c>
-      <c r="E18" s="160">
-        <v>-29</v>
-      </c>
-      <c r="F18" s="161">
-        <v>-23.8</v>
-      </c>
-      <c r="G18" s="159">
-        <v>-34.299999999999997</v>
-      </c>
-      <c r="H18" s="160">
-        <v>-39.700000000000003</v>
-      </c>
-      <c r="I18" s="160">
-        <v>-43.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="189" t="s">
-        <v>183</v>
-      </c>
-      <c r="B19" s="170">
-        <v>4</v>
-      </c>
-      <c r="C19" s="172">
-        <v>10</v>
-      </c>
-      <c r="D19" s="159">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="E19" s="160">
-        <v>-27.9</v>
-      </c>
-      <c r="F19" s="161">
-        <v>-23</v>
-      </c>
-      <c r="G19" s="159">
-        <v>-38.200000000000003</v>
-      </c>
-      <c r="H19" s="160">
+      <c r="E31" s="159">
         <v>-40.4</v>
       </c>
-      <c r="I19" s="160">
-        <v>-42.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="189" t="s">
-        <v>184</v>
-      </c>
-      <c r="B20" s="170">
-        <v>2</v>
-      </c>
-      <c r="C20" s="172"/>
-      <c r="D20" s="159">
-        <v>-31.4</v>
-      </c>
-      <c r="E20" s="160">
-        <v>-26.4</v>
-      </c>
-      <c r="F20" s="161">
-        <v>-20.8</v>
-      </c>
-      <c r="G20" s="159">
-        <v>-28.5</v>
-      </c>
-      <c r="H20" s="160">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="I20" s="160">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="189" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="170">
-        <v>2</v>
-      </c>
-      <c r="C21" s="172">
-        <v>6</v>
-      </c>
-      <c r="D21" s="159">
-        <v>-29.7</v>
-      </c>
-      <c r="E21" s="160">
-        <v>-24.1</v>
-      </c>
-      <c r="F21" s="161">
-        <v>-18.8</v>
-      </c>
-      <c r="G21" s="159">
-        <v>-32.9</v>
-      </c>
-      <c r="H21" s="160">
-        <v>-37.700000000000003</v>
-      </c>
-      <c r="I21" s="160">
-        <v>-40.700000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="189" t="s">
-        <v>186</v>
-      </c>
-      <c r="B22" s="170">
-        <v>5</v>
-      </c>
-      <c r="C22" s="172">
-        <v>4</v>
-      </c>
-      <c r="D22" s="159">
-        <v>-31.4</v>
-      </c>
-      <c r="E22" s="160">
-        <v>-26.2</v>
-      </c>
-      <c r="F22" s="161">
-        <v>-21.2</v>
-      </c>
-      <c r="G22" s="159">
-        <v>-31.1</v>
-      </c>
-      <c r="H22" s="160">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="I22" s="160">
-        <v>-41.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="189" t="s">
-        <v>187</v>
-      </c>
-      <c r="B23" s="170"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="159">
-        <v>-30.5</v>
-      </c>
-      <c r="E23" s="160">
-        <v>-25</v>
-      </c>
-      <c r="F23" s="161">
-        <v>-18.899999999999999</v>
-      </c>
-      <c r="G23" s="159">
-        <v>-28.5</v>
-      </c>
-      <c r="H23" s="160">
-        <v>-33.700000000000003</v>
-      </c>
-      <c r="I23" s="160">
-        <v>-37.799999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="189" t="s">
-        <v>188</v>
-      </c>
-      <c r="B24" s="170">
-        <v>4</v>
-      </c>
-      <c r="C24" s="172">
-        <v>5</v>
-      </c>
-      <c r="D24" s="159">
-        <v>-29.1</v>
-      </c>
-      <c r="E24" s="160">
-        <v>-23.9</v>
-      </c>
-      <c r="F24" s="161">
-        <v>-18.7</v>
-      </c>
-      <c r="G24" s="159">
-        <v>-32.299999999999997</v>
-      </c>
-      <c r="H24" s="160">
-        <v>-38.799999999999997</v>
-      </c>
-      <c r="I24" s="160">
-        <v>-42.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="189" t="s">
-        <v>189</v>
-      </c>
-      <c r="B25" s="170"/>
-      <c r="C25" s="172">
-        <v>1</v>
-      </c>
-      <c r="D25" s="159">
-        <v>-30.4</v>
-      </c>
-      <c r="E25" s="160">
-        <v>-24.9</v>
-      </c>
-      <c r="F25" s="161">
-        <v>-19.8</v>
-      </c>
-      <c r="G25" s="159">
-        <v>-30.3</v>
-      </c>
-      <c r="H25" s="160">
-        <v>-34.4</v>
-      </c>
-      <c r="I25" s="160">
-        <v>-39.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="190" t="s">
-        <v>190</v>
-      </c>
-      <c r="B26" s="170"/>
-      <c r="C26" s="172">
-        <v>8</v>
-      </c>
-      <c r="D26" s="159"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="159">
-        <v>-34.4</v>
-      </c>
-      <c r="H26" s="160">
-        <v>-36.4</v>
-      </c>
-      <c r="I26" s="160">
-        <v>-38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="190" t="s">
-        <v>191</v>
-      </c>
-      <c r="B27" s="170"/>
-      <c r="C27" s="172">
-        <v>6</v>
-      </c>
-      <c r="D27" s="159"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="159">
-        <v>-31.4</v>
-      </c>
-      <c r="H27" s="160">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="I27" s="160">
-        <v>-39.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="190" t="s">
-        <v>192</v>
-      </c>
-      <c r="B28" s="170"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="159">
-        <v>-28.4</v>
-      </c>
-      <c r="H28" s="160">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="I28" s="160">
-        <v>-37.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="190" t="s">
-        <v>193</v>
-      </c>
-      <c r="B29" s="170">
-        <v>1</v>
-      </c>
-      <c r="C29" s="172">
-        <v>4</v>
-      </c>
-      <c r="D29" s="159"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="159">
-        <v>-33.1</v>
-      </c>
-      <c r="H29" s="160">
-        <v>-37.6</v>
-      </c>
-      <c r="I29" s="160">
-        <v>-40.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="190" t="s">
-        <v>194</v>
-      </c>
-      <c r="B30" s="170">
-        <v>4</v>
-      </c>
-      <c r="C30" s="172">
-        <v>5</v>
-      </c>
-      <c r="D30" s="159"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="159">
-        <v>-31.2</v>
-      </c>
-      <c r="H30" s="160">
-        <v>-37.5</v>
-      </c>
-      <c r="I30" s="160">
-        <v>-41.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="190" t="s">
-        <v>195</v>
-      </c>
-      <c r="B31" s="170"/>
-      <c r="C31" s="172">
-        <v>1</v>
-      </c>
-      <c r="D31" s="159"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="159">
-        <v>-30.9</v>
-      </c>
-      <c r="H31" s="160">
-        <v>-34.799999999999997</v>
+      <c r="F31" s="160">
+        <v>-31.9</v>
+      </c>
+      <c r="G31" s="161">
+        <v>-22.5</v>
+      </c>
+      <c r="H31" s="159">
+        <v>-35.1</v>
       </c>
       <c r="I31" s="160">
-        <v>-37.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="190" t="s">
-        <v>196</v>
-      </c>
-      <c r="B32" s="170"/>
-      <c r="C32" s="172">
-        <v>2</v>
-      </c>
-      <c r="D32" s="159"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="159">
-        <v>-31.7</v>
-      </c>
-      <c r="H32" s="160">
-        <v>-35.6</v>
-      </c>
-      <c r="I32" s="160">
-        <v>-38.799999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="190" t="s">
-        <v>197</v>
-      </c>
-      <c r="B33" s="170">
-        <v>2</v>
-      </c>
-      <c r="C33" s="172">
-        <v>2</v>
-      </c>
-      <c r="D33" s="159"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="159">
-        <v>-34.4</v>
-      </c>
-      <c r="H33" s="160">
-        <v>-37.5</v>
-      </c>
-      <c r="I33" s="160">
-        <v>-44.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="189" t="s">
-        <v>198</v>
-      </c>
-      <c r="B34" s="170">
-        <v>2</v>
-      </c>
-      <c r="C34" s="172">
-        <v>4</v>
-      </c>
-      <c r="D34" s="159">
-        <v>-29.6</v>
-      </c>
-      <c r="E34" s="160">
-        <v>-24.1</v>
-      </c>
-      <c r="F34" s="161">
-        <v>-18.7</v>
-      </c>
-      <c r="G34" s="159">
-        <v>-33.700000000000003</v>
-      </c>
-      <c r="H34" s="160">
-        <v>-38.200000000000003</v>
-      </c>
-      <c r="I34" s="160">
-        <v>-40.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="189" t="s">
-        <v>199</v>
-      </c>
-      <c r="B35" s="170">
-        <v>6</v>
-      </c>
-      <c r="C35" s="172">
-        <v>8</v>
-      </c>
-      <c r="D35" s="159">
-        <v>-30.2</v>
-      </c>
-      <c r="E35" s="160">
-        <v>-25.2</v>
-      </c>
-      <c r="F35" s="161">
-        <v>-19.399999999999999</v>
-      </c>
-      <c r="G35" s="159">
-        <v>-35.6</v>
-      </c>
-      <c r="H35" s="160">
-        <v>-40.1</v>
-      </c>
-      <c r="I35" s="160">
-        <v>-42.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="189" t="s">
-        <v>200</v>
-      </c>
-      <c r="B36" s="170"/>
-      <c r="C36" s="172"/>
-      <c r="D36" s="159">
-        <v>-29.7</v>
-      </c>
-      <c r="E36" s="160">
-        <v>-24.7</v>
-      </c>
-      <c r="F36" s="161">
-        <v>-19</v>
-      </c>
-      <c r="G36" s="159">
-        <v>-29.5</v>
-      </c>
-      <c r="H36" s="160">
-        <v>-35.6</v>
-      </c>
-      <c r="I36" s="160">
-        <v>-38.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="189" t="s">
-        <v>201</v>
-      </c>
-      <c r="B37" s="170">
-        <v>21</v>
-      </c>
-      <c r="C37" s="172">
-        <v>21</v>
-      </c>
-      <c r="D37" s="159">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="E37" s="160">
-        <v>-29</v>
-      </c>
-      <c r="F37" s="161">
-        <v>-23.4</v>
-      </c>
-      <c r="G37" s="159">
-        <v>-39.200000000000003</v>
-      </c>
-      <c r="H37" s="160">
-        <v>-41.7</v>
-      </c>
-      <c r="I37" s="160">
-        <v>-44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="189" t="s">
-        <v>202</v>
-      </c>
-      <c r="B38" s="170">
-        <v>4</v>
-      </c>
-      <c r="C38" s="172">
-        <v>14</v>
-      </c>
-      <c r="D38" s="159">
-        <v>-32.799999999999997</v>
-      </c>
-      <c r="E38" s="160">
-        <v>-27.9</v>
-      </c>
-      <c r="F38" s="161">
-        <v>-22.7</v>
-      </c>
-      <c r="G38" s="159">
-        <v>-34.6</v>
-      </c>
-      <c r="H38" s="160">
-        <v>-38.4</v>
-      </c>
-      <c r="I38" s="160">
-        <v>-41.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="189" t="s">
-        <v>203</v>
-      </c>
-      <c r="B39" s="170"/>
-      <c r="C39" s="172"/>
-      <c r="D39" s="159">
-        <v>-27.8</v>
-      </c>
-      <c r="E39" s="160">
-        <v>-22.2</v>
-      </c>
-      <c r="F39" s="161">
-        <v>-17</v>
-      </c>
-      <c r="G39" s="159">
-        <v>-27</v>
-      </c>
-      <c r="H39" s="160">
-        <v>-32.6</v>
-      </c>
-      <c r="I39" s="160">
-        <v>-36.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="189" t="s">
-        <v>204</v>
-      </c>
-      <c r="B40" s="170">
-        <v>9</v>
-      </c>
-      <c r="C40" s="172">
-        <v>15</v>
-      </c>
-      <c r="D40" s="159">
-        <v>-33.299999999999997</v>
-      </c>
-      <c r="E40" s="160">
-        <v>-28.3</v>
-      </c>
-      <c r="F40" s="161">
-        <v>-23</v>
-      </c>
-      <c r="G40" s="159">
-        <v>-33.5</v>
-      </c>
-      <c r="H40" s="160">
-        <v>-38.6</v>
-      </c>
-      <c r="I40" s="160">
-        <v>-41.8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="189" t="s">
-        <v>205</v>
-      </c>
-      <c r="B41" s="170"/>
-      <c r="C41" s="172">
-        <v>6</v>
-      </c>
-      <c r="D41" s="159">
-        <v>-30.9</v>
-      </c>
-      <c r="E41" s="160">
-        <v>-25.8</v>
-      </c>
-      <c r="F41" s="161">
-        <v>-20.8</v>
-      </c>
-      <c r="G41" s="159">
-        <v>-31.5</v>
-      </c>
-      <c r="H41" s="160">
-        <v>-35.4</v>
-      </c>
-      <c r="I41" s="160">
-        <v>-38.9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="189" t="s">
-        <v>206</v>
-      </c>
-      <c r="B42" s="170">
-        <v>12</v>
-      </c>
-      <c r="C42" s="172">
-        <v>12</v>
-      </c>
-      <c r="D42" s="159">
-        <v>-33.700000000000003</v>
-      </c>
-      <c r="E42" s="160">
-        <v>-28.6</v>
-      </c>
-      <c r="F42" s="161">
-        <v>-23.3</v>
-      </c>
-      <c r="G42" s="159">
-        <v>-36.200000000000003</v>
-      </c>
-      <c r="H42" s="160">
-        <v>-40.299999999999997</v>
-      </c>
-      <c r="I42" s="160">
-        <v>-42.8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="189" t="s">
-        <v>207</v>
-      </c>
-      <c r="B43" s="170">
-        <v>15</v>
-      </c>
-      <c r="C43" s="172">
-        <v>21</v>
-      </c>
-      <c r="D43" s="159">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="E43" s="160">
-        <v>-27.8</v>
-      </c>
-      <c r="F43" s="161">
-        <v>-22.5</v>
-      </c>
-      <c r="G43" s="159">
-        <v>-33.6</v>
-      </c>
-      <c r="H43" s="160">
-        <v>-39.700000000000003</v>
-      </c>
-      <c r="I43" s="160">
-        <v>-43.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="189" t="s">
-        <v>208</v>
-      </c>
-      <c r="B44" s="170">
-        <v>8</v>
-      </c>
-      <c r="C44" s="172">
-        <v>9</v>
-      </c>
-      <c r="D44" s="159">
-        <v>-33.299999999999997</v>
-      </c>
-      <c r="E44" s="160">
-        <v>-28.4</v>
-      </c>
-      <c r="F44" s="161">
-        <v>-23.3</v>
-      </c>
-      <c r="G44" s="159">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="H44" s="160">
-        <v>-38.9</v>
-      </c>
-      <c r="I44" s="160">
-        <v>-43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="189" t="s">
-        <v>209</v>
-      </c>
-      <c r="B45" s="170">
-        <v>14</v>
-      </c>
-      <c r="C45" s="172">
-        <v>16</v>
-      </c>
-      <c r="D45" s="159">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="E45" s="160">
-        <v>-27.6</v>
-      </c>
-      <c r="F45" s="161">
-        <v>-22.7</v>
-      </c>
-      <c r="G45" s="159">
-        <v>-38.299999999999997</v>
-      </c>
-      <c r="H45" s="160">
-        <v>-40.9</v>
-      </c>
-      <c r="I45" s="160">
-        <v>-43.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="189" t="s">
-        <v>210</v>
-      </c>
-      <c r="B46" s="170"/>
-      <c r="C46" s="172"/>
-      <c r="D46" s="159">
-        <v>-28.2</v>
-      </c>
-      <c r="E46" s="160">
-        <v>-23.1</v>
-      </c>
-      <c r="F46" s="161">
-        <v>-18.5</v>
-      </c>
-      <c r="G46" s="159">
-        <v>-28.5</v>
-      </c>
-      <c r="H46" s="160">
-        <v>-34.4</v>
-      </c>
-      <c r="I46" s="160">
-        <v>-38.9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="189" t="s">
-        <v>211</v>
-      </c>
-      <c r="B47" s="170"/>
-      <c r="C47" s="172"/>
-      <c r="D47" s="159">
-        <v>-30.1</v>
-      </c>
-      <c r="E47" s="160">
-        <v>-24.8</v>
-      </c>
-      <c r="F47" s="161">
-        <v>-19.600000000000001</v>
-      </c>
-      <c r="G47" s="159">
-        <v>-29.7</v>
-      </c>
-      <c r="H47" s="160">
-        <v>-35.1</v>
-      </c>
-      <c r="I47" s="160">
-        <v>-39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="189" t="s">
-        <v>212</v>
-      </c>
-      <c r="B48" s="170">
-        <v>6</v>
-      </c>
-      <c r="C48" s="172">
-        <v>5</v>
-      </c>
-      <c r="D48" s="159">
-        <v>-29.8</v>
-      </c>
-      <c r="E48" s="160">
-        <v>-24.9</v>
-      </c>
-      <c r="F48" s="161">
-        <v>-20</v>
-      </c>
-      <c r="G48" s="159">
-        <v>-32.4</v>
-      </c>
-      <c r="H48" s="160">
-        <v>-38.299999999999997</v>
-      </c>
-      <c r="I48" s="160">
-        <v>-42.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="189" t="s">
-        <v>213</v>
-      </c>
-      <c r="B49" s="170"/>
-      <c r="C49" s="172"/>
-      <c r="D49" s="159">
-        <v>-29.2</v>
-      </c>
-      <c r="E49" s="160">
-        <v>-24</v>
-      </c>
-      <c r="F49" s="161">
-        <v>-18.600000000000001</v>
-      </c>
-      <c r="G49" s="159">
-        <v>-28.3</v>
-      </c>
-      <c r="H49" s="160">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="I49" s="160">
-        <v>-36.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="189" t="s">
-        <v>214</v>
-      </c>
-      <c r="B50" s="170">
-        <v>9</v>
-      </c>
-      <c r="C50" s="172">
-        <v>11</v>
-      </c>
-      <c r="D50" s="159">
-        <v>-30.7</v>
-      </c>
-      <c r="E50" s="160">
-        <v>-25.7</v>
-      </c>
-      <c r="F50" s="161">
-        <v>-20.7</v>
-      </c>
-      <c r="G50" s="159">
-        <v>-34.9</v>
-      </c>
-      <c r="H50" s="160">
-        <v>-39.799999999999997</v>
-      </c>
-      <c r="I50" s="160">
-        <v>-44.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="189" t="s">
-        <v>215</v>
-      </c>
-      <c r="B51" s="170">
-        <v>3</v>
-      </c>
-      <c r="C51" s="172">
-        <v>10</v>
-      </c>
-      <c r="D51" s="159">
-        <v>-31.6</v>
-      </c>
-      <c r="E51" s="160">
-        <v>-26.7</v>
-      </c>
-      <c r="F51" s="161">
-        <v>-20.6</v>
-      </c>
-      <c r="G51" s="159">
-        <v>-34.4</v>
-      </c>
-      <c r="H51" s="160">
-        <v>-38.4</v>
-      </c>
-      <c r="I51" s="160">
-        <v>-41.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="189" t="s">
-        <v>216</v>
-      </c>
-      <c r="B52" s="170"/>
-      <c r="C52" s="172">
-        <v>2</v>
-      </c>
-      <c r="D52" s="159">
-        <v>-27.4</v>
-      </c>
-      <c r="E52" s="160">
-        <v>-22.5</v>
-      </c>
-      <c r="F52" s="161">
-        <v>-18</v>
-      </c>
-      <c r="G52" s="159">
-        <v>-31.3</v>
-      </c>
-      <c r="H52" s="160">
-        <v>-35.299999999999997</v>
-      </c>
-      <c r="I52" s="160">
-        <v>-37.6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="189" t="s">
-        <v>217</v>
-      </c>
-      <c r="B53" s="170">
-        <v>2</v>
-      </c>
-      <c r="C53" s="172">
-        <v>10</v>
-      </c>
-      <c r="D53" s="159">
-        <v>-27.8</v>
-      </c>
-      <c r="E53" s="160">
-        <v>-22.7</v>
-      </c>
-      <c r="F53" s="161">
-        <v>-18.100000000000001</v>
-      </c>
-      <c r="G53" s="159">
-        <v>-33.9</v>
-      </c>
-      <c r="H53" s="160">
-        <v>-38.5</v>
-      </c>
-      <c r="I53" s="160">
-        <v>-41.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="189" t="s">
-        <v>218</v>
-      </c>
-      <c r="B54" s="170"/>
-      <c r="C54" s="172"/>
-      <c r="D54" s="159">
-        <v>-29</v>
-      </c>
-      <c r="E54" s="160">
-        <v>-24.1</v>
-      </c>
-      <c r="F54" s="161">
-        <v>-18.899999999999999</v>
-      </c>
-      <c r="G54" s="159">
-        <v>-28.2</v>
-      </c>
-      <c r="H54" s="160">
-        <v>-32.200000000000003</v>
-      </c>
-      <c r="I54" s="160">
-        <v>-38.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="189" t="s">
-        <v>219</v>
-      </c>
-      <c r="B55" s="170"/>
-      <c r="C55" s="172"/>
-      <c r="D55" s="159">
-        <v>-29.8</v>
-      </c>
-      <c r="E55" s="160">
-        <v>-24.8</v>
-      </c>
-      <c r="F55" s="161">
-        <v>-19.600000000000001</v>
-      </c>
-      <c r="G55" s="159">
-        <v>-28.2</v>
-      </c>
-      <c r="H55" s="160">
-        <v>-33.1</v>
-      </c>
-      <c r="I55" s="160">
-        <v>-37.9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="189" t="s">
-        <v>220</v>
-      </c>
-      <c r="B56" s="170">
-        <v>5</v>
-      </c>
-      <c r="C56" s="172">
-        <v>7</v>
-      </c>
-      <c r="D56" s="159">
-        <v>-30.8</v>
-      </c>
-      <c r="E56" s="160">
-        <v>-25.7</v>
-      </c>
-      <c r="F56" s="161">
-        <v>-21.1</v>
-      </c>
-      <c r="G56" s="159">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="H56" s="160">
-        <v>-39.799999999999997</v>
-      </c>
-      <c r="I56" s="160">
-        <v>-42.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="189" t="s">
-        <v>221</v>
-      </c>
-      <c r="B57" s="170"/>
-      <c r="C57" s="172"/>
-      <c r="D57" s="159">
-        <v>-27.1</v>
-      </c>
-      <c r="E57" s="160">
-        <v>-22.3</v>
-      </c>
-      <c r="F57" s="161">
-        <v>-17.899999999999999</v>
-      </c>
-      <c r="G57" s="159">
-        <v>-29.3</v>
-      </c>
-      <c r="H57" s="160">
-        <v>-32.799999999999997</v>
-      </c>
-      <c r="I57" s="160">
-        <v>-35.799999999999997</v>
-      </c>
+        <v>-45.9</v>
+      </c>
+      <c r="J31" s="160">
+        <v>-57.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="188"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="171"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="160"/>
+    </row>
+    <row r="33" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="188"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="161"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="160"/>
+    </row>
+    <row r="34" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="188"/>
+      <c r="B34" s="171"/>
+      <c r="C34" s="171"/>
+      <c r="D34" s="171"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
+    </row>
+    <row r="35" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="188"/>
+      <c r="B35" s="171"/>
+      <c r="C35" s="171"/>
+      <c r="D35" s="171"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="161"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
+    </row>
+    <row r="36" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="188"/>
+      <c r="B36" s="171"/>
+      <c r="C36" s="171"/>
+      <c r="D36" s="171"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="160"/>
+    </row>
+    <row r="37" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="188"/>
+      <c r="B37" s="171"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="171"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="161"/>
+      <c r="H37" s="159"/>
+      <c r="I37" s="160"/>
+      <c r="J37" s="160"/>
+    </row>
+    <row r="38" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="188"/>
+      <c r="B38" s="171"/>
+      <c r="C38" s="171"/>
+      <c r="D38" s="171"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="160"/>
+    </row>
+    <row r="39" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="188"/>
+      <c r="B39" s="171"/>
+      <c r="C39" s="171"/>
+      <c r="D39" s="171"/>
+      <c r="E39" s="159"/>
+      <c r="F39" s="160"/>
+      <c r="G39" s="161"/>
+      <c r="H39" s="159"/>
+      <c r="I39" s="160"/>
+      <c r="J39" s="160"/>
+    </row>
+    <row r="40" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="188"/>
+      <c r="B40" s="171"/>
+      <c r="C40" s="171"/>
+      <c r="D40" s="171"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="161"/>
+      <c r="H40" s="159"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="160"/>
+    </row>
+    <row r="41" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="188"/>
+      <c r="B41" s="171"/>
+      <c r="C41" s="171"/>
+      <c r="D41" s="171"/>
+      <c r="E41" s="159"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="161"/>
+      <c r="H41" s="159"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="160"/>
+    </row>
+    <row r="42" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="188"/>
+      <c r="B42" s="171"/>
+      <c r="C42" s="171"/>
+      <c r="D42" s="171"/>
+      <c r="E42" s="159"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="161"/>
+      <c r="H42" s="159"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="160"/>
+    </row>
+    <row r="43" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="188"/>
+      <c r="B43" s="171"/>
+      <c r="C43" s="171"/>
+      <c r="D43" s="171"/>
+      <c r="E43" s="159"/>
+      <c r="F43" s="160"/>
+      <c r="G43" s="161"/>
+      <c r="H43" s="159"/>
+      <c r="I43" s="160"/>
+      <c r="J43" s="160"/>
+    </row>
+    <row r="44" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="188"/>
+      <c r="B44" s="171"/>
+      <c r="C44" s="171"/>
+      <c r="D44" s="171"/>
+      <c r="E44" s="159"/>
+      <c r="F44" s="160"/>
+      <c r="G44" s="161"/>
+      <c r="H44" s="159"/>
+      <c r="I44" s="160"/>
+      <c r="J44" s="160"/>
+    </row>
+    <row r="45" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="188"/>
+      <c r="B45" s="171"/>
+      <c r="C45" s="171"/>
+      <c r="D45" s="171"/>
+      <c r="E45" s="159"/>
+      <c r="F45" s="160"/>
+      <c r="G45" s="161"/>
+      <c r="H45" s="159"/>
+      <c r="I45" s="160"/>
+      <c r="J45" s="160"/>
+    </row>
+    <row r="46" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="188"/>
+      <c r="B46" s="171"/>
+      <c r="C46" s="171"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="159"/>
+      <c r="F46" s="160"/>
+      <c r="G46" s="161"/>
+      <c r="H46" s="159"/>
+      <c r="I46" s="160"/>
+      <c r="J46" s="160"/>
+    </row>
+    <row r="47" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="188"/>
+      <c r="B47" s="171"/>
+      <c r="C47" s="171"/>
+      <c r="D47" s="171"/>
+      <c r="E47" s="159"/>
+      <c r="F47" s="160"/>
+      <c r="G47" s="161"/>
+      <c r="H47" s="159"/>
+      <c r="I47" s="160"/>
+      <c r="J47" s="160"/>
+    </row>
+    <row r="48" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="188"/>
+      <c r="B48" s="171"/>
+      <c r="C48" s="171"/>
+      <c r="D48" s="171"/>
+      <c r="E48" s="159"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="161"/>
+      <c r="H48" s="159"/>
+      <c r="I48" s="160"/>
+      <c r="J48" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:I57">
-    <cfRule type="expression" dxfId="16" priority="17">
+  <conditionalFormatting sqref="A3:J48">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>IF(MOD(ROW(),2)=0,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B57">
-    <cfRule type="top10" dxfId="15" priority="118" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="14" priority="119" rank="1"/>
+  <conditionalFormatting sqref="B3:C48">
+    <cfRule type="top10" dxfId="19" priority="350" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="351" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C57">
-    <cfRule type="top10" dxfId="13" priority="122" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="12" priority="123" rank="1"/>
+  <conditionalFormatting sqref="D3:D48">
+    <cfRule type="top10" dxfId="17" priority="354" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="355" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D57">
-    <cfRule type="top10" dxfId="11" priority="126" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="10" priority="127" rank="1"/>
+  <conditionalFormatting sqref="E3:E48">
+    <cfRule type="top10" dxfId="15" priority="358" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="359" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E57">
-    <cfRule type="top10" dxfId="9" priority="130" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="8" priority="131" rank="1"/>
+  <conditionalFormatting sqref="F3:F48">
+    <cfRule type="top10" dxfId="13" priority="362" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="363" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F57">
-    <cfRule type="top10" dxfId="7" priority="134" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="6" priority="135" rank="1"/>
+  <conditionalFormatting sqref="G3:G48">
+    <cfRule type="top10" dxfId="11" priority="366" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="367" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G57">
-    <cfRule type="top10" dxfId="5" priority="138" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="4" priority="139" rank="1"/>
+  <conditionalFormatting sqref="H3:H48">
+    <cfRule type="top10" dxfId="9" priority="370" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="371" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H57">
-    <cfRule type="top10" dxfId="3" priority="142" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="2" priority="143" rank="1"/>
+  <conditionalFormatting sqref="I3:I48">
+    <cfRule type="top10" dxfId="7" priority="374" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="375" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I57">
-    <cfRule type="top10" dxfId="1" priority="146" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="0" priority="147" rank="1"/>
+  <conditionalFormatting sqref="J3:J48">
+    <cfRule type="top10" dxfId="5" priority="378" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="379" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C48">
+    <cfRule type="top10" dxfId="3" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B48">
+    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
